--- a/DevBoardList.xlsx
+++ b/DevBoardList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\01_Libraries\Dokumente_HDD\## TO SORT\Basteln\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dvd62\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B29D0C-F1DC-43CF-BB82-48D47A6D5422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EA668B-61C4-4095-A85E-DCC953E8B93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -130,81 +130,24 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="82">
   <si>
-    <t>Chip</t>
-  </si>
-  <si>
-    <t>Kommentar</t>
-  </si>
-  <si>
     <t>ATmega32U4</t>
   </si>
   <si>
-    <t>USB-Typ</t>
-  </si>
-  <si>
-    <t>Bild</t>
-  </si>
-  <si>
-    <t>MicroControllerUnit</t>
-  </si>
-  <si>
-    <t>Plattform</t>
-  </si>
-  <si>
     <t>HID</t>
   </si>
   <si>
     <t>J</t>
   </si>
   <si>
-    <t>Flash</t>
-  </si>
-  <si>
-    <t>RAM</t>
-  </si>
-  <si>
     <t>2,5 KB</t>
   </si>
   <si>
-    <t>EEPROM</t>
-  </si>
-  <si>
     <t>1 KB</t>
   </si>
   <si>
-    <t>Takt</t>
-  </si>
-  <si>
-    <t>PWM</t>
-  </si>
-  <si>
-    <t>Analog</t>
-  </si>
-  <si>
     <t>Arduino (IDE) Bootloader;</t>
   </si>
   <si>
-    <t>Pinout</t>
-  </si>
-  <si>
-    <t>Pin↕️</t>
-  </si>
-  <si>
-    <t>Pin↔️</t>
-  </si>
-  <si>
-    <t>GPIO</t>
-  </si>
-  <si>
-    <t>Digital</t>
-  </si>
-  <si>
-    <t>VoltOp</t>
-  </si>
-  <si>
-    <t>VoltIn</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -212,9 +155,6 @@
   </si>
   <si>
     <t>BT</t>
-  </si>
-  <si>
-    <t>Preis</t>
   </si>
   <si>
     <t>USB-C</t>
@@ -243,9 +183,6 @@
     <t>96 KB</t>
   </si>
   <si>
-    <t>Cores</t>
-  </si>
-  <si>
     <t>Raspberry Pi Pico</t>
   </si>
   <si>
@@ -256,22 +193,10 @@
   </si>
   <si>
     <t>2 MB</t>
-  </si>
-  <si>
-    <t>Edge</t>
-  </si>
-  <si>
-    <t>UART</t>
   </si>
   <si>
     <t>1
 10-Bit</t>
-  </si>
-  <si>
-    <t>SPI</t>
-  </si>
-  <si>
-    <t>I2C</t>
   </si>
   <si>
     <t>3,3V - 5V ?</t>
@@ -404,6 +329,81 @@
   </si>
   <si>
     <t>ESP32-C3 Super Mini</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>dimX</t>
+  </si>
+  <si>
+    <t>dimY</t>
+  </si>
+  <si>
+    <t>controller</t>
+  </si>
+  <si>
+    <t>clock</t>
+  </si>
+  <si>
+    <t>cores</t>
+  </si>
+  <si>
+    <t>voltOp</t>
+  </si>
+  <si>
+    <t>voltOp2</t>
+  </si>
+  <si>
+    <t>connector</t>
+  </si>
+  <si>
+    <t>sizeFlash</t>
+  </si>
+  <si>
+    <t>sizeRAM</t>
+  </si>
+  <si>
+    <t>sizeEPROM</t>
+  </si>
+  <si>
+    <t>pinout</t>
+  </si>
+  <si>
+    <t>cntGPIO</t>
+  </si>
+  <si>
+    <t>cntDigital</t>
+  </si>
+  <si>
+    <t>cntAnalog</t>
+  </si>
+  <si>
+    <t>cntPWM</t>
+  </si>
+  <si>
+    <t>laneUART</t>
+  </si>
+  <si>
+    <t>langeI2C</t>
+  </si>
+  <si>
+    <t>laneSPI</t>
+  </si>
+  <si>
+    <t>edge</t>
+  </si>
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>comment</t>
   </si>
 </sst>
 </file>
@@ -465,7 +465,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -474,37 +474,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,7 +800,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -885,147 +861,139 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="15" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="2" builtinId="8"/>
@@ -2654,36 +2622,36 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E0176607-7D05-4F53-9667-39A4A03C5F12}" name="Tabelle1" displayName="Tabelle1" ref="A1:AB16" totalsRowShown="0" headerRowDxfId="34" headerRowBorderDxfId="33">
   <autoFilter ref="A1:AB16" xr:uid="{E0176607-7D05-4F53-9667-39A4A03C5F12}"/>
   <tableColumns count="28">
-    <tableColumn id="1" xr3:uid="{50E4B843-3F3C-48AB-9A11-A8AEAE98C688}" name="MicroControllerUnit" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{BDC1F6FD-F5BE-4BDC-A530-120CF1EDB073}" name="Bild" dataDxfId="31">
+    <tableColumn id="1" xr3:uid="{50E4B843-3F3C-48AB-9A11-A8AEAE98C688}" name="name" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{BDC1F6FD-F5BE-4BDC-A530-120CF1EDB073}" name="image" dataDxfId="31">
       <calculatedColumnFormula>_xlfn.IMAGE("https://m.media-amazon.com/images/I/71A63A5j3bL._AC_UF894,1000_QL80_.jpg")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{587542E2-02C3-42C4-B632-57BFD8B68620}" name="Chip" dataDxfId="30"/>
-    <tableColumn id="27" xr3:uid="{B4944D22-4754-4CF0-83EE-1AC37F1784DC}" name="Preis" dataDxfId="29" dataCellStyle="Währung"/>
-    <tableColumn id="19" xr3:uid="{64BA4BF5-1FDE-4732-B0F4-123756491263}" name="Pin↔️" dataDxfId="28"/>
-    <tableColumn id="21" xr3:uid="{E38615C3-81C4-47AD-8AC2-915CF0103F19}" name="Pin↕️" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{63C6D974-BDD1-4CA5-BB22-CAB3EEB46821}" name="Takt" dataDxfId="26"/>
-    <tableColumn id="30" xr3:uid="{36D840AA-FA68-4B34-86C5-8F75852AECBE}" name="Cores" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{74F9564F-F54A-4208-BF89-F5B2185537B4}" name="VoltOp" dataDxfId="24"/>
-    <tableColumn id="24" xr3:uid="{D241F3B3-FAE1-413D-881F-5705D2DF3FA7}" name="VoltIn" dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{65EE9DA7-A351-431B-AAE5-4B1E8D342B2C}" name="USB-Typ" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{8B0B2852-1E23-43D9-8CCF-612E7B5EAC8E}" name="Flash" dataDxfId="21"/>
-    <tableColumn id="15" xr3:uid="{CE6EB7FE-073F-47E9-8438-3EA045DA63E9}" name="RAM" dataDxfId="20"/>
-    <tableColumn id="16" xr3:uid="{71571936-9667-47A6-8DEC-607A17E73107}" name="EEPROM" dataDxfId="19"/>
-    <tableColumn id="20" xr3:uid="{7FB941BC-C54B-4F39-9306-34F9620C7AEC}" name="Pinout" dataDxfId="18"/>
-    <tableColumn id="23" xr3:uid="{AC87607F-8794-435F-BC6D-EDBFEA907F02}" name="GPIO" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{ECC27E07-5954-4DED-8238-0ED81C119069}" name="Digital" dataDxfId="16"/>
-    <tableColumn id="18" xr3:uid="{B8D9FA3A-1ED0-4F23-A9F0-AC177FD12812}" name="Analog" dataDxfId="15"/>
-    <tableColumn id="17" xr3:uid="{CD2A34BE-45F2-4510-8EF9-83EDDFEE035A}" name="PWM" dataDxfId="14"/>
-    <tableColumn id="29" xr3:uid="{10C0EFDD-8FEE-41FA-A6DA-8FE3EA458520}" name="UART" dataDxfId="13"/>
-    <tableColumn id="37" xr3:uid="{8718023C-E89D-479D-8DDB-53B56190C652}" name="I2C" dataDxfId="12"/>
-    <tableColumn id="36" xr3:uid="{0A52E200-5A7E-4345-B763-2510161760F2}" name="SPI" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{587542E2-02C3-42C4-B632-57BFD8B68620}" name="controller" dataDxfId="30"/>
+    <tableColumn id="27" xr3:uid="{B4944D22-4754-4CF0-83EE-1AC37F1784DC}" name="price" dataDxfId="29" dataCellStyle="Währung"/>
+    <tableColumn id="19" xr3:uid="{64BA4BF5-1FDE-4732-B0F4-123756491263}" name="dimX" dataDxfId="28"/>
+    <tableColumn id="21" xr3:uid="{E38615C3-81C4-47AD-8AC2-915CF0103F19}" name="dimY" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{63C6D974-BDD1-4CA5-BB22-CAB3EEB46821}" name="clock" dataDxfId="26"/>
+    <tableColumn id="30" xr3:uid="{36D840AA-FA68-4B34-86C5-8F75852AECBE}" name="cores" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{74F9564F-F54A-4208-BF89-F5B2185537B4}" name="voltOp" dataDxfId="24"/>
+    <tableColumn id="24" xr3:uid="{D241F3B3-FAE1-413D-881F-5705D2DF3FA7}" name="voltOp2" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{65EE9DA7-A351-431B-AAE5-4B1E8D342B2C}" name="connector" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{8B0B2852-1E23-43D9-8CCF-612E7B5EAC8E}" name="sizeFlash" dataDxfId="21"/>
+    <tableColumn id="15" xr3:uid="{CE6EB7FE-073F-47E9-8438-3EA045DA63E9}" name="sizeRAM" dataDxfId="20"/>
+    <tableColumn id="16" xr3:uid="{71571936-9667-47A6-8DEC-607A17E73107}" name="sizeEPROM" dataDxfId="19"/>
+    <tableColumn id="20" xr3:uid="{7FB941BC-C54B-4F39-9306-34F9620C7AEC}" name="pinout" dataDxfId="18"/>
+    <tableColumn id="23" xr3:uid="{AC87607F-8794-435F-BC6D-EDBFEA907F02}" name="cntGPIO" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{ECC27E07-5954-4DED-8238-0ED81C119069}" name="cntDigital" dataDxfId="16"/>
+    <tableColumn id="18" xr3:uid="{B8D9FA3A-1ED0-4F23-A9F0-AC177FD12812}" name="cntAnalog" dataDxfId="15"/>
+    <tableColumn id="17" xr3:uid="{CD2A34BE-45F2-4510-8EF9-83EDDFEE035A}" name="cntPWM" dataDxfId="14"/>
+    <tableColumn id="29" xr3:uid="{10C0EFDD-8FEE-41FA-A6DA-8FE3EA458520}" name="laneUART" dataDxfId="13"/>
+    <tableColumn id="37" xr3:uid="{8718023C-E89D-479D-8DDB-53B56190C652}" name="langeI2C" dataDxfId="12"/>
+    <tableColumn id="36" xr3:uid="{0A52E200-5A7E-4345-B763-2510161760F2}" name="laneSPI" dataDxfId="11"/>
     <tableColumn id="25" xr3:uid="{1C1B65FF-0397-4A72-B697-BEE8A7130ACE}" name="WLAN" dataDxfId="10"/>
     <tableColumn id="26" xr3:uid="{CE794EDB-081C-414E-8975-5B0FBFC905EE}" name="BT" dataDxfId="9"/>
     <tableColumn id="14" xr3:uid="{D2D192E4-D4BC-456C-AFD4-2AC6C192B221}" name="HID" dataDxfId="8"/>
-    <tableColumn id="32" xr3:uid="{2BDB4DB9-DFE3-4AAA-95E1-062F62CF4291}" name="Edge" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{9E7D0881-B1D1-43E9-B469-F3EA9BF57CBF}" name="Plattform" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{72928A24-D14D-468F-8CE2-67C7ED1B739C}" name="Kommentar" dataDxfId="5"/>
+    <tableColumn id="32" xr3:uid="{2BDB4DB9-DFE3-4AAA-95E1-062F62CF4291}" name="edge" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{9E7D0881-B1D1-43E9-B469-F3EA9BF57CBF}" name="platform" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{72928A24-D14D-468F-8CE2-67C7ED1B739C}" name="comment" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2955,8 +2923,8 @@
   <dimension ref="A1:AB16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2972,8 +2940,8 @@
     <col min="9" max="9" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5703125" customWidth="1"/>
     <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
@@ -2981,9 +2949,10 @@
     <col min="18" max="18" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7.7109375" style="3" customWidth="1"/>
-    <col min="21" max="22" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.42578125" style="55" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.42578125" style="42" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="13.28515625" bestFit="1" customWidth="1"/>
@@ -2991,98 +2960,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="U1" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="V1" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="W1" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="X1" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y1" s="28" t="s">
+      <c r="A1" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="R1" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="S1" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="T1" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="U1" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="V1" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="W1" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="Z1" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA1" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB1" s="29" t="s">
+      <c r="X1" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y1" s="66" t="s">
         <v>1</v>
+      </c>
+      <c r="Z1" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB1" s="65" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="87.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
-        <v>56</v>
+      <c r="A2" s="50" t="s">
+        <v>31</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="12" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2" s="17">
         <v>4</v>
@@ -3090,34 +3059,34 @@
       <c r="E2" s="15">
         <v>12</v>
       </c>
-      <c r="F2" s="30">
+      <c r="F2" s="22">
         <v>7</v>
       </c>
-      <c r="G2" s="68">
+      <c r="G2" s="55">
         <v>16</v>
       </c>
-      <c r="H2" s="50" t="s">
-        <v>57</v>
+      <c r="H2" s="38" t="s">
+        <v>32</v>
       </c>
       <c r="I2" s="16">
         <v>5</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="K2" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="38" t="s">
-        <v>31</v>
+        <v>27</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="28" t="s">
+        <v>11</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="70" t="e" vm="1">
+        <v>3</v>
+      </c>
+      <c r="N2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="57" t="e" vm="1">
         <f>_xlfn.IMAGE("https://golem.hu/pic/pro_micro_pinout.jpg")</f>
         <v>#VALUE!</v>
       </c>
@@ -3128,45 +3097,45 @@
         <v>12</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" s="36">
+        <v>12</v>
+      </c>
+      <c r="S2" s="26">
         <v>5</v>
       </c>
-      <c r="T2" s="57">
+      <c r="T2" s="44">
         <v>1</v>
       </c>
-      <c r="U2" s="61">
+      <c r="U2" s="48">
         <v>1</v>
       </c>
-      <c r="V2" s="59">
+      <c r="V2" s="46">
         <v>1</v>
       </c>
       <c r="W2" s="14" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="X2" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y2" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z2" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA2" s="44" t="s">
-        <v>17</v>
+        <v>6</v>
+      </c>
+      <c r="Y2" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA2" s="32" t="s">
+        <v>5</v>
       </c>
       <c r="AB2" s="11" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:28" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
-        <v>61</v>
+      <c r="A3" s="51" t="s">
+        <v>36</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3" s="18">
         <v>6</v>
@@ -3174,34 +3143,34 @@
       <c r="E3" s="21">
         <v>12</v>
       </c>
-      <c r="F3" s="45">
+      <c r="F3" s="33">
         <v>7</v>
       </c>
-      <c r="G3" s="69">
+      <c r="G3" s="56">
         <v>16</v>
       </c>
-      <c r="H3" s="50" t="s">
-        <v>57</v>
+      <c r="H3" s="38" t="s">
+        <v>32</v>
       </c>
       <c r="I3" s="19">
         <v>5</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="39" t="s">
-        <v>31</v>
+        <v>27</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="29" t="s">
+        <v>11</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="70" t="e" vm="1">
+        <v>3</v>
+      </c>
+      <c r="N3" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="57" t="e" vm="1">
         <f>_xlfn.IMAGE("https://golem.hu/pic/pro_micro_pinout.jpg")</f>
         <v>#VALUE!</v>
       </c>
@@ -3212,45 +3181,45 @@
         <v>12</v>
       </c>
       <c r="R3" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="S3" s="37">
+        <v>12</v>
+      </c>
+      <c r="S3" s="27">
         <v>5</v>
       </c>
-      <c r="T3" s="58">
+      <c r="T3" s="45">
         <v>1</v>
       </c>
-      <c r="U3" s="62">
+      <c r="U3" s="49">
         <v>1</v>
       </c>
-      <c r="V3" s="60">
+      <c r="V3" s="47">
         <v>1</v>
       </c>
       <c r="W3" s="20" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="X3" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y3" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z3" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA3" s="44" t="s">
-        <v>17</v>
+        <v>6</v>
+      </c>
+      <c r="Y3" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA3" s="32" t="s">
+        <v>5</v>
       </c>
       <c r="AB3" s="11" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:28" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
-        <v>33</v>
+      <c r="A4" s="51" t="s">
+        <v>13</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D4" s="18">
         <v>2</v>
@@ -3258,34 +3227,34 @@
       <c r="E4" s="21">
         <v>8</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="33">
         <v>10</v>
       </c>
-      <c r="G4" s="69">
+      <c r="G4" s="56">
         <v>160</v>
       </c>
-      <c r="H4" s="51" t="s">
-        <v>58</v>
+      <c r="H4" s="39" t="s">
+        <v>33</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="46" t="s">
-        <v>35</v>
+        <v>28</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="34" t="s">
+        <v>15</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="O4" s="71" t="e" vm="2">
+        <v>16</v>
+      </c>
+      <c r="N4" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="58" t="e" vm="2">
         <f>_xlfn.IMAGE("https://m.media-amazon.com/images/S/aplus-media-library-service-media/717698ba-d013-49aa-9cef-37c054ebc751.__CR0,0,970,600_PT0_SX970_V1___.jpg")</f>
         <v>#VALUE!</v>
       </c>
@@ -3296,44 +3265,44 @@
         <v>9</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="S4" s="37">
+        <v>21</v>
+      </c>
+      <c r="S4" s="27">
         <v>9</v>
       </c>
-      <c r="T4" s="58">
+      <c r="T4" s="45">
         <v>1</v>
       </c>
-      <c r="U4" s="62">
+      <c r="U4" s="49">
         <v>1</v>
       </c>
-      <c r="V4" s="60">
+      <c r="V4" s="47">
         <v>1</v>
       </c>
       <c r="W4" s="20" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="X4" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y4" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z4" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA4" s="44" t="s">
-        <v>17</v>
+        <v>6</v>
+      </c>
+      <c r="Y4" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z4" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA4" s="32" t="s">
+        <v>5</v>
       </c>
       <c r="AB4" s="5"/>
     </row>
     <row r="5" spans="1:28" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
-        <v>38</v>
+      <c r="A5" s="51" t="s">
+        <v>17</v>
       </c>
       <c r="B5" s="8"/>
-      <c r="C5" s="56" t="s">
-        <v>39</v>
+      <c r="C5" s="43" t="s">
+        <v>18</v>
       </c>
       <c r="D5" s="18">
         <v>5</v>
@@ -3341,34 +3310,34 @@
       <c r="E5" s="21">
         <v>20</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="33">
         <v>8</v>
       </c>
-      <c r="G5" s="69">
+      <c r="G5" s="56">
         <v>133</v>
       </c>
-      <c r="H5" s="51" t="s">
-        <v>59</v>
+      <c r="H5" s="39" t="s">
+        <v>34</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="46" t="s">
-        <v>41</v>
+        <v>22</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="34" t="s">
+        <v>20</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="O5" s="71" t="e" vm="3">
+        <v>19</v>
+      </c>
+      <c r="N5" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="58" t="e" vm="3">
         <f>_xlfn.IMAGE("https://d28lcup14p4e72.cloudfront.net/203128/7592134/423FEC27-201C-4091-B185-F9E24A5EBFB9.png")</f>
         <v>#VALUE!</v>
       </c>
@@ -3379,44 +3348,44 @@
         <v>26</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="S5" s="37">
+        <v>43</v>
+      </c>
+      <c r="S5" s="27">
         <v>16</v>
       </c>
-      <c r="T5" s="58">
+      <c r="T5" s="45">
         <v>2</v>
       </c>
-      <c r="U5" s="62">
+      <c r="U5" s="49">
         <v>2</v>
       </c>
-      <c r="V5" s="60">
+      <c r="V5" s="47">
         <v>2</v>
       </c>
       <c r="W5" s="20" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="X5" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y5" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z5" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA5" s="44" t="s">
-        <v>55</v>
+        <v>6</v>
+      </c>
+      <c r="Y5" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="32" t="s">
+        <v>30</v>
       </c>
       <c r="AB5" s="5"/>
     </row>
     <row r="6" spans="1:28" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
-        <v>62</v>
+      <c r="A6" s="51" t="s">
+        <v>37</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="56" t="s">
-        <v>39</v>
+      <c r="C6" s="43" t="s">
+        <v>18</v>
       </c>
       <c r="D6" s="18">
         <v>5</v>
@@ -3424,81 +3393,81 @@
       <c r="E6" s="21">
         <v>20</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="33">
         <v>8</v>
       </c>
-      <c r="G6" s="69">
+      <c r="G6" s="56">
         <v>133</v>
       </c>
-      <c r="H6" s="51" t="s">
-        <v>59</v>
+      <c r="H6" s="39" t="s">
+        <v>34</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K6" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N6" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="O6" s="71" t="e" vm="4">
+      <c r="O6" s="58" t="e" vm="4">
         <f>_xlfn.IMAGE("https://ae01.alicdn.com/kf/Se12a486397794177a118e1ad3e610e678.jpg")</f>
         <v>#VALUE!</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="S6" s="37">
+        <v>43</v>
+      </c>
+      <c r="S6" s="27">
         <v>16</v>
       </c>
-      <c r="T6" s="58">
+      <c r="T6" s="45">
         <v>2</v>
       </c>
-      <c r="U6" s="62">
+      <c r="U6" s="49">
         <v>2</v>
       </c>
-      <c r="V6" s="60">
+      <c r="V6" s="47">
         <v>2</v>
       </c>
       <c r="W6" s="20" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="X6" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y6" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z6" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA6" s="44" t="s">
-        <v>55</v>
+        <v>6</v>
+      </c>
+      <c r="Y6" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA6" s="32" t="s">
+        <v>30</v>
       </c>
       <c r="AB6" s="5"/>
     </row>
     <row r="7" spans="1:28" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="66" t="s">
-        <v>39</v>
+      <c r="A7" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>18</v>
       </c>
       <c r="D7" s="18">
         <v>5</v>
@@ -3506,84 +3475,84 @@
       <c r="E7" s="21">
         <v>13</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="33">
         <v>7</v>
       </c>
-      <c r="G7" s="69">
+      <c r="G7" s="56">
         <v>133</v>
       </c>
-      <c r="H7" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" s="67">
+      <c r="H7" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="54">
         <v>3.3</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K7" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N7" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="O7" s="71" t="e" vm="5">
+      <c r="O7" s="58" t="e" vm="5">
         <f>_xlfn.IMAGE("https://ae01.alicdn.com/kf/S0fb5f9353ac14ab39286c5280e17fae4b.jpg")</f>
         <v>#VALUE!</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="S7" s="37">
+        <v>44</v>
+      </c>
+      <c r="S7" s="27">
         <v>16</v>
       </c>
-      <c r="T7" s="58">
+      <c r="T7" s="45">
         <v>2</v>
       </c>
-      <c r="U7" s="62">
+      <c r="U7" s="49">
         <v>2</v>
       </c>
-      <c r="V7" s="60">
+      <c r="V7" s="47">
         <v>2</v>
       </c>
       <c r="W7" s="20" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="X7" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y7" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z7" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA7" s="44" t="s">
-        <v>55</v>
+        <v>6</v>
+      </c>
+      <c r="Y7" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA7" s="32" t="s">
+        <v>30</v>
       </c>
       <c r="AB7" s="5" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:28" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="64" t="s">
-        <v>64</v>
+      <c r="A8" s="51" t="s">
+        <v>39</v>
       </c>
       <c r="B8"/>
-      <c r="C8" s="66" t="s">
-        <v>39</v>
+      <c r="C8" s="53" t="s">
+        <v>18</v>
       </c>
       <c r="D8" s="18">
         <v>5</v>
@@ -3591,34 +3560,34 @@
       <c r="E8" s="21">
         <v>14</v>
       </c>
-      <c r="F8" s="73">
+      <c r="F8" s="60">
         <v>7</v>
       </c>
-      <c r="G8" s="69">
+      <c r="G8" s="56">
         <v>133</v>
       </c>
-      <c r="H8" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="I8" s="67">
+      <c r="H8" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="54">
         <v>3.3</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="L8" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N8" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="O8" s="71" t="e" vm="6">
+      <c r="O8" s="58" t="e" vm="6">
         <f>_xlfn.IMAGE("https://ae01.alicdn.com/kf/S727020357b8849c08a74ecc113f0aab9V.png")</f>
         <v>#VALUE!</v>
       </c>
@@ -3629,44 +3598,44 @@
         <v>29</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="S8" s="37">
+        <v>44</v>
+      </c>
+      <c r="S8" s="27">
         <v>16</v>
       </c>
-      <c r="T8" s="72">
+      <c r="T8" s="59">
         <v>2</v>
       </c>
-      <c r="U8" s="62">
+      <c r="U8" s="49">
         <v>2</v>
       </c>
-      <c r="V8" s="60">
+      <c r="V8" s="47">
         <v>2</v>
       </c>
       <c r="W8" s="20" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="X8" s="20" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="Y8" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z8" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA8" s="44" t="s">
-        <v>55</v>
+        <v>2</v>
+      </c>
+      <c r="Z8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA8" s="32" t="s">
+        <v>30</v>
       </c>
       <c r="AB8" s="5"/>
     </row>
     <row r="9" spans="1:28" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="64" t="s">
-        <v>66</v>
+      <c r="A9" s="51" t="s">
+        <v>41</v>
       </c>
       <c r="B9"/>
-      <c r="C9" s="66" t="s">
-        <v>39</v>
+      <c r="C9" s="53" t="s">
+        <v>18</v>
       </c>
       <c r="D9" s="18">
         <v>4</v>
@@ -3674,82 +3643,82 @@
       <c r="E9" s="21">
         <v>9</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="33">
         <v>7</v>
       </c>
-      <c r="G9" s="69">
+      <c r="G9" s="56">
         <v>133</v>
       </c>
-      <c r="H9" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="I9" s="67">
+      <c r="H9" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="54">
         <v>3.3</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K9" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N9" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="O9" s="71" t="e" vm="7">
+      <c r="O9" s="58" t="e" vm="7">
         <f>_xlfn.IMAGE("https://ae01.alicdn.com/kf/S94e1d0dc296b43f1a55a1bc219a6e932h.png")</f>
         <v>#VALUE!</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="S9" s="37">
+        <v>44</v>
+      </c>
+      <c r="S9" s="27">
         <v>16</v>
       </c>
-      <c r="T9" s="58">
+      <c r="T9" s="45">
         <v>2</v>
       </c>
-      <c r="U9" s="62">
+      <c r="U9" s="49">
         <v>2</v>
       </c>
-      <c r="V9" s="60">
+      <c r="V9" s="47">
         <v>2</v>
       </c>
       <c r="W9" s="20" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="X9" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y9" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z9" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA9" s="44" t="s">
-        <v>55</v>
+        <v>6</v>
+      </c>
+      <c r="Y9" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA9" s="32" t="s">
+        <v>30</v>
       </c>
       <c r="AB9" s="5"/>
     </row>
     <row r="10" spans="1:28" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="64" t="s">
-        <v>74</v>
+      <c r="A10" s="51" t="s">
+        <v>49</v>
       </c>
       <c r="B10"/>
-      <c r="C10" s="66" t="s">
-        <v>39</v>
+      <c r="C10" s="53" t="s">
+        <v>18</v>
       </c>
       <c r="D10" s="18">
         <v>3</v>
@@ -3757,270 +3726,270 @@
       <c r="E10" s="21">
         <v>9</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="33">
         <v>7</v>
       </c>
-      <c r="G10" s="69">
+      <c r="G10" s="56">
         <v>133</v>
       </c>
-      <c r="H10" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" s="67">
+      <c r="H10" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="54">
         <v>3.3</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K10" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N10" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="O10" s="71" t="e" vm="8">
+      <c r="O10" s="58" t="e" vm="8">
         <f>_xlfn.IMAGE("https://ae01.alicdn.com/kf/Sbfea1c5534ef4ed2838f33ace9000c07L.jpg")</f>
         <v>#VALUE!</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="S10" s="37">
+        <v>44</v>
+      </c>
+      <c r="S10" s="27">
         <v>16</v>
       </c>
-      <c r="T10" s="58">
+      <c r="T10" s="45">
         <v>2</v>
       </c>
-      <c r="U10" s="62">
+      <c r="U10" s="49">
         <v>2</v>
       </c>
-      <c r="V10" s="60">
+      <c r="V10" s="47">
         <v>2</v>
       </c>
       <c r="W10" s="20" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="X10" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y10" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z10" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA10" s="44" t="s">
-        <v>55</v>
+        <v>6</v>
+      </c>
+      <c r="Y10" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA10" s="32" t="s">
+        <v>30</v>
       </c>
       <c r="AB10" s="5"/>
     </row>
     <row r="11" spans="1:28" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="65"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="6"/>
       <c r="C11" s="4"/>
       <c r="E11" s="21"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" s="51"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="39"/>
       <c r="I11" s="19"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="46"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="34"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="72"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="59"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="58"/>
-      <c r="U11" s="62"/>
-      <c r="V11" s="60"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="47"/>
       <c r="W11" s="20"/>
       <c r="X11" s="20"/>
-      <c r="Y11" s="42"/>
-      <c r="Z11" s="54"/>
-      <c r="AA11" s="48"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="41"/>
+      <c r="AA11" s="36"/>
       <c r="AB11" s="5"/>
     </row>
     <row r="12" spans="1:28" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="65" t="s">
-        <v>50</v>
+      <c r="A12" s="52" t="s">
+        <v>25</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="18"/>
       <c r="E12" s="21"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="51"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="39"/>
       <c r="I12" s="19"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="46"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="34"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="72"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="59"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="62"/>
-      <c r="V12" s="60"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="47"/>
       <c r="W12" s="20"/>
       <c r="X12" s="20"/>
-      <c r="Y12" s="42"/>
-      <c r="Z12" s="54"/>
-      <c r="AA12" s="48"/>
+      <c r="Y12" s="31"/>
+      <c r="Z12" s="41"/>
+      <c r="AA12" s="36"/>
       <c r="AB12" s="5"/>
     </row>
     <row r="13" spans="1:28" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="65" t="s">
-        <v>77</v>
+      <c r="A13" s="52" t="s">
+        <v>52</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="18"/>
       <c r="E13" s="21"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="51"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="39"/>
       <c r="I13" s="19"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="46"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="34"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="72"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="59"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="62"/>
-      <c r="V13" s="60"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="47"/>
       <c r="W13" s="20"/>
       <c r="X13" s="20"/>
-      <c r="Y13" s="42"/>
-      <c r="Z13" s="54"/>
-      <c r="AA13" s="48"/>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="36"/>
       <c r="AB13" s="5"/>
     </row>
     <row r="14" spans="1:28" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="74" t="s">
-        <v>79</v>
+      <c r="A14" s="61" t="s">
+        <v>54</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="18"/>
       <c r="E14" s="21"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="51"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="39"/>
       <c r="I14" s="19"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="46"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="34"/>
       <c r="M14" s="4"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="72"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="59"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="58"/>
-      <c r="U14" s="62"/>
-      <c r="V14" s="60"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="47"/>
       <c r="W14" s="20"/>
       <c r="X14" s="20"/>
-      <c r="Y14" s="42"/>
-      <c r="Z14" s="54"/>
-      <c r="AA14" s="48"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="41"/>
+      <c r="AA14" s="36"/>
       <c r="AB14" s="5"/>
     </row>
     <row r="15" spans="1:28" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="65" t="s">
-        <v>81</v>
+      <c r="A15" s="52" t="s">
+        <v>56</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="18"/>
       <c r="E15" s="21"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="51"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="39"/>
       <c r="I15" s="19"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="46"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="34"/>
       <c r="M15" s="4"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="72"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="59"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="58"/>
-      <c r="U15" s="62"/>
-      <c r="V15" s="60"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="49"/>
+      <c r="V15" s="47"/>
       <c r="W15" s="20"/>
       <c r="X15" s="20"/>
-      <c r="Y15" s="42"/>
-      <c r="Z15" s="54"/>
-      <c r="AA15" s="48"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="41"/>
+      <c r="AA15" s="36"/>
       <c r="AB15" s="5"/>
     </row>
     <row r="16" spans="1:28" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="65"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="18"/>
       <c r="E16" s="21"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="51"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="39"/>
       <c r="I16" s="19"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="46"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="34"/>
       <c r="M16" s="4"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="72"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="59"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="58"/>
-      <c r="U16" s="62"/>
-      <c r="V16" s="60"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="49"/>
+      <c r="V16" s="47"/>
       <c r="W16" s="20"/>
       <c r="X16" s="20"/>
-      <c r="Y16" s="42"/>
-      <c r="Z16" s="54"/>
-      <c r="AA16" s="48"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="41"/>
+      <c r="AA16" s="36"/>
       <c r="AB16" s="5"/>
     </row>
   </sheetData>

--- a/DevBoardList.xlsx
+++ b/DevBoardList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dvd62\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dokumente_HDD\## TO SORT\Basteln\Projekte\DevBoardList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EA668B-61C4-4095-A85E-DCC953E8B93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141948A8-3B6B-4793-9917-DD725A2E5FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="8">
+  <futureMetadata name="XLRICHVALUE" count="7">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -90,15 +90,8 @@
         </ext>
       </extLst>
     </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="7"/>
-        </ext>
-      </extLst>
-    </bk>
   </futureMetadata>
-  <valueMetadata count="8">
+  <valueMetadata count="7">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -120,22 +113,16 @@
     <bk>
       <rc t="1" v="6"/>
     </bk>
-    <bk>
-      <rc t="1" v="7"/>
-    </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="96">
   <si>
     <t>ATmega32U4</t>
   </si>
   <si>
-    <t>HID</t>
-  </si>
-  <si>
     <t>J</t>
   </si>
   <si>
@@ -149,12 +136,6 @@
   </si>
   <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>WLAN</t>
-  </si>
-  <si>
-    <t>BT</t>
   </si>
   <si>
     <t>USB-C</t>
@@ -352,15 +333,9 @@
     <t>clock</t>
   </si>
   <si>
-    <t>cores</t>
-  </si>
-  <si>
     <t>voltOp</t>
   </si>
   <si>
-    <t>voltOp2</t>
-  </si>
-  <si>
     <t>connector</t>
   </si>
   <si>
@@ -397,13 +372,70 @@
     <t>laneSPI</t>
   </si>
   <si>
-    <t>edge</t>
-  </si>
-  <si>
     <t>platform</t>
   </si>
   <si>
     <t>comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t>voltIn</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>id &lt;inv&gt;</t>
+  </si>
+  <si>
+    <t>imageSrc &lt;inv&gt;</t>
+  </si>
+  <si>
+    <t>datasheet</t>
+  </si>
+  <si>
+    <t>dataSheetSrc</t>
+  </si>
+  <si>
+    <t>cDatasheet</t>
+  </si>
+  <si>
+    <t>cDatahseetSrc</t>
+  </si>
+  <si>
+    <t>coreCnt</t>
+  </si>
+  <si>
+    <t>coreBit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Core </t>
+  </si>
+  <si>
+    <t>8-Bit</t>
+  </si>
+  <si>
+    <t>sizeFlashFree</t>
+  </si>
+  <si>
+    <t>pinoutSrc</t>
+  </si>
+  <si>
+    <t>analogBit</t>
+  </si>
+  <si>
+    <t>edgeCut</t>
+  </si>
+  <si>
+    <t>WLAN &lt;protocol&gt;</t>
+  </si>
+  <si>
+    <t>BT &lt;protocol&gt;</t>
+  </si>
+  <si>
+    <t>HID &lt;protocol&gt;</t>
   </si>
 </sst>
 </file>
@@ -418,7 +450,7 @@
     <numFmt numFmtId="167" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="0.0&quot;V&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,6 +496,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -485,7 +531,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -794,13 +840,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -820,9 +901,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -987,20 +1065,88 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="2" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Währung" xfId="1" builtinId="4"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="46">
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1035,6 +1181,220 @@
       </font>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0&quot; Pin&quot;"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0&quot; Pin&quot;"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0&quot; Pin&quot;"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="20" formatCode="dd/\ mmm\ yy"/>
       <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1502,23 +1862,6 @@
     <dxf>
       <numFmt numFmtId="167" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="1" tint="0.14999847407452621"/>
@@ -1604,13 +1947,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>34863</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>18588</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1762863</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>1098009</xdr:rowOff>
@@ -1677,13 +2020,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>51289</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>61596</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1779289</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>1052097</xdr:rowOff>
@@ -1747,13 +2090,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -1795,13 +2138,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -1843,13 +2186,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -1891,13 +2234,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>171555</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>19272</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1597268</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>1099272</xdr:rowOff>
@@ -1951,13 +2294,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -1999,13 +2342,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>23764</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>207113</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1787764</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>945173</xdr:rowOff>
@@ -2069,13 +2412,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>23769</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>178547</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1787769</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>952974</xdr:rowOff>
@@ -2139,13 +2482,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>32194</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>106764</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1796194</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>1043480</xdr:rowOff>
@@ -2209,13 +2552,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>29328</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>113743</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1793328</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>985331</xdr:rowOff>
@@ -2279,13 +2622,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>223343</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>66779</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1591343</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>1057572</xdr:rowOff>
@@ -2349,13 +2692,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -2397,13 +2740,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>229917</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>61013</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1588640</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>1051013</xdr:rowOff>
@@ -2547,15 +2890,11 @@
     <address r:id="rId13"/>
     <blip r:id="rId14"/>
   </webImageSrd>
-  <webImageSrd>
-    <address r:id="rId15"/>
-    <blip r:id="rId16"/>
-  </webImageSrd>
 </webImagesSrd>
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="8">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="7">
   <rv s="0">
     <v>0</v>
     <v>1</v>
@@ -2598,12 +2937,6 @@
     <v>0</v>
     <v>0</v>
   </rv>
-  <rv s="0">
-    <v>7</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
 </rvData>
 </file>
 
@@ -2619,39 +2952,50 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E0176607-7D05-4F53-9667-39A4A03C5F12}" name="Tabelle1" displayName="Tabelle1" ref="A1:AB16" totalsRowShown="0" headerRowDxfId="34" headerRowBorderDxfId="33">
-  <autoFilter ref="A1:AB16" xr:uid="{E0176607-7D05-4F53-9667-39A4A03C5F12}"/>
-  <tableColumns count="28">
-    <tableColumn id="1" xr3:uid="{50E4B843-3F3C-48AB-9A11-A8AEAE98C688}" name="name" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{BDC1F6FD-F5BE-4BDC-A530-120CF1EDB073}" name="image" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E0176607-7D05-4F53-9667-39A4A03C5F12}" name="Tabelle1" displayName="Tabelle1" ref="A1:AM16" totalsRowShown="0" headerRowDxfId="45" headerRowBorderDxfId="44">
+  <autoFilter ref="A1:AM16" xr:uid="{E0176607-7D05-4F53-9667-39A4A03C5F12}"/>
+  <tableColumns count="39">
+    <tableColumn id="10" xr3:uid="{06F3FDFB-D908-4506-9F73-B1950B5432B2}" name="id &lt;inv&gt;" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{50E4B843-3F3C-48AB-9A11-A8AEAE98C688}" name="name" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{BDC1F6FD-F5BE-4BDC-A530-120CF1EDB073}" name="image" dataDxfId="42">
       <calculatedColumnFormula>_xlfn.IMAGE("https://m.media-amazon.com/images/I/71A63A5j3bL._AC_UF894,1000_QL80_.jpg")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{587542E2-02C3-42C4-B632-57BFD8B68620}" name="controller" dataDxfId="30"/>
-    <tableColumn id="27" xr3:uid="{B4944D22-4754-4CF0-83EE-1AC37F1784DC}" name="price" dataDxfId="29" dataCellStyle="Währung"/>
-    <tableColumn id="19" xr3:uid="{64BA4BF5-1FDE-4732-B0F4-123756491263}" name="dimX" dataDxfId="28"/>
-    <tableColumn id="21" xr3:uid="{E38615C3-81C4-47AD-8AC2-915CF0103F19}" name="dimY" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{63C6D974-BDD1-4CA5-BB22-CAB3EEB46821}" name="clock" dataDxfId="26"/>
-    <tableColumn id="30" xr3:uid="{36D840AA-FA68-4B34-86C5-8F75852AECBE}" name="cores" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{74F9564F-F54A-4208-BF89-F5B2185537B4}" name="voltOp" dataDxfId="24"/>
-    <tableColumn id="24" xr3:uid="{D241F3B3-FAE1-413D-881F-5705D2DF3FA7}" name="voltOp2" dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{65EE9DA7-A351-431B-AAE5-4B1E8D342B2C}" name="connector" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{8B0B2852-1E23-43D9-8CCF-612E7B5EAC8E}" name="sizeFlash" dataDxfId="21"/>
-    <tableColumn id="15" xr3:uid="{CE6EB7FE-073F-47E9-8438-3EA045DA63E9}" name="sizeRAM" dataDxfId="20"/>
-    <tableColumn id="16" xr3:uid="{71571936-9667-47A6-8DEC-607A17E73107}" name="sizeEPROM" dataDxfId="19"/>
-    <tableColumn id="20" xr3:uid="{7FB941BC-C54B-4F39-9306-34F9620C7AEC}" name="pinout" dataDxfId="18"/>
-    <tableColumn id="23" xr3:uid="{AC87607F-8794-435F-BC6D-EDBFEA907F02}" name="cntGPIO" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{ECC27E07-5954-4DED-8238-0ED81C119069}" name="cntDigital" dataDxfId="16"/>
-    <tableColumn id="18" xr3:uid="{B8D9FA3A-1ED0-4F23-A9F0-AC177FD12812}" name="cntAnalog" dataDxfId="15"/>
-    <tableColumn id="17" xr3:uid="{CD2A34BE-45F2-4510-8EF9-83EDDFEE035A}" name="cntPWM" dataDxfId="14"/>
-    <tableColumn id="29" xr3:uid="{10C0EFDD-8FEE-41FA-A6DA-8FE3EA458520}" name="laneUART" dataDxfId="13"/>
-    <tableColumn id="37" xr3:uid="{8718023C-E89D-479D-8DDB-53B56190C652}" name="langeI2C" dataDxfId="12"/>
-    <tableColumn id="36" xr3:uid="{0A52E200-5A7E-4345-B763-2510161760F2}" name="laneSPI" dataDxfId="11"/>
-    <tableColumn id="25" xr3:uid="{1C1B65FF-0397-4A72-B697-BEE8A7130ACE}" name="WLAN" dataDxfId="10"/>
-    <tableColumn id="26" xr3:uid="{CE794EDB-081C-414E-8975-5B0FBFC905EE}" name="BT" dataDxfId="9"/>
-    <tableColumn id="14" xr3:uid="{D2D192E4-D4BC-456C-AFD4-2AC6C192B221}" name="HID" dataDxfId="8"/>
-    <tableColumn id="32" xr3:uid="{2BDB4DB9-DFE3-4AAA-95E1-062F62CF4291}" name="edge" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{9E7D0881-B1D1-43E9-B469-F3EA9BF57CBF}" name="platform" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{72928A24-D14D-468F-8CE2-67C7ED1B739C}" name="comment" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{7FA666B0-D25B-4777-954C-48E52AB85516}" name="imageSrc &lt;inv&gt;" dataDxfId="13" dataCellStyle="Link"/>
+    <tableColumn id="13" xr3:uid="{E026474B-EDC8-4862-82FC-4A495BD8B4BE}" name="link" dataDxfId="15" dataCellStyle="Link"/>
+    <tableColumn id="27" xr3:uid="{B4944D22-4754-4CF0-83EE-1AC37F1784DC}" name="price" dataDxfId="41" dataCellStyle="Währung"/>
+    <tableColumn id="19" xr3:uid="{64BA4BF5-1FDE-4732-B0F4-123756491263}" name="dimX" dataDxfId="40"/>
+    <tableColumn id="21" xr3:uid="{E38615C3-81C4-47AD-8AC2-915CF0103F19}" name="dimY" dataDxfId="39"/>
+    <tableColumn id="22" xr3:uid="{55C0C826-652F-4A6B-83E3-CCDB9601F342}" name="datasheet" dataDxfId="12"/>
+    <tableColumn id="28" xr3:uid="{CAF68D57-9DD5-418C-9725-8DDA560DAC4E}" name="dataSheetSrc" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{587542E2-02C3-42C4-B632-57BFD8B68620}" name="controller" dataDxfId="14" dataCellStyle="Währung"/>
+    <tableColumn id="31" xr3:uid="{E487950B-DA55-4A5A-AA67-C3DE24DF1FC2}" name="cDatasheet" dataDxfId="10"/>
+    <tableColumn id="33" xr3:uid="{0B976E26-FBA6-46F9-A18C-6EF982C84981}" name="cDatahseetSrc" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{63C6D974-BDD1-4CA5-BB22-CAB3EEB46821}" name="clock" dataDxfId="38"/>
+    <tableColumn id="30" xr3:uid="{36D840AA-FA68-4B34-86C5-8F75852AECBE}" name="coreCnt" dataDxfId="37"/>
+    <tableColumn id="34" xr3:uid="{63D7B924-8924-40BF-A9EB-4E62ADBF30B1}" name="coreBit" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{74F9564F-F54A-4208-BF89-F5B2185537B4}" name="voltOp" dataDxfId="36"/>
+    <tableColumn id="24" xr3:uid="{D241F3B3-FAE1-413D-881F-5705D2DF3FA7}" name="voltIn" dataDxfId="35"/>
+    <tableColumn id="7" xr3:uid="{65EE9DA7-A351-431B-AAE5-4B1E8D342B2C}" name="connector" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{8B0B2852-1E23-43D9-8CCF-612E7B5EAC8E}" name="sizeFlash" dataDxfId="33"/>
+    <tableColumn id="35" xr3:uid="{250AF3D6-1439-4360-AC53-5AFE236521E6}" name="sizeFlashFree" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{CE6EB7FE-073F-47E9-8438-3EA045DA63E9}" name="sizeRAM" dataDxfId="32"/>
+    <tableColumn id="16" xr3:uid="{71571936-9667-47A6-8DEC-607A17E73107}" name="sizeEPROM" dataDxfId="31"/>
+    <tableColumn id="20" xr3:uid="{7FB941BC-C54B-4F39-9306-34F9620C7AEC}" name="pinout" dataDxfId="30"/>
+    <tableColumn id="38" xr3:uid="{18A4EFC4-8BA0-438D-A1F7-FFF1849C3013}" name="pinoutSrc" dataDxfId="6"/>
+    <tableColumn id="23" xr3:uid="{AC87607F-8794-435F-BC6D-EDBFEA907F02}" name="cntGPIO" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{ECC27E07-5954-4DED-8238-0ED81C119069}" name="cntDigital" dataDxfId="28"/>
+    <tableColumn id="18" xr3:uid="{B8D9FA3A-1ED0-4F23-A9F0-AC177FD12812}" name="cntAnalog" dataDxfId="27"/>
+    <tableColumn id="39" xr3:uid="{5B23A253-6588-47DA-BC8E-D2C1D9B7D92B}" name="analogBit" dataDxfId="0"/>
+    <tableColumn id="17" xr3:uid="{CD2A34BE-45F2-4510-8EF9-83EDDFEE035A}" name="cntPWM" dataDxfId="26"/>
+    <tableColumn id="29" xr3:uid="{10C0EFDD-8FEE-41FA-A6DA-8FE3EA458520}" name="laneUART" dataDxfId="25"/>
+    <tableColumn id="37" xr3:uid="{8718023C-E89D-479D-8DDB-53B56190C652}" name="langeI2C" dataDxfId="24"/>
+    <tableColumn id="36" xr3:uid="{0A52E200-5A7E-4345-B763-2510161760F2}" name="laneSPI" dataDxfId="23"/>
+    <tableColumn id="25" xr3:uid="{1C1B65FF-0397-4A72-B697-BEE8A7130ACE}" name="WLAN &lt;protocol&gt;" dataDxfId="22"/>
+    <tableColumn id="26" xr3:uid="{CE794EDB-081C-414E-8975-5B0FBFC905EE}" name="BT &lt;protocol&gt;" dataDxfId="21"/>
+    <tableColumn id="14" xr3:uid="{D2D192E4-D4BC-456C-AFD4-2AC6C192B221}" name="HID &lt;protocol&gt;" dataDxfId="20"/>
+    <tableColumn id="32" xr3:uid="{2BDB4DB9-DFE3-4AAA-95E1-062F62CF4291}" name="edgeCut" dataDxfId="19"/>
+    <tableColumn id="12" xr3:uid="{9E7D0881-B1D1-43E9-B469-F3EA9BF57CBF}" name="platform" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{72928A24-D14D-468F-8CE2-67C7ED1B739C}" name="comment" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2920,1142 +3264,1379 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB16"/>
+  <dimension ref="A1:AM16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O7" sqref="O7"/>
+      <selection pane="bottomLeft" activeCell="AK2" sqref="AK2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.7109375" style="3" customWidth="1"/>
-    <col min="21" max="21" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.28515625" customWidth="1"/>
+    <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.140625" style="3" customWidth="1"/>
+    <col min="26" max="26" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.42578125" style="3" customWidth="1"/>
+    <col min="30" max="30" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.7109375" style="3" customWidth="1"/>
+    <col min="32" max="32" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="5.42578125" style="41" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="H1" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="I1" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="N1" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="P1" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q1" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="R1" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="S1" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="63" t="s">
+      <c r="T1" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="U1" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="V1" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="64" t="s">
+      <c r="W1" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="62" t="s">
+      <c r="X1" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="65" t="s">
+      <c r="Y1" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z1" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="63" t="s">
+      <c r="AA1" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="62" t="s">
+      <c r="AB1" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="N1" s="62" t="s">
+      <c r="AC1" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD1" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="63" t="s">
+      <c r="AE1" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="P1" s="64" t="s">
+      <c r="AF1" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="Q1" s="64" t="s">
+      <c r="AG1" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="R1" s="64" t="s">
+      <c r="AH1" s="86" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI1" s="86" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ1" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK1" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL1" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="S1" s="64" t="s">
+      <c r="AM1" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="T1" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="U1" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="V1" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="W1" s="66" t="s">
+    </row>
+    <row r="2" spans="1:39" ht="87.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="67">
+        <v>1</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="16">
+        <v>4</v>
+      </c>
+      <c r="G2" s="14">
+        <v>12</v>
+      </c>
+      <c r="H2" s="21">
         <v>7</v>
       </c>
-      <c r="X1" s="66" t="s">
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="54">
+        <v>16</v>
+      </c>
+      <c r="O2" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="P2" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q2" s="15">
+        <v>5</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="Y1" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z1" s="67" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA1" s="68" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB1" s="65" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" ht="87.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="17">
-        <v>4</v>
-      </c>
-      <c r="E2" s="15">
-        <v>12</v>
-      </c>
-      <c r="F2" s="22">
-        <v>7</v>
-      </c>
-      <c r="G2" s="55">
-        <v>16</v>
-      </c>
-      <c r="H2" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="16">
-        <v>5</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="10" t="s">
+      <c r="U2" s="82"/>
+      <c r="V2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="57" t="e" vm="1">
+      <c r="X2" s="56" t="e" vm="1">
         <f>_xlfn.IMAGE("https://golem.hu/pic/pro_micro_pinout.jpg")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P2" s="13">
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="12">
         <v>18</v>
       </c>
-      <c r="Q2" s="13">
+      <c r="AA2" s="12">
         <v>12</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="AB2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25">
+        <v>5</v>
+      </c>
+      <c r="AE2" s="43">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="47">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="45">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ2" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL2" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM2" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="67">
+        <v>2</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="76"/>
+      <c r="F3" s="17">
+        <v>6</v>
+      </c>
+      <c r="G3" s="20">
         <v>12</v>
       </c>
-      <c r="S2" s="26">
+      <c r="H3" s="32">
+        <v>7</v>
+      </c>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="55">
+        <v>16</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="18">
         <v>5</v>
       </c>
-      <c r="T2" s="44">
-        <v>1</v>
-      </c>
-      <c r="U2" s="48">
-        <v>1</v>
-      </c>
-      <c r="V2" s="46">
-        <v>1</v>
-      </c>
-      <c r="W2" s="14" t="s">
+      <c r="R3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y2" s="30" t="s">
+      <c r="T3" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="U3" s="82"/>
+      <c r="V3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="Z2" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA2" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB2" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="18">
-        <v>6</v>
-      </c>
-      <c r="E3" s="21">
-        <v>12</v>
-      </c>
-      <c r="F3" s="33">
-        <v>7</v>
-      </c>
-      <c r="G3" s="56">
-        <v>16</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="19">
-        <v>5</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" s="10" t="s">
+      <c r="W3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="O3" s="57" t="e" vm="1">
+      <c r="X3" s="56" t="e" vm="1">
         <f>_xlfn.IMAGE("https://golem.hu/pic/pro_micro_pinout.jpg")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P3" s="7">
+      <c r="Y3" s="83"/>
+      <c r="Z3" s="7">
         <v>18</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="AA3" s="7">
         <v>12</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="AB3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="26">
+        <v>5</v>
+      </c>
+      <c r="AE3" s="44">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="48">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="46">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI3" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ3" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL3" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM3" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="67">
+        <v>3</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="76"/>
+      <c r="F4" s="17">
+        <v>2</v>
+      </c>
+      <c r="G4" s="20">
+        <v>8</v>
+      </c>
+      <c r="H4" s="32">
+        <v>10</v>
+      </c>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="55">
+        <v>160</v>
+      </c>
+      <c r="O4" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="T4" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="27">
-        <v>5</v>
-      </c>
-      <c r="T3" s="45">
-        <v>1</v>
-      </c>
-      <c r="U3" s="49">
-        <v>1</v>
-      </c>
-      <c r="V3" s="47">
-        <v>1</v>
-      </c>
-      <c r="W3" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="X3" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y3" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z3" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA3" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB3" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="U4" s="74"/>
+      <c r="V4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="18">
-        <v>2</v>
-      </c>
-      <c r="E4" s="21">
-        <v>8</v>
-      </c>
-      <c r="F4" s="33">
-        <v>10</v>
-      </c>
-      <c r="G4" s="56">
-        <v>160</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="58" t="e" vm="2">
+      <c r="W4" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4" s="57" t="e" vm="2">
         <f>_xlfn.IMAGE("https://m.media-amazon.com/images/S/aplus-media-library-service-media/717698ba-d013-49aa-9cef-37c054ebc751.__CR0,0,970,600_PT0_SX970_V1___.jpg")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P4" s="7">
+      <c r="Y4" s="84"/>
+      <c r="Z4" s="7">
         <v>11</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="AA4" s="7">
         <v>9</v>
       </c>
-      <c r="R4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="S4" s="27">
+      <c r="AB4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26">
         <v>9</v>
       </c>
-      <c r="T4" s="45">
+      <c r="AE4" s="44">
         <v>1</v>
       </c>
-      <c r="U4" s="49">
+      <c r="AF4" s="48">
         <v>1</v>
       </c>
-      <c r="V4" s="47">
+      <c r="AG4" s="46">
         <v>1</v>
       </c>
-      <c r="W4" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="X4" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y4" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z4" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA4" s="32" t="s">
+      <c r="AH4" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="AB4" s="5"/>
+      <c r="AJ4" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL4" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM4" s="5"/>
     </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
+    <row r="5" spans="1:39" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="67">
+        <v>4</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="71"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="17">
+        <v>5</v>
+      </c>
+      <c r="G5" s="20">
+        <v>20</v>
+      </c>
+      <c r="H5" s="32">
+        <v>8</v>
+      </c>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="55">
+        <v>133</v>
+      </c>
+      <c r="O5" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="T5" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="18">
-        <v>5</v>
-      </c>
-      <c r="E5" s="21">
-        <v>20</v>
-      </c>
-      <c r="F5" s="33">
-        <v>8</v>
-      </c>
-      <c r="G5" s="56">
-        <v>133</v>
-      </c>
-      <c r="H5" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" s="58" t="e" vm="3">
+      <c r="U5" s="74"/>
+      <c r="V5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="W5" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="X5" s="57" t="e" vm="3">
         <f>_xlfn.IMAGE("https://d28lcup14p4e72.cloudfront.net/203128/7592134/423FEC27-201C-4091-B185-F9E24A5EBFB9.png")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P5" s="7">
+      <c r="Y5" s="84"/>
+      <c r="Z5" s="7">
         <v>26</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="AA5" s="7">
         <v>26</v>
       </c>
-      <c r="R5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="S5" s="27">
+      <c r="AB5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="26">
         <v>16</v>
       </c>
-      <c r="T5" s="45">
+      <c r="AE5" s="44">
         <v>2</v>
       </c>
-      <c r="U5" s="49">
+      <c r="AF5" s="48">
         <v>2</v>
       </c>
-      <c r="V5" s="47">
+      <c r="AG5" s="46">
         <v>2</v>
       </c>
-      <c r="W5" s="20" t="s">
+      <c r="AH5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ5" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM5" s="5"/>
+    </row>
+    <row r="6" spans="1:39" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="67">
+        <v>5</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="71"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="17">
+        <v>5</v>
+      </c>
+      <c r="G6" s="20">
+        <v>20</v>
+      </c>
+      <c r="H6" s="32">
+        <v>8</v>
+      </c>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="55">
+        <v>133</v>
+      </c>
+      <c r="O6" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="X5" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y5" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z5" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA5" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB5" s="5"/>
-    </row>
-    <row r="6" spans="1:28" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="18">
-        <v>5</v>
-      </c>
-      <c r="E6" s="21">
-        <v>20</v>
-      </c>
-      <c r="F6" s="33">
-        <v>8</v>
-      </c>
-      <c r="G6" s="56">
-        <v>133</v>
-      </c>
-      <c r="H6" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="O6" s="58" t="e" vm="4">
+      <c r="T6" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="U6" s="74"/>
+      <c r="V6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="W6" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="X6" s="57" t="e" vm="4">
         <f>_xlfn.IMAGE("https://ae01.alicdn.com/kf/Se12a486397794177a118e1ad3e610e678.jpg")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P6" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="R6" s="7" t="s">
+      <c r="Y6" s="84"/>
+      <c r="Z6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="26">
+        <v>16</v>
+      </c>
+      <c r="AE6" s="44">
+        <v>2</v>
+      </c>
+      <c r="AF6" s="48">
+        <v>2</v>
+      </c>
+      <c r="AG6" s="46">
+        <v>2</v>
+      </c>
+      <c r="AH6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ6" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL6" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM6" s="5"/>
+    </row>
+    <row r="7" spans="1:39" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="67">
+        <v>6</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="76"/>
+      <c r="F7" s="17">
+        <v>5</v>
+      </c>
+      <c r="G7" s="20">
+        <v>13</v>
+      </c>
+      <c r="H7" s="32">
+        <v>7</v>
+      </c>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="55">
+        <v>133</v>
+      </c>
+      <c r="O7" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="53">
+        <v>3.3</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S7" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="T7" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="U7" s="74"/>
+      <c r="V7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="W7" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="X7" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y7" s="84"/>
+      <c r="Z7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="S6" s="27">
+      <c r="AA7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="26">
         <v>16</v>
       </c>
-      <c r="T6" s="45">
+      <c r="AE7" s="44">
         <v>2</v>
       </c>
-      <c r="U6" s="49">
+      <c r="AF7" s="48">
         <v>2</v>
       </c>
-      <c r="V6" s="47">
+      <c r="AG7" s="46">
         <v>2</v>
       </c>
-      <c r="W6" s="20" t="s">
+      <c r="AH7" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI7" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ7" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL7" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM7" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="67">
+        <v>7</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8" s="75"/>
+      <c r="E8"/>
+      <c r="F8" s="17">
+        <v>5</v>
+      </c>
+      <c r="G8" s="20">
+        <v>14</v>
+      </c>
+      <c r="H8" s="59">
+        <v>7</v>
+      </c>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="55">
+        <v>133</v>
+      </c>
+      <c r="O8" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="53">
+        <v>3.3</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="X6" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y6" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z6" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA6" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB6" s="5"/>
-    </row>
-    <row r="7" spans="1:28" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="18">
-        <v>5</v>
-      </c>
-      <c r="E7" s="21">
-        <v>13</v>
-      </c>
-      <c r="F7" s="33">
-        <v>7</v>
-      </c>
-      <c r="G7" s="56">
-        <v>133</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="54">
-        <v>3.3</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="O7" s="58" t="e" vm="5">
-        <f>_xlfn.IMAGE("https://ae01.alicdn.com/kf/S0fb5f9353ac14ab39286c5280e17fae4b.jpg")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="R7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="S7" s="27">
+      <c r="T8" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="U8" s="74"/>
+      <c r="V8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T7" s="45">
-        <v>2</v>
-      </c>
-      <c r="U7" s="49">
-        <v>2</v>
-      </c>
-      <c r="V7" s="47">
-        <v>2</v>
-      </c>
-      <c r="W7" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="X7" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y7" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z7" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA7" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB7" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8"/>
-      <c r="C8" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="18">
-        <v>5</v>
-      </c>
-      <c r="E8" s="21">
-        <v>14</v>
-      </c>
-      <c r="F8" s="60">
-        <v>7</v>
-      </c>
-      <c r="G8" s="56">
-        <v>133</v>
-      </c>
-      <c r="H8" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="54">
-        <v>3.3</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N8" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="O8" s="58" t="e" vm="6">
+      <c r="W8" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="X8" s="57" t="e" vm="5">
         <f>_xlfn.IMAGE("https://ae01.alicdn.com/kf/S727020357b8849c08a74ecc113f0aab9V.png")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P8" s="7">
+      <c r="Y8" s="84"/>
+      <c r="Z8" s="7">
         <v>29</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="AA8" s="7">
         <v>29</v>
       </c>
-      <c r="R8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="S8" s="27">
+      <c r="AB8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26">
         <v>16</v>
       </c>
-      <c r="T8" s="59">
+      <c r="AE8" s="58">
         <v>2</v>
       </c>
-      <c r="U8" s="49">
+      <c r="AF8" s="48">
         <v>2</v>
       </c>
-      <c r="V8" s="47">
+      <c r="AG8" s="46">
         <v>2</v>
       </c>
-      <c r="W8" s="20" t="s">
+      <c r="AH8" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI8" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ8" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM8" s="5"/>
+    </row>
+    <row r="9" spans="1:39" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="67">
+        <v>8</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9" s="75"/>
+      <c r="E9"/>
+      <c r="F9" s="17">
+        <v>4</v>
+      </c>
+      <c r="G9" s="20">
+        <v>9</v>
+      </c>
+      <c r="H9" s="32">
+        <v>7</v>
+      </c>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="81"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="55">
+        <v>133</v>
+      </c>
+      <c r="O9" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="53">
+        <v>3.3</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S9" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="X8" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y8" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA8" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB8" s="5"/>
-    </row>
-    <row r="9" spans="1:28" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9"/>
-      <c r="C9" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="18">
-        <v>4</v>
-      </c>
-      <c r="E9" s="21">
-        <v>9</v>
-      </c>
-      <c r="F9" s="33">
-        <v>7</v>
-      </c>
-      <c r="G9" s="56">
-        <v>133</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="54">
-        <v>3.3</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N9" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="O9" s="58" t="e" vm="7">
+      <c r="T9" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="U9" s="74"/>
+      <c r="V9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="W9" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="X9" s="57" t="e" vm="6">
         <f>_xlfn.IMAGE("https://ae01.alicdn.com/kf/S94e1d0dc296b43f1a55a1bc219a6e932h.png")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="R9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="S9" s="27">
+      <c r="Y9" s="84"/>
+      <c r="Z9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="26">
         <v>16</v>
       </c>
-      <c r="T9" s="45">
+      <c r="AE9" s="44">
         <v>2</v>
       </c>
-      <c r="U9" s="49">
+      <c r="AF9" s="48">
         <v>2</v>
       </c>
-      <c r="V9" s="47">
+      <c r="AG9" s="46">
         <v>2</v>
       </c>
-      <c r="W9" s="20" t="s">
+      <c r="AH9" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI9" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ9" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL9" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM9" s="5"/>
+    </row>
+    <row r="10" spans="1:39" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="67">
+        <v>9</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10" s="75"/>
+      <c r="E10"/>
+      <c r="F10" s="17">
+        <v>3</v>
+      </c>
+      <c r="G10" s="20">
+        <v>9</v>
+      </c>
+      <c r="H10" s="32">
+        <v>7</v>
+      </c>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="81"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="55">
+        <v>133</v>
+      </c>
+      <c r="O10" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="53">
+        <v>3.3</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S10" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="X9" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y9" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z9" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA9" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB9" s="5"/>
-    </row>
-    <row r="10" spans="1:28" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10"/>
-      <c r="C10" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="18">
-        <v>3</v>
-      </c>
-      <c r="E10" s="21">
-        <v>9</v>
-      </c>
-      <c r="F10" s="33">
-        <v>7</v>
-      </c>
-      <c r="G10" s="56">
-        <v>133</v>
-      </c>
-      <c r="H10" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="54">
-        <v>3.3</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="O10" s="58" t="e" vm="8">
+      <c r="T10" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="U10" s="74"/>
+      <c r="V10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="W10" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="X10" s="57" t="e" vm="7">
         <f>_xlfn.IMAGE("https://ae01.alicdn.com/kf/Sbfea1c5534ef4ed2838f33ace9000c07L.jpg")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Y10" s="84"/>
+      <c r="Z10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="26">
+        <v>16</v>
+      </c>
+      <c r="AE10" s="44">
+        <v>2</v>
+      </c>
+      <c r="AF10" s="48">
+        <v>2</v>
+      </c>
+      <c r="AG10" s="46">
+        <v>2</v>
+      </c>
+      <c r="AH10" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI10" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ10" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM10" s="5"/>
+    </row>
+    <row r="11" spans="1:39" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="67">
+        <v>10</v>
+      </c>
+      <c r="B11" s="51"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="73"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="Q10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="R10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="S10" s="27">
-        <v>16</v>
-      </c>
-      <c r="T10" s="45">
-        <v>2</v>
-      </c>
-      <c r="U10" s="49">
-        <v>2</v>
-      </c>
-      <c r="V10" s="47">
-        <v>2</v>
-      </c>
-      <c r="W10" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="X10" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y10" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z10" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA10" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB10" s="5"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="74"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="85"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="26"/>
+      <c r="AE11" s="44"/>
+      <c r="AF11" s="48"/>
+      <c r="AG11" s="46"/>
+      <c r="AH11" s="19"/>
+      <c r="AI11" s="19"/>
+      <c r="AJ11" s="30"/>
+      <c r="AK11" s="40"/>
+      <c r="AL11" s="35"/>
+      <c r="AM11" s="5"/>
     </row>
-    <row r="11" spans="1:28" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="52"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="4"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="56" t="s">
+    <row r="12" spans="1:39" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="67">
+        <v>11</v>
+      </c>
+      <c r="B12" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="77"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="74"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="85"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="26"/>
+      <c r="AD12" s="26"/>
+      <c r="AE12" s="44"/>
+      <c r="AF12" s="48"/>
+      <c r="AG12" s="46"/>
+      <c r="AH12" s="19"/>
+      <c r="AI12" s="19"/>
+      <c r="AJ12" s="30"/>
+      <c r="AK12" s="40"/>
+      <c r="AL12" s="35"/>
+      <c r="AM12" s="5"/>
+    </row>
+    <row r="13" spans="1:39" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="67">
+        <v>12</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="39"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="49"/>
-      <c r="V11" s="47"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="36"/>
-      <c r="AB11" s="5"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="74"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="85"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="26"/>
+      <c r="AE13" s="44"/>
+      <c r="AF13" s="48"/>
+      <c r="AG13" s="46"/>
+      <c r="AH13" s="19"/>
+      <c r="AI13" s="19"/>
+      <c r="AJ13" s="30"/>
+      <c r="AK13" s="40"/>
+      <c r="AL13" s="35"/>
+      <c r="AM13" s="5"/>
     </row>
-    <row r="12" spans="1:28" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="49"/>
-      <c r="V12" s="47"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="41"/>
-      <c r="AA12" s="36"/>
-      <c r="AB12" s="5"/>
+    <row r="14" spans="1:39" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="67">
+        <v>13</v>
+      </c>
+      <c r="B14" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="77"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="74"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="58"/>
+      <c r="Y14" s="85"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="26"/>
+      <c r="AD14" s="26"/>
+      <c r="AE14" s="44"/>
+      <c r="AF14" s="48"/>
+      <c r="AG14" s="46"/>
+      <c r="AH14" s="19"/>
+      <c r="AI14" s="19"/>
+      <c r="AJ14" s="30"/>
+      <c r="AK14" s="40"/>
+      <c r="AL14" s="35"/>
+      <c r="AM14" s="5"/>
     </row>
-    <row r="13" spans="1:28" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="52" t="s">
+    <row r="15" spans="1:39" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="67">
+        <v>14</v>
+      </c>
+      <c r="B15" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="49"/>
-      <c r="V13" s="47"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="20"/>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="36"/>
-      <c r="AB13" s="5"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="74"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="58"/>
+      <c r="Y15" s="85"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="26"/>
+      <c r="AD15" s="26"/>
+      <c r="AE15" s="44"/>
+      <c r="AF15" s="48"/>
+      <c r="AG15" s="46"/>
+      <c r="AH15" s="19"/>
+      <c r="AI15" s="19"/>
+      <c r="AJ15" s="30"/>
+      <c r="AK15" s="40"/>
+      <c r="AL15" s="35"/>
+      <c r="AM15" s="5"/>
     </row>
-    <row r="14" spans="1:28" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="49"/>
-      <c r="V14" s="47"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="36"/>
-      <c r="AB14" s="5"/>
-    </row>
-    <row r="15" spans="1:28" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="45"/>
-      <c r="U15" s="49"/>
-      <c r="V15" s="47"/>
-      <c r="W15" s="20"/>
-      <c r="X15" s="20"/>
-      <c r="Y15" s="31"/>
-      <c r="Z15" s="41"/>
-      <c r="AA15" s="36"/>
-      <c r="AB15" s="5"/>
-    </row>
-    <row r="16" spans="1:28" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="52"/>
-      <c r="B16" s="4"/>
+    <row r="16" spans="1:39" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="67">
+        <v>15</v>
+      </c>
+      <c r="B16" s="51"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="49"/>
-      <c r="V16" s="47"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="20"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="41"/>
-      <c r="AA16" s="36"/>
-      <c r="AB16" s="5"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="74"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="58"/>
+      <c r="Y16" s="85"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="26"/>
+      <c r="AD16" s="26"/>
+      <c r="AE16" s="44"/>
+      <c r="AF16" s="48"/>
+      <c r="AG16" s="46"/>
+      <c r="AH16" s="19"/>
+      <c r="AI16" s="19"/>
+      <c r="AJ16" s="30"/>
+      <c r="AK16" s="40"/>
+      <c r="AL16" s="35"/>
+      <c r="AM16" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A2:AB9 A10 C10:AB10 B11:AB11 A12:AB16">
-    <cfRule type="endsWith" dxfId="4" priority="1" operator="endsWith" text="?">
+  <conditionalFormatting sqref="A2:B2 B12:B16 B3:B10 A3:A16 C2:E9 C11:E16 F2:AM16">
+    <cfRule type="endsWith" dxfId="5" priority="1" operator="endsWith" text="?">
       <formula>RIGHT(A2,LEN("?"))="?"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T2:V16">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+  <conditionalFormatting sqref="AE2:AG16">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T2:Z16">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",T2)))</formula>
+  <conditionalFormatting sqref="AE2:AK16">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",AE2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="J">
-      <formula>NOT(ISERROR(SEARCH("J",T2)))</formula>
+    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="J">
+      <formula>NOT(ISERROR(SEARCH("J",AE2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="N">
-      <formula>NOT(ISERROR(SEARCH("N",T2)))</formula>
+    <cfRule type="containsText" dxfId="1" priority="8" operator="containsText" text="N">
+      <formula>NOT(ISERROR(SEARCH("N",AE2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:Z16" xr:uid="{71C80AAF-D900-484D-9411-9896D880E474}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH2:AK16" xr:uid="{71C80AAF-D900-484D-9411-9896D880E474}">
       <formula1>"J,N"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:V10 U11:V16 T11:T1048576" xr:uid="{326930F3-3C77-4222-8E18-BDC5A15AE348}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2:AG16 AE17:AE1048576" xr:uid="{326930F3-3C77-4222-8E18-BDC5A15AE348}">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" display="https://golem.hu/pic/pro_micro_pinout.jpg" xr:uid="{F40B2BFB-690D-47A4-BCA3-04912A7BDCD3}"/>
-    <hyperlink ref="O3" r:id="rId2" display="https://golem.hu/pic/pro_micro_pinout.jpg" xr:uid="{E1ADFB23-99E1-435B-BB91-5928005E1B89}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{E4E7BF4F-FBB4-480E-BE36-3136F18CDBE4}"/>
-    <hyperlink ref="A3" r:id="rId4" display="Pro Micro 5V USB-C" xr:uid="{0691AABD-C38E-4C62-A426-FE238DA614FD}"/>
-    <hyperlink ref="A2" r:id="rId5" display="Pro Micro 5V" xr:uid="{1B48C31D-6990-4F5A-946B-DCCFC4DCC112}"/>
-    <hyperlink ref="O4" r:id="rId6" display="https://m.media-amazon.com/images/S/aplus-media-library-service-media/717698ba-d013-49aa-9cef-37c054ebc751.__CR0,0,970,600_PT0_SX970_V1___.jpg" xr:uid="{38E8DE60-58C2-446B-80B7-E7F42DF2960E}"/>
-    <hyperlink ref="A5" r:id="rId7" xr:uid="{96678FC3-06BA-4507-A86D-393AA013A24C}"/>
-    <hyperlink ref="O5" r:id="rId8" display="https://d28lcup14p4e72.cloudfront.net/203128/7592134/423FEC27-201C-4091-B185-F9E24A5EBFB9.png" xr:uid="{360D3A20-F627-4086-B2CC-3CDE18615C9C}"/>
-    <hyperlink ref="C2" r:id="rId9" xr:uid="{B023DFA2-A31C-41E7-A031-736EC4FF4997}"/>
-    <hyperlink ref="C3" r:id="rId10" xr:uid="{75E569E3-C2AE-467C-AF1F-A89BC3A489E3}"/>
-    <hyperlink ref="C4" r:id="rId11" xr:uid="{AC160EEF-988F-47BC-9CB2-BB97AABF8FEF}"/>
-    <hyperlink ref="C5" r:id="rId12" xr:uid="{EED5D12B-84C8-4F37-BB02-B8B2ADE5C154}"/>
-    <hyperlink ref="A6" r:id="rId13" display="RP2040 Pico USB-C" xr:uid="{9CC5CE34-8621-43F1-A4B1-E9942AF81236}"/>
-    <hyperlink ref="C6" r:id="rId14" xr:uid="{F97422A6-BD5D-4FAA-B988-3412689B0AD6}"/>
-    <hyperlink ref="O6" r:id="rId15" display="https://ae01.alicdn.com/kf/Se12a486397794177a118e1ad3e610e678.jpg" xr:uid="{74E8623F-A294-4601-BD6D-185B0308AA42}"/>
-    <hyperlink ref="A7" r:id="rId16" display="https://de.aliexpress.com/item/1005006130019224.html" xr:uid="{E6D6B293-7821-4164-B39C-2E6C11A9C0B3}"/>
-    <hyperlink ref="C7" r:id="rId17" xr:uid="{AFE0EF98-0F47-438D-81F4-8BE8CB369B1E}"/>
-    <hyperlink ref="B12" r:id="rId18" xr:uid="{83439284-8A4C-4AA5-B28C-263D9825C31D}"/>
-    <hyperlink ref="O7" r:id="rId19" display="https://ae01.alicdn.com/kf/S0fb5f9353ac14ab39286c5280e17fae4b.jpg" xr:uid="{C0300B4D-1507-4E17-B5D5-0CF493642E35}"/>
-    <hyperlink ref="A8" r:id="rId20" display="https://de.aliexpress.com/item/1005006097129434.html" xr:uid="{0834673F-CFD8-47EA-BFA7-7277C7FFAB77}"/>
-    <hyperlink ref="C8" r:id="rId21" xr:uid="{7A8BBDD5-F0D9-4707-A5AD-B665CE650F13}"/>
-    <hyperlink ref="O8" r:id="rId22" display="https://ae01.alicdn.com/kf/S727020357b8849c08a74ecc113f0aab9V.png" xr:uid="{DF54828D-21B3-4926-8D11-63B0C271422A}"/>
-    <hyperlink ref="A9" r:id="rId23" display="https://de.aliexpress.com/item/1005005834887898.html" xr:uid="{F14BAD25-324F-4705-B7D1-5B054E74C25F}"/>
-    <hyperlink ref="C9" r:id="rId24" xr:uid="{2FD3A942-939D-4306-BD5E-2480361CAD91}"/>
-    <hyperlink ref="O9" r:id="rId25" display="https://ae01.alicdn.com/kf/S94e1d0dc296b43f1a55a1bc219a6e932h.png" xr:uid="{ADFC7964-F144-4571-AFAA-AE45D9F63A7A}"/>
-    <hyperlink ref="A10" r:id="rId26" display="RP2040 Zero" xr:uid="{0C2F94BD-AFB0-4A90-A375-42B0A9C9A6D1}"/>
-    <hyperlink ref="C10" r:id="rId27" xr:uid="{C700AEA8-2FF4-4D14-9A96-8929DA30DD1B}"/>
-    <hyperlink ref="O10" r:id="rId28" display="https://ae01.alicdn.com/kf/Sbfea1c5534ef4ed2838f33ace9000c07L.jpg" xr:uid="{1D3AF803-ACD3-4BB5-9584-51CB4FF7FBEB}"/>
-    <hyperlink ref="B13" r:id="rId29" xr:uid="{D9345D44-2E37-4573-A18B-711CF6AA6807}"/>
-    <hyperlink ref="B14" r:id="rId30" xr:uid="{151567A2-5746-463A-9F85-E3B464F76ECC}"/>
-    <hyperlink ref="B15" r:id="rId31" xr:uid="{8BF53116-C1BD-44D1-A0CC-DBD9D88516E8}"/>
+    <hyperlink ref="X2" r:id="rId1" display="https://golem.hu/pic/pro_micro_pinout.jpg" xr:uid="{F40B2BFB-690D-47A4-BCA3-04912A7BDCD3}"/>
+    <hyperlink ref="X3" r:id="rId2" display="https://golem.hu/pic/pro_micro_pinout.jpg" xr:uid="{E1ADFB23-99E1-435B-BB91-5928005E1B89}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{E4E7BF4F-FBB4-480E-BE36-3136F18CDBE4}"/>
+    <hyperlink ref="B3" r:id="rId4" display="Pro Micro 5V USB-C" xr:uid="{0691AABD-C38E-4C62-A426-FE238DA614FD}"/>
+    <hyperlink ref="B2" r:id="rId5" display="Pro Micro 5V" xr:uid="{1B48C31D-6990-4F5A-946B-DCCFC4DCC112}"/>
+    <hyperlink ref="X4" r:id="rId6" display="https://m.media-amazon.com/images/S/aplus-media-library-service-media/717698ba-d013-49aa-9cef-37c054ebc751.__CR0,0,970,600_PT0_SX970_V1___.jpg" xr:uid="{38E8DE60-58C2-446B-80B7-E7F42DF2960E}"/>
+    <hyperlink ref="B5" r:id="rId7" xr:uid="{96678FC3-06BA-4507-A86D-393AA013A24C}"/>
+    <hyperlink ref="X5" r:id="rId8" display="https://d28lcup14p4e72.cloudfront.net/203128/7592134/423FEC27-201C-4091-B185-F9E24A5EBFB9.png" xr:uid="{360D3A20-F627-4086-B2CC-3CDE18615C9C}"/>
+    <hyperlink ref="K2" r:id="rId9" xr:uid="{B023DFA2-A31C-41E7-A031-736EC4FF4997}"/>
+    <hyperlink ref="K3" r:id="rId10" xr:uid="{75E569E3-C2AE-467C-AF1F-A89BC3A489E3}"/>
+    <hyperlink ref="K4" r:id="rId11" xr:uid="{AC160EEF-988F-47BC-9CB2-BB97AABF8FEF}"/>
+    <hyperlink ref="K5" r:id="rId12" xr:uid="{EED5D12B-84C8-4F37-BB02-B8B2ADE5C154}"/>
+    <hyperlink ref="B6" r:id="rId13" display="RP2040 Pico USB-C" xr:uid="{9CC5CE34-8621-43F1-A4B1-E9942AF81236}"/>
+    <hyperlink ref="K6" r:id="rId14" xr:uid="{F97422A6-BD5D-4FAA-B988-3412689B0AD6}"/>
+    <hyperlink ref="X6" r:id="rId15" display="https://ae01.alicdn.com/kf/Se12a486397794177a118e1ad3e610e678.jpg" xr:uid="{74E8623F-A294-4601-BD6D-185B0308AA42}"/>
+    <hyperlink ref="B7" r:id="rId16" display="https://de.aliexpress.com/item/1005006130019224.html" xr:uid="{E6D6B293-7821-4164-B39C-2E6C11A9C0B3}"/>
+    <hyperlink ref="K7" r:id="rId17" xr:uid="{AFE0EF98-0F47-438D-81F4-8BE8CB369B1E}"/>
+    <hyperlink ref="C12" r:id="rId18" xr:uid="{83439284-8A4C-4AA5-B28C-263D9825C31D}"/>
+    <hyperlink ref="X7" r:id="rId19" display="https://ae01.alicdn.com/kf/S0fb5f9353ac14ab39286c5280e17fae4b.jpg" xr:uid="{C0300B4D-1507-4E17-B5D5-0CF493642E35}"/>
+    <hyperlink ref="B8" r:id="rId20" display="https://de.aliexpress.com/item/1005006097129434.html" xr:uid="{0834673F-CFD8-47EA-BFA7-7277C7FFAB77}"/>
+    <hyperlink ref="K8" r:id="rId21" xr:uid="{7A8BBDD5-F0D9-4707-A5AD-B665CE650F13}"/>
+    <hyperlink ref="X8" r:id="rId22" display="https://ae01.alicdn.com/kf/S727020357b8849c08a74ecc113f0aab9V.png" xr:uid="{DF54828D-21B3-4926-8D11-63B0C271422A}"/>
+    <hyperlink ref="B9" r:id="rId23" display="https://de.aliexpress.com/item/1005005834887898.html" xr:uid="{F14BAD25-324F-4705-B7D1-5B054E74C25F}"/>
+    <hyperlink ref="K9" r:id="rId24" xr:uid="{2FD3A942-939D-4306-BD5E-2480361CAD91}"/>
+    <hyperlink ref="X9" r:id="rId25" display="https://ae01.alicdn.com/kf/S94e1d0dc296b43f1a55a1bc219a6e932h.png" xr:uid="{ADFC7964-F144-4571-AFAA-AE45D9F63A7A}"/>
+    <hyperlink ref="B10" r:id="rId26" display="RP2040 Zero" xr:uid="{0C2F94BD-AFB0-4A90-A375-42B0A9C9A6D1}"/>
+    <hyperlink ref="K10" r:id="rId27" xr:uid="{C700AEA8-2FF4-4D14-9A96-8929DA30DD1B}"/>
+    <hyperlink ref="X10" r:id="rId28" display="https://ae01.alicdn.com/kf/Sbfea1c5534ef4ed2838f33ace9000c07L.jpg" xr:uid="{1D3AF803-ACD3-4BB5-9584-51CB4FF7FBEB}"/>
+    <hyperlink ref="C13" r:id="rId29" xr:uid="{D9345D44-2E37-4573-A18B-711CF6AA6807}"/>
+    <hyperlink ref="C14" r:id="rId30" xr:uid="{151567A2-5746-463A-9F85-E3B464F76ECC}"/>
+    <hyperlink ref="C15" r:id="rId31" xr:uid="{8BF53116-C1BD-44D1-A0CC-DBD9D88516E8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId32"/>

--- a/DevBoardList.xlsx
+++ b/DevBoardList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dokumente_HDD\## TO SORT\Basteln\Projekte\DevBoardList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141948A8-3B6B-4793-9917-DD725A2E5FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059C3D52-B97F-403D-A42E-194E28C25058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -315,9 +315,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>image</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
@@ -348,9 +345,6 @@
     <t>sizeEPROM</t>
   </si>
   <si>
-    <t>pinout</t>
-  </si>
-  <si>
     <t>cntGPIO</t>
   </si>
   <si>
@@ -393,18 +387,6 @@
     <t>imageSrc &lt;inv&gt;</t>
   </si>
   <si>
-    <t>datasheet</t>
-  </si>
-  <si>
-    <t>dataSheetSrc</t>
-  </si>
-  <si>
-    <t>cDatasheet</t>
-  </si>
-  <si>
-    <t>cDatahseetSrc</t>
-  </si>
-  <si>
     <t>coreCnt</t>
   </si>
   <si>
@@ -420,15 +402,9 @@
     <t>sizeFlashFree</t>
   </si>
   <si>
-    <t>pinoutSrc</t>
-  </si>
-  <si>
     <t>analogBit</t>
   </si>
   <si>
-    <t>edgeCut</t>
-  </si>
-  <si>
     <t>WLAN &lt;protocol&gt;</t>
   </si>
   <si>
@@ -436,6 +412,30 @@
   </si>
   <si>
     <t>HID &lt;protocol&gt;</t>
+  </si>
+  <si>
+    <t>image &lt;value of id&gt;</t>
+  </si>
+  <si>
+    <t>pinout &lt;value of id&gt;</t>
+  </si>
+  <si>
+    <t>datasheet &lt;value of id&gt;</t>
+  </si>
+  <si>
+    <t>dataSheetSrc &lt;inv&gt;</t>
+  </si>
+  <si>
+    <t>cDatasheet &lt;value of controller&gt;</t>
+  </si>
+  <si>
+    <t>cDatahseetSrc &lt;inv&gt;</t>
+  </si>
+  <si>
+    <t>pinoutSrc &lt;inv&gt;</t>
+  </si>
+  <si>
+    <t>castellatedEdge</t>
   </si>
 </sst>
 </file>
@@ -511,7 +511,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -527,6 +527,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,7 +893,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1072,13 +1084,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1099,7 +1107,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
@@ -1123,6 +1131,9 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="2" builtinId="8"/>
@@ -1130,23 +1141,6 @@
     <cellStyle name="Währung" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="46">
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1181,7 +1175,504 @@
       </font>
     </dxf>
     <dxf>
+      <numFmt numFmtId="20" formatCode="dd/\ mmm\ yy"/>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="20" formatCode="dd/\ mmm\ yy"/>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color theme="1" tint="0.14996795556505021"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.14993743705557422"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.14993743705557422"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.14993743705557422"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color theme="1" tint="0.14996795556505021"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color theme="1" tint="0.14996795556505021"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.14996795556505021"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color theme="1" tint="0.14996795556505021"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="20" formatCode="dd/\ mmm\ yy"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0&quot;V&quot;"/>
+      <alignment horizontal="left" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0&quot; MHz&quot;"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -1215,43 +1706,12 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="164" formatCode="0&quot; Pin&quot;"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
+        <left style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </left>
         <right style="thin">
           <color theme="1" tint="0.14999847407452621"/>
         </right>
@@ -1302,13 +1762,14 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <numFmt numFmtId="164" formatCode="0&quot; Pin&quot;"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="1" tint="0.14999847407452621"/>
         </left>
-        <right style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
+        <right style="medium">
+          <color theme="1" tint="0.14996795556505021"/>
         </right>
         <top style="thin">
           <color theme="1" tint="0.14999847407452621"/>
@@ -1316,12 +1777,45 @@
         <bottom style="thin">
           <color theme="1" tint="0.14999847407452621"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0&quot; Pin&quot;"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1357,6 +1851,43 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1392,526 +1923,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="20" formatCode="dd/\ mmm\ yy"/>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="20" formatCode="dd/\ mmm\ yy"/>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color theme="1" tint="0.14996795556505021"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </bottom>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1" tint="0.14993743705557422"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1" tint="0.14993743705557422"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.14993743705557422"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color theme="1" tint="0.14996795556505021"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color theme="1" tint="0.14996795556505021"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.14996795556505021"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color theme="1" tint="0.14996795556505021"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="20" formatCode="dd/\ mmm\ yy"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0&quot;V&quot;"/>
-      <alignment horizontal="left" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0&quot; MHz&quot;"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0&quot; Pin&quot;"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.14996795556505021"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0&quot; Pin&quot;"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2955,47 +2966,47 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E0176607-7D05-4F53-9667-39A4A03C5F12}" name="Tabelle1" displayName="Tabelle1" ref="A1:AM16" totalsRowShown="0" headerRowDxfId="45" headerRowBorderDxfId="44">
   <autoFilter ref="A1:AM16" xr:uid="{E0176607-7D05-4F53-9667-39A4A03C5F12}"/>
   <tableColumns count="39">
-    <tableColumn id="10" xr3:uid="{06F3FDFB-D908-4506-9F73-B1950B5432B2}" name="id &lt;inv&gt;" dataDxfId="16"/>
-    <tableColumn id="1" xr3:uid="{50E4B843-3F3C-48AB-9A11-A8AEAE98C688}" name="name" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{BDC1F6FD-F5BE-4BDC-A530-120CF1EDB073}" name="image" dataDxfId="42">
+    <tableColumn id="10" xr3:uid="{06F3FDFB-D908-4506-9F73-B1950B5432B2}" name="id &lt;inv&gt;" dataDxfId="43"/>
+    <tableColumn id="1" xr3:uid="{50E4B843-3F3C-48AB-9A11-A8AEAE98C688}" name="name" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{BDC1F6FD-F5BE-4BDC-A530-120CF1EDB073}" name="image &lt;value of id&gt;" dataDxfId="41">
       <calculatedColumnFormula>_xlfn.IMAGE("https://m.media-amazon.com/images/I/71A63A5j3bL._AC_UF894,1000_QL80_.jpg")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{7FA666B0-D25B-4777-954C-48E52AB85516}" name="imageSrc &lt;inv&gt;" dataDxfId="13" dataCellStyle="Link"/>
-    <tableColumn id="13" xr3:uid="{E026474B-EDC8-4862-82FC-4A495BD8B4BE}" name="link" dataDxfId="15" dataCellStyle="Link"/>
-    <tableColumn id="27" xr3:uid="{B4944D22-4754-4CF0-83EE-1AC37F1784DC}" name="price" dataDxfId="41" dataCellStyle="Währung"/>
-    <tableColumn id="19" xr3:uid="{64BA4BF5-1FDE-4732-B0F4-123756491263}" name="dimX" dataDxfId="40"/>
-    <tableColumn id="21" xr3:uid="{E38615C3-81C4-47AD-8AC2-915CF0103F19}" name="dimY" dataDxfId="39"/>
-    <tableColumn id="22" xr3:uid="{55C0C826-652F-4A6B-83E3-CCDB9601F342}" name="datasheet" dataDxfId="12"/>
-    <tableColumn id="28" xr3:uid="{CAF68D57-9DD5-418C-9725-8DDA560DAC4E}" name="dataSheetSrc" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{587542E2-02C3-42C4-B632-57BFD8B68620}" name="controller" dataDxfId="14" dataCellStyle="Währung"/>
-    <tableColumn id="31" xr3:uid="{E487950B-DA55-4A5A-AA67-C3DE24DF1FC2}" name="cDatasheet" dataDxfId="10"/>
-    <tableColumn id="33" xr3:uid="{0B976E26-FBA6-46F9-A18C-6EF982C84981}" name="cDatahseetSrc" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{63C6D974-BDD1-4CA5-BB22-CAB3EEB46821}" name="clock" dataDxfId="38"/>
-    <tableColumn id="30" xr3:uid="{36D840AA-FA68-4B34-86C5-8F75852AECBE}" name="coreCnt" dataDxfId="37"/>
-    <tableColumn id="34" xr3:uid="{63D7B924-8924-40BF-A9EB-4E62ADBF30B1}" name="coreBit" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{74F9564F-F54A-4208-BF89-F5B2185537B4}" name="voltOp" dataDxfId="36"/>
-    <tableColumn id="24" xr3:uid="{D241F3B3-FAE1-413D-881F-5705D2DF3FA7}" name="voltIn" dataDxfId="35"/>
-    <tableColumn id="7" xr3:uid="{65EE9DA7-A351-431B-AAE5-4B1E8D342B2C}" name="connector" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{8B0B2852-1E23-43D9-8CCF-612E7B5EAC8E}" name="sizeFlash" dataDxfId="33"/>
-    <tableColumn id="35" xr3:uid="{250AF3D6-1439-4360-AC53-5AFE236521E6}" name="sizeFlashFree" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{CE6EB7FE-073F-47E9-8438-3EA045DA63E9}" name="sizeRAM" dataDxfId="32"/>
-    <tableColumn id="16" xr3:uid="{71571936-9667-47A6-8DEC-607A17E73107}" name="sizeEPROM" dataDxfId="31"/>
-    <tableColumn id="20" xr3:uid="{7FB941BC-C54B-4F39-9306-34F9620C7AEC}" name="pinout" dataDxfId="30"/>
-    <tableColumn id="38" xr3:uid="{18A4EFC4-8BA0-438D-A1F7-FFF1849C3013}" name="pinoutSrc" dataDxfId="6"/>
-    <tableColumn id="23" xr3:uid="{AC87607F-8794-435F-BC6D-EDBFEA907F02}" name="cntGPIO" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{ECC27E07-5954-4DED-8238-0ED81C119069}" name="cntDigital" dataDxfId="28"/>
-    <tableColumn id="18" xr3:uid="{B8D9FA3A-1ED0-4F23-A9F0-AC177FD12812}" name="cntAnalog" dataDxfId="27"/>
-    <tableColumn id="39" xr3:uid="{5B23A253-6588-47DA-BC8E-D2C1D9B7D92B}" name="analogBit" dataDxfId="0"/>
-    <tableColumn id="17" xr3:uid="{CD2A34BE-45F2-4510-8EF9-83EDDFEE035A}" name="cntPWM" dataDxfId="26"/>
-    <tableColumn id="29" xr3:uid="{10C0EFDD-8FEE-41FA-A6DA-8FE3EA458520}" name="laneUART" dataDxfId="25"/>
-    <tableColumn id="37" xr3:uid="{8718023C-E89D-479D-8DDB-53B56190C652}" name="langeI2C" dataDxfId="24"/>
-    <tableColumn id="36" xr3:uid="{0A52E200-5A7E-4345-B763-2510161760F2}" name="laneSPI" dataDxfId="23"/>
-    <tableColumn id="25" xr3:uid="{1C1B65FF-0397-4A72-B697-BEE8A7130ACE}" name="WLAN &lt;protocol&gt;" dataDxfId="22"/>
-    <tableColumn id="26" xr3:uid="{CE794EDB-081C-414E-8975-5B0FBFC905EE}" name="BT &lt;protocol&gt;" dataDxfId="21"/>
-    <tableColumn id="14" xr3:uid="{D2D192E4-D4BC-456C-AFD4-2AC6C192B221}" name="HID &lt;protocol&gt;" dataDxfId="20"/>
-    <tableColumn id="32" xr3:uid="{2BDB4DB9-DFE3-4AAA-95E1-062F62CF4291}" name="edgeCut" dataDxfId="19"/>
-    <tableColumn id="12" xr3:uid="{9E7D0881-B1D1-43E9-B469-F3EA9BF57CBF}" name="platform" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{72928A24-D14D-468F-8CE2-67C7ED1B739C}" name="comment" dataDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{7FA666B0-D25B-4777-954C-48E52AB85516}" name="imageSrc &lt;inv&gt;" dataDxfId="40" dataCellStyle="Link"/>
+    <tableColumn id="13" xr3:uid="{E026474B-EDC8-4862-82FC-4A495BD8B4BE}" name="link" dataDxfId="39" dataCellStyle="Link"/>
+    <tableColumn id="27" xr3:uid="{B4944D22-4754-4CF0-83EE-1AC37F1784DC}" name="price" dataDxfId="38" dataCellStyle="Währung"/>
+    <tableColumn id="19" xr3:uid="{64BA4BF5-1FDE-4732-B0F4-123756491263}" name="dimX" dataDxfId="37"/>
+    <tableColumn id="21" xr3:uid="{E38615C3-81C4-47AD-8AC2-915CF0103F19}" name="dimY" dataDxfId="36"/>
+    <tableColumn id="22" xr3:uid="{55C0C826-652F-4A6B-83E3-CCDB9601F342}" name="datasheet &lt;value of id&gt;" dataDxfId="35"/>
+    <tableColumn id="28" xr3:uid="{CAF68D57-9DD5-418C-9725-8DDA560DAC4E}" name="dataSheetSrc &lt;inv&gt;" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{587542E2-02C3-42C4-B632-57BFD8B68620}" name="controller" dataDxfId="33" dataCellStyle="Währung"/>
+    <tableColumn id="31" xr3:uid="{E487950B-DA55-4A5A-AA67-C3DE24DF1FC2}" name="cDatasheet &lt;value of controller&gt;" dataDxfId="32"/>
+    <tableColumn id="33" xr3:uid="{0B976E26-FBA6-46F9-A18C-6EF982C84981}" name="cDatahseetSrc &lt;inv&gt;" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{63C6D974-BDD1-4CA5-BB22-CAB3EEB46821}" name="clock" dataDxfId="30"/>
+    <tableColumn id="30" xr3:uid="{36D840AA-FA68-4B34-86C5-8F75852AECBE}" name="coreCnt" dataDxfId="29"/>
+    <tableColumn id="34" xr3:uid="{63D7B924-8924-40BF-A9EB-4E62ADBF30B1}" name="coreBit" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{74F9564F-F54A-4208-BF89-F5B2185537B4}" name="voltOp" dataDxfId="27"/>
+    <tableColumn id="24" xr3:uid="{D241F3B3-FAE1-413D-881F-5705D2DF3FA7}" name="voltIn" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{65EE9DA7-A351-431B-AAE5-4B1E8D342B2C}" name="connector" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{8B0B2852-1E23-43D9-8CCF-612E7B5EAC8E}" name="sizeFlash" dataDxfId="24"/>
+    <tableColumn id="35" xr3:uid="{250AF3D6-1439-4360-AC53-5AFE236521E6}" name="sizeFlashFree" dataDxfId="23"/>
+    <tableColumn id="15" xr3:uid="{CE6EB7FE-073F-47E9-8438-3EA045DA63E9}" name="sizeRAM" dataDxfId="22"/>
+    <tableColumn id="16" xr3:uid="{71571936-9667-47A6-8DEC-607A17E73107}" name="sizeEPROM" dataDxfId="21"/>
+    <tableColumn id="20" xr3:uid="{7FB941BC-C54B-4F39-9306-34F9620C7AEC}" name="pinout &lt;value of id&gt;" dataDxfId="20"/>
+    <tableColumn id="38" xr3:uid="{18A4EFC4-8BA0-438D-A1F7-FFF1849C3013}" name="pinoutSrc &lt;inv&gt;" dataDxfId="19"/>
+    <tableColumn id="23" xr3:uid="{AC87607F-8794-435F-BC6D-EDBFEA907F02}" name="cntGPIO" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{ECC27E07-5954-4DED-8238-0ED81C119069}" name="cntDigital" dataDxfId="17"/>
+    <tableColumn id="18" xr3:uid="{B8D9FA3A-1ED0-4F23-A9F0-AC177FD12812}" name="cntAnalog" dataDxfId="16"/>
+    <tableColumn id="39" xr3:uid="{5B23A253-6588-47DA-BC8E-D2C1D9B7D92B}" name="analogBit" dataDxfId="15"/>
+    <tableColumn id="17" xr3:uid="{CD2A34BE-45F2-4510-8EF9-83EDDFEE035A}" name="cntPWM" dataDxfId="14"/>
+    <tableColumn id="29" xr3:uid="{10C0EFDD-8FEE-41FA-A6DA-8FE3EA458520}" name="laneUART" dataDxfId="13"/>
+    <tableColumn id="37" xr3:uid="{8718023C-E89D-479D-8DDB-53B56190C652}" name="langeI2C" dataDxfId="12"/>
+    <tableColumn id="36" xr3:uid="{0A52E200-5A7E-4345-B763-2510161760F2}" name="laneSPI" dataDxfId="11"/>
+    <tableColumn id="25" xr3:uid="{1C1B65FF-0397-4A72-B697-BEE8A7130ACE}" name="WLAN &lt;protocol&gt;" dataDxfId="10"/>
+    <tableColumn id="26" xr3:uid="{CE794EDB-081C-414E-8975-5B0FBFC905EE}" name="BT &lt;protocol&gt;" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{D2D192E4-D4BC-456C-AFD4-2AC6C192B221}" name="HID &lt;protocol&gt;" dataDxfId="8"/>
+    <tableColumn id="32" xr3:uid="{2BDB4DB9-DFE3-4AAA-95E1-062F62CF4291}" name="castellatedEdge" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{9E7D0881-B1D1-43E9-B469-F3EA9BF57CBF}" name="platform" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{72928A24-D14D-468F-8CE2-67C7ED1B739C}" name="comment" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3266,7 +3277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AK2" sqref="AK2"/>
     </sheetView>
@@ -3274,18 +3285,17 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.28515625" customWidth="1"/>
@@ -3296,8 +3306,8 @@
     <col min="21" max="21" width="11.28515625" customWidth="1"/>
     <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.140625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="21.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="9" style="3" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
@@ -3309,128 +3319,128 @@
     <col min="34" max="34" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="5.42578125" style="41" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
-        <v>79</v>
+      <c r="A1" s="85" t="s">
+        <v>77</v>
       </c>
       <c r="B1" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="85" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="G1" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="86" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="85" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="86" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1" s="85" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="P1" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="I1" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="J1" s="61" t="s">
-        <v>82</v>
-      </c>
-      <c r="K1" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="L1" s="61" t="s">
+      <c r="Q1" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="R1" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="S1" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="U1" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="M1" s="61" t="s">
+      <c r="V1" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="W1" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="X1" s="87" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y1" s="85" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z1" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA1" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB1" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC1" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="N1" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="O1" s="61" t="s">
+      <c r="AD1" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE1" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF1" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG1" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH1" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="P1" s="61" t="s">
+      <c r="AI1" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="Q1" s="63" t="s">
-        <v>61</v>
-      </c>
-      <c r="R1" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="S1" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="T1" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="U1" s="61" t="s">
-        <v>89</v>
-      </c>
-      <c r="V1" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="W1" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="X1" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y1" s="61" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z1" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA1" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB1" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC1" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD1" s="63" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE1" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF1" s="63" t="s">
+      <c r="AJ1" s="84" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK1" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL1" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="AG1" s="63" t="s">
+      <c r="AM1" s="64" t="s">
         <v>73</v>
-      </c>
-      <c r="AH1" s="86" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI1" s="86" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ1" s="86" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK1" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL1" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM1" s="64" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="87.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -3441,7 +3451,7 @@
         <v>28</v>
       </c>
       <c r="C2" s="8"/>
-      <c r="D2" s="78"/>
+      <c r="D2" s="76"/>
       <c r="E2" s="8"/>
       <c r="F2" s="16">
         <v>4</v>
@@ -3457,16 +3467,16 @@
       <c r="K2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
       <c r="N2" s="54">
         <v>16</v>
       </c>
       <c r="O2" s="37" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="P2" s="37" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="Q2" s="15">
         <v>5</v>
@@ -3480,7 +3490,7 @@
       <c r="T2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="U2" s="82"/>
+      <c r="U2" s="80"/>
       <c r="V2" s="9" t="s">
         <v>2</v>
       </c>
@@ -3491,7 +3501,7 @@
         <f>_xlfn.IMAGE("https://golem.hu/pic/pro_micro_pinout.jpg")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Y2" s="83"/>
+      <c r="Y2" s="81"/>
       <c r="Z2" s="12">
         <v>18</v>
       </c>
@@ -3540,7 +3550,7 @@
       <c r="B3" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="76"/>
+      <c r="D3" s="74"/>
       <c r="F3" s="17">
         <v>6</v>
       </c>
@@ -3555,8 +3565,8 @@
       <c r="K3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
       <c r="N3" s="55">
         <v>16</v>
       </c>
@@ -3576,7 +3586,7 @@
       <c r="T3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="82"/>
+      <c r="U3" s="80"/>
       <c r="V3" s="9" t="s">
         <v>2</v>
       </c>
@@ -3587,7 +3597,7 @@
         <f>_xlfn.IMAGE("https://golem.hu/pic/pro_micro_pinout.jpg")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Y3" s="83"/>
+      <c r="Y3" s="81"/>
       <c r="Z3" s="7">
         <v>18</v>
       </c>
@@ -3636,7 +3646,7 @@
       <c r="B4" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="76"/>
+      <c r="D4" s="74"/>
       <c r="F4" s="17">
         <v>2</v>
       </c>
@@ -3651,8 +3661,8 @@
       <c r="K4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
       <c r="N4" s="55">
         <v>160</v>
       </c>
@@ -3672,7 +3682,7 @@
       <c r="T4" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="U4" s="74"/>
+      <c r="U4" s="72"/>
       <c r="V4" s="4" t="s">
         <v>13</v>
       </c>
@@ -3683,7 +3693,7 @@
         <f>_xlfn.IMAGE("https://m.media-amazon.com/images/S/aplus-media-library-service-media/717698ba-d013-49aa-9cef-37c054ebc751.__CR0,0,970,600_PT0_SX970_V1___.jpg")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Y4" s="84"/>
+      <c r="Y4" s="82"/>
       <c r="Z4" s="7">
         <v>11</v>
       </c>
@@ -3730,9 +3740,8 @@
       <c r="B5" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="68"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="74"/>
       <c r="F5" s="17">
         <v>5</v>
       </c>
@@ -3742,8 +3751,8 @@
       <c r="H5" s="32">
         <v>8</v>
       </c>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="42" t="s">
         <v>15</v>
       </c>
@@ -3768,7 +3777,7 @@
       <c r="T5" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="U5" s="74"/>
+      <c r="U5" s="72"/>
       <c r="V5" s="4" t="s">
         <v>16</v>
       </c>
@@ -3779,7 +3788,7 @@
         <f>_xlfn.IMAGE("https://d28lcup14p4e72.cloudfront.net/203128/7592134/423FEC27-201C-4091-B185-F9E24A5EBFB9.png")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Y5" s="84"/>
+      <c r="Y5" s="82"/>
       <c r="Z5" s="7">
         <v>26</v>
       </c>
@@ -3826,9 +3835,8 @@
       <c r="B6" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="71"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="68"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="74"/>
       <c r="F6" s="17">
         <v>5</v>
       </c>
@@ -3838,8 +3846,8 @@
       <c r="H6" s="32">
         <v>8</v>
       </c>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
       <c r="K6" s="42" t="s">
         <v>15</v>
       </c>
@@ -3864,7 +3872,7 @@
       <c r="T6" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="U6" s="74"/>
+      <c r="U6" s="72"/>
       <c r="V6" s="4" t="s">
         <v>16</v>
       </c>
@@ -3875,7 +3883,7 @@
         <f>_xlfn.IMAGE("https://ae01.alicdn.com/kf/Se12a486397794177a118e1ad3e610e678.jpg")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Y6" s="84"/>
+      <c r="Y6" s="82"/>
       <c r="Z6" s="7" t="s">
         <v>44</v>
       </c>
@@ -3922,7 +3930,7 @@
       <c r="B7" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="76"/>
+      <c r="D7" s="74"/>
       <c r="F7" s="17">
         <v>5</v>
       </c>
@@ -3932,13 +3940,13 @@
       <c r="H7" s="32">
         <v>7</v>
       </c>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
       <c r="K7" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="79"/>
       <c r="N7" s="55">
         <v>133</v>
       </c>
@@ -3958,7 +3966,7 @@
       <c r="T7" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="U7" s="74"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>16</v>
       </c>
@@ -3966,9 +3974,9 @@
         <v>26</v>
       </c>
       <c r="X7" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y7" s="84"/>
+        <v>74</v>
+      </c>
+      <c r="Y7" s="82"/>
       <c r="Z7" s="7" t="s">
         <v>43</v>
       </c>
@@ -4018,7 +4026,7 @@
         <v>36</v>
       </c>
       <c r="C8"/>
-      <c r="D8" s="75"/>
+      <c r="D8" s="73"/>
       <c r="E8"/>
       <c r="F8" s="17">
         <v>5</v>
@@ -4029,13 +4037,13 @@
       <c r="H8" s="59">
         <v>7</v>
       </c>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
       <c r="K8" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="81"/>
-      <c r="M8" s="81"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="79"/>
       <c r="N8" s="55">
         <v>133</v>
       </c>
@@ -4055,7 +4063,7 @@
       <c r="T8" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="U8" s="74"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>16</v>
       </c>
@@ -4066,7 +4074,7 @@
         <f>_xlfn.IMAGE("https://ae01.alicdn.com/kf/S727020357b8849c08a74ecc113f0aab9V.png")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Y8" s="84"/>
+      <c r="Y8" s="82"/>
       <c r="Z8" s="7">
         <v>29</v>
       </c>
@@ -4114,7 +4122,7 @@
         <v>38</v>
       </c>
       <c r="C9"/>
-      <c r="D9" s="75"/>
+      <c r="D9" s="73"/>
       <c r="E9"/>
       <c r="F9" s="17">
         <v>4</v>
@@ -4125,13 +4133,13 @@
       <c r="H9" s="32">
         <v>7</v>
       </c>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
       <c r="K9" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
       <c r="N9" s="55">
         <v>133</v>
       </c>
@@ -4151,7 +4159,7 @@
       <c r="T9" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="U9" s="74"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>16</v>
       </c>
@@ -4162,7 +4170,7 @@
         <f>_xlfn.IMAGE("https://ae01.alicdn.com/kf/S94e1d0dc296b43f1a55a1bc219a6e932h.png")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Y9" s="84"/>
+      <c r="Y9" s="82"/>
       <c r="Z9" s="7" t="s">
         <v>42</v>
       </c>
@@ -4210,7 +4218,7 @@
         <v>46</v>
       </c>
       <c r="C10"/>
-      <c r="D10" s="75"/>
+      <c r="D10" s="73"/>
       <c r="E10"/>
       <c r="F10" s="17">
         <v>3</v>
@@ -4221,13 +4229,13 @@
       <c r="H10" s="32">
         <v>7</v>
       </c>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
       <c r="K10" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="81"/>
-      <c r="M10" s="81"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="79"/>
       <c r="N10" s="55">
         <v>133</v>
       </c>
@@ -4247,7 +4255,7 @@
       <c r="T10" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="U10" s="74"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>16</v>
       </c>
@@ -4258,7 +4266,7 @@
         <f>_xlfn.IMAGE("https://ae01.alicdn.com/kf/Sbfea1c5534ef4ed2838f33ace9000c07L.jpg")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Y10" s="84"/>
+      <c r="Y10" s="82"/>
       <c r="Z10" s="7" t="s">
         <v>42</v>
       </c>
@@ -4303,16 +4311,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="51"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="73"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="71"/>
       <c r="G11" s="20"/>
       <c r="H11" s="32"/>
       <c r="I11" s="32"/>
       <c r="J11" s="32"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="74"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
       <c r="N11" s="55" t="s">
         <v>45</v>
       </c>
@@ -4322,11 +4330,11 @@
       <c r="R11" s="4"/>
       <c r="S11" s="23"/>
       <c r="T11" s="33"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4"/>
       <c r="W11" s="34"/>
       <c r="X11" s="58"/>
-      <c r="Y11" s="85"/>
+      <c r="Y11" s="83"/>
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
       <c r="AB11" s="7"/>
@@ -4349,19 +4357,19 @@
       <c r="B12" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="77"/>
-      <c r="E12" s="73"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="71"/>
       <c r="F12" s="17"/>
       <c r="G12" s="20"/>
       <c r="H12" s="32"/>
       <c r="I12" s="32"/>
       <c r="J12" s="32"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="74"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
       <c r="N12" s="55"/>
       <c r="O12" s="38"/>
       <c r="P12" s="38"/>
@@ -4369,11 +4377,11 @@
       <c r="R12" s="4"/>
       <c r="S12" s="23"/>
       <c r="T12" s="33"/>
-      <c r="U12" s="74"/>
+      <c r="U12" s="72"/>
       <c r="V12" s="4"/>
       <c r="W12" s="34"/>
       <c r="X12" s="58"/>
-      <c r="Y12" s="85"/>
+      <c r="Y12" s="83"/>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
       <c r="AB12" s="7"/>
@@ -4396,19 +4404,19 @@
       <c r="B13" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="72" t="s">
+      <c r="C13" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="77"/>
-      <c r="E13" s="73"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="71"/>
       <c r="F13" s="17"/>
       <c r="G13" s="20"/>
       <c r="H13" s="32"/>
       <c r="I13" s="32"/>
       <c r="J13" s="32"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="74"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
       <c r="N13" s="55"/>
       <c r="O13" s="38"/>
       <c r="P13" s="38"/>
@@ -4416,11 +4424,11 @@
       <c r="R13" s="4"/>
       <c r="S13" s="23"/>
       <c r="T13" s="33"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4"/>
       <c r="W13" s="34"/>
       <c r="X13" s="58"/>
-      <c r="Y13" s="85"/>
+      <c r="Y13" s="83"/>
       <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
       <c r="AB13" s="7"/>
@@ -4443,19 +4451,19 @@
       <c r="B14" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="72" t="s">
+      <c r="C14" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="77"/>
-      <c r="E14" s="73"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="71"/>
       <c r="F14" s="17"/>
       <c r="G14" s="20"/>
       <c r="H14" s="32"/>
       <c r="I14" s="32"/>
       <c r="J14" s="32"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="74"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
       <c r="N14" s="55"/>
       <c r="O14" s="38"/>
       <c r="P14" s="38"/>
@@ -4463,11 +4471,11 @@
       <c r="R14" s="4"/>
       <c r="S14" s="23"/>
       <c r="T14" s="33"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4"/>
       <c r="W14" s="34"/>
       <c r="X14" s="58"/>
-      <c r="Y14" s="85"/>
+      <c r="Y14" s="83"/>
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
       <c r="AB14" s="7"/>
@@ -4490,19 +4498,19 @@
       <c r="B15" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="72" t="s">
+      <c r="C15" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="77"/>
-      <c r="E15" s="73"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="71"/>
       <c r="F15" s="17"/>
       <c r="G15" s="20"/>
       <c r="H15" s="32"/>
       <c r="I15" s="32"/>
       <c r="J15" s="32"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="74"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
       <c r="N15" s="55"/>
       <c r="O15" s="38"/>
       <c r="P15" s="38"/>
@@ -4510,11 +4518,11 @@
       <c r="R15" s="4"/>
       <c r="S15" s="23"/>
       <c r="T15" s="33"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4"/>
       <c r="W15" s="34"/>
       <c r="X15" s="58"/>
-      <c r="Y15" s="85"/>
+      <c r="Y15" s="83"/>
       <c r="Z15" s="7"/>
       <c r="AA15" s="7"/>
       <c r="AB15" s="7"/>
@@ -4544,8 +4552,8 @@
       <c r="I16" s="32"/>
       <c r="J16" s="32"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="74"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
       <c r="N16" s="55"/>
       <c r="O16" s="38"/>
       <c r="P16" s="38"/>
@@ -4553,11 +4561,11 @@
       <c r="R16" s="4"/>
       <c r="S16" s="23"/>
       <c r="T16" s="33"/>
-      <c r="U16" s="74"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="4"/>
       <c r="W16" s="34"/>
       <c r="X16" s="58"/>
-      <c r="Y16" s="85"/>
+      <c r="Y16" s="83"/>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
@@ -4575,24 +4583,24 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A2:B2 B12:B16 B3:B10 A3:A16 C2:E9 C11:E16 F2:AM16">
-    <cfRule type="endsWith" dxfId="5" priority="1" operator="endsWith" text="?">
+  <conditionalFormatting sqref="A2:B2 C2:E9 F2:AM16 B3:B10 A3:A16 C11:E16 B12:B16">
+    <cfRule type="endsWith" dxfId="4" priority="1" operator="endsWith" text="?">
       <formula>RIGHT(A2,LEN("?"))="?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE2:AG16">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE2:AK16">
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",AE2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="J">
+    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="J">
       <formula>NOT(ISERROR(SEARCH("J",AE2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="8" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",AE2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DevBoardList.xlsx
+++ b/DevBoardList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dokumente_HDD\## TO SORT\Basteln\Projekte\DevBoardList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059C3D52-B97F-403D-A42E-194E28C25058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C86462-B0F0-498B-B809-E2EC22C20663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="162" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="103">
   <si>
     <t>ATmega32U4</t>
   </si>
@@ -324,9 +324,6 @@
     <t>dimY</t>
   </si>
   <si>
-    <t>controller</t>
-  </si>
-  <si>
     <t>clock</t>
   </si>
   <si>
@@ -420,22 +417,48 @@
     <t>pinout &lt;value of id&gt;</t>
   </si>
   <si>
-    <t>datasheet &lt;value of id&gt;</t>
-  </si>
-  <si>
-    <t>dataSheetSrc &lt;inv&gt;</t>
-  </si>
-  <si>
-    <t>cDatasheet &lt;value of controller&gt;</t>
-  </si>
-  <si>
-    <t>cDatahseetSrc &lt;inv&gt;</t>
-  </si>
-  <si>
     <t>pinoutSrc &lt;inv&gt;</t>
   </si>
   <si>
     <t>castellatedEdge</t>
+  </si>
+  <si>
+    <t>GENERAL</t>
+  </si>
+  <si>
+    <t>chip</t>
+  </si>
+  <si>
+    <t>cDocs 
+&lt;value of controller&gt;</t>
+  </si>
+  <si>
+    <t>cDocsSrc &lt;inv&gt;</t>
+  </si>
+  <si>
+    <t>docsSrc &lt;inv&gt;</t>
+  </si>
+  <si>
+    <t>docs 
+&lt;value of id&gt;</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>Pins</t>
+  </si>
+  <si>
+    <t>Stoarage</t>
+  </si>
+  <si>
+    <t>Connectivity</t>
+  </si>
+  <si>
+    <t>miscellaneous</t>
+  </si>
+  <si>
+    <t>BOARD</t>
   </si>
 </sst>
 </file>
@@ -543,7 +566,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -613,38 +636,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="1" tint="0.14996795556505021"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="1" tint="0.14996795556505021"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1" tint="0.14996795556505021"/>
+      <left style="thin">
+        <color theme="1" tint="0.14993743705557422"/>
       </left>
       <right style="thin">
         <color theme="1" tint="0.14999847407452621"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1" tint="0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <top style="thick">
         <color theme="1" tint="0.14996795556505021"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.14999847407452621"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.14999847407452621"/>
       </top>
       <bottom style="thin">
         <color theme="1" tint="0.14999847407452621"/>
@@ -658,38 +657,8 @@
       <right style="thin">
         <color theme="1" tint="0.14999847407452621"/>
       </right>
-      <top style="thick">
-        <color theme="1" tint="0.14996795556505021"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.14993743705557422"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.14999847407452621"/>
-      </right>
       <top style="thin">
         <color theme="1" tint="0.14999847407452621"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1" tint="0.14996795556505021"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.14999847407452621"/>
-      </right>
-      <top style="thick">
-        <color theme="1" tint="0.14996795556505021"/>
       </top>
       <bottom style="thin">
         <color theme="1" tint="0.14999847407452621"/>
@@ -712,80 +681,6 @@
       <right style="thin">
         <color theme="1" tint="0.14999847407452621"/>
       </right>
-      <top style="thin">
-        <color theme="1" tint="0.14999847407452621"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="1" tint="0.14996795556505021"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.14999847407452621"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1" tint="0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.14999847407452621"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.14999847407452621"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1" tint="0.14996795556505021"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color theme="1" tint="0.14996795556505021"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1" tint="0.14996795556505021"/>
-      </left>
-      <right/>
       <top style="thin">
         <color theme="1" tint="0.14999847407452621"/>
       </top>
@@ -819,43 +714,6 @@
       <top style="thin">
         <color theme="1" tint="0.14999847407452621"/>
       </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.14999847407452621"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1" tint="0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.14999847407452621"/>
-      </left>
-      <right style="medium">
-        <color theme="1" tint="0.14996795556505021"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.14999847407452621"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color theme="1" tint="0.14999847407452621"/>
       </bottom>
@@ -877,11 +735,360 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color theme="1" tint="0.14999847407452621"/>
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </right>
+      <top style="thick">
+        <color theme="1" tint="0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="1" tint="0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="1" tint="0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="1" tint="0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="1" tint="0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.14996795556505021"/>
       </left>
       <right style="thin">
-        <color theme="1" tint="0.14999847407452621"/>
+        <color theme="1" tint="0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.14996795556505021"/>
+      </right>
+      <top style="thick">
+        <color theme="1" tint="0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.14996795556505021"/>
+      </right>
+      <top style="thick">
+        <color theme="1" tint="0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.14993743705557422"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.14993743705557422"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.14993743705557422"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.14993743705557422"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -893,22 +1100,15 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -921,9 +1121,6 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -961,179 +1158,260 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="2" builtinId="8"/>
@@ -1141,6 +1419,24 @@
     <cellStyle name="Währung" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="46">
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+        <vertical/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1175,6 +1471,143 @@
       </font>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0&quot; Pin&quot;"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="20" formatCode="dd/\ mmm\ yy"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="20" formatCode="dd/\ mmm\ yy"/>
       <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1215,25 +1648,6 @@
           <color theme="1" tint="0.14999847407452621"/>
         </bottom>
         <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1357,23 +1771,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1485,23 +1882,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.14996795556505021"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="1" tint="0.14999847407452621"/>
@@ -1562,49 +1942,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="20" formatCode="dd/\ mmm\ yy"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="166" formatCode="0&quot;V&quot;"/>
       <alignment horizontal="left" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -1689,23 +2026,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="0&quot; Pin&quot;"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1746,24 +2066,6 @@
     <dxf>
       <numFmt numFmtId="164" formatCode="0&quot; Pin&quot;"/>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0&quot; Pin&quot;"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="1" tint="0.14999847407452621"/>
@@ -1813,25 +2115,6 @@
         <bottom style="thin">
           <color theme="1" tint="0.14999847407452621"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1932,15 +2215,6 @@
         </bottom>
       </border>
     </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1960,13 +2234,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>34863</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>18588</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1762863</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>1098009</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2033,13 +2307,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>51289</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>61596</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1779289</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>1052097</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2103,13 +2377,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2151,13 +2425,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2199,13 +2473,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2247,13 +2521,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>171555</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>19272</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1597268</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>1099272</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2307,13 +2581,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2355,13 +2629,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>23764</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>207113</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1787764</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>945173</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2425,13 +2699,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>23769</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>178547</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1787769</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>952974</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2495,13 +2769,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>32194</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>106764</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1796194</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>1043480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2565,13 +2839,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>29328</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>113743</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1793328</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>985331</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2635,13 +2909,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>223343</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>66779</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1591343</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>1057572</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2705,13 +2979,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2753,13 +3027,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>229917</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>61013</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1588640</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>1051013</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2963,50 +3237,50 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E0176607-7D05-4F53-9667-39A4A03C5F12}" name="Tabelle1" displayName="Tabelle1" ref="A1:AM16" totalsRowShown="0" headerRowDxfId="45" headerRowBorderDxfId="44">
-  <autoFilter ref="A1:AM16" xr:uid="{E0176607-7D05-4F53-9667-39A4A03C5F12}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E0176607-7D05-4F53-9667-39A4A03C5F12}" name="Tabelle1" displayName="Tabelle1" ref="A2:AM17" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="45">
+  <autoFilter ref="A2:AM17" xr:uid="{E0176607-7D05-4F53-9667-39A4A03C5F12}"/>
   <tableColumns count="39">
-    <tableColumn id="10" xr3:uid="{06F3FDFB-D908-4506-9F73-B1950B5432B2}" name="id &lt;inv&gt;" dataDxfId="43"/>
-    <tableColumn id="1" xr3:uid="{50E4B843-3F3C-48AB-9A11-A8AEAE98C688}" name="name" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{BDC1F6FD-F5BE-4BDC-A530-120CF1EDB073}" name="image &lt;value of id&gt;" dataDxfId="41">
+    <tableColumn id="10" xr3:uid="{06F3FDFB-D908-4506-9F73-B1950B5432B2}" name="id &lt;inv&gt;" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{50E4B843-3F3C-48AB-9A11-A8AEAE98C688}" name="name" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{BDC1F6FD-F5BE-4BDC-A530-120CF1EDB073}" name="image &lt;value of id&gt;" dataDxfId="42">
       <calculatedColumnFormula>_xlfn.IMAGE("https://m.media-amazon.com/images/I/71A63A5j3bL._AC_UF894,1000_QL80_.jpg")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{7FA666B0-D25B-4777-954C-48E52AB85516}" name="imageSrc &lt;inv&gt;" dataDxfId="40" dataCellStyle="Link"/>
-    <tableColumn id="13" xr3:uid="{E026474B-EDC8-4862-82FC-4A495BD8B4BE}" name="link" dataDxfId="39" dataCellStyle="Link"/>
-    <tableColumn id="27" xr3:uid="{B4944D22-4754-4CF0-83EE-1AC37F1784DC}" name="price" dataDxfId="38" dataCellStyle="Währung"/>
-    <tableColumn id="19" xr3:uid="{64BA4BF5-1FDE-4732-B0F4-123756491263}" name="dimX" dataDxfId="37"/>
-    <tableColumn id="21" xr3:uid="{E38615C3-81C4-47AD-8AC2-915CF0103F19}" name="dimY" dataDxfId="36"/>
-    <tableColumn id="22" xr3:uid="{55C0C826-652F-4A6B-83E3-CCDB9601F342}" name="datasheet &lt;value of id&gt;" dataDxfId="35"/>
-    <tableColumn id="28" xr3:uid="{CAF68D57-9DD5-418C-9725-8DDA560DAC4E}" name="dataSheetSrc &lt;inv&gt;" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{587542E2-02C3-42C4-B632-57BFD8B68620}" name="controller" dataDxfId="33" dataCellStyle="Währung"/>
-    <tableColumn id="31" xr3:uid="{E487950B-DA55-4A5A-AA67-C3DE24DF1FC2}" name="cDatasheet &lt;value of controller&gt;" dataDxfId="32"/>
-    <tableColumn id="33" xr3:uid="{0B976E26-FBA6-46F9-A18C-6EF982C84981}" name="cDatahseetSrc &lt;inv&gt;" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{63C6D974-BDD1-4CA5-BB22-CAB3EEB46821}" name="clock" dataDxfId="30"/>
-    <tableColumn id="30" xr3:uid="{36D840AA-FA68-4B34-86C5-8F75852AECBE}" name="coreCnt" dataDxfId="29"/>
-    <tableColumn id="34" xr3:uid="{63D7B924-8924-40BF-A9EB-4E62ADBF30B1}" name="coreBit" dataDxfId="28"/>
-    <tableColumn id="8" xr3:uid="{74F9564F-F54A-4208-BF89-F5B2185537B4}" name="voltOp" dataDxfId="27"/>
-    <tableColumn id="24" xr3:uid="{D241F3B3-FAE1-413D-881F-5705D2DF3FA7}" name="voltIn" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{65EE9DA7-A351-431B-AAE5-4B1E8D342B2C}" name="connector" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{8B0B2852-1E23-43D9-8CCF-612E7B5EAC8E}" name="sizeFlash" dataDxfId="24"/>
-    <tableColumn id="35" xr3:uid="{250AF3D6-1439-4360-AC53-5AFE236521E6}" name="sizeFlashFree" dataDxfId="23"/>
-    <tableColumn id="15" xr3:uid="{CE6EB7FE-073F-47E9-8438-3EA045DA63E9}" name="sizeRAM" dataDxfId="22"/>
-    <tableColumn id="16" xr3:uid="{71571936-9667-47A6-8DEC-607A17E73107}" name="sizeEPROM" dataDxfId="21"/>
-    <tableColumn id="20" xr3:uid="{7FB941BC-C54B-4F39-9306-34F9620C7AEC}" name="pinout &lt;value of id&gt;" dataDxfId="20"/>
-    <tableColumn id="38" xr3:uid="{18A4EFC4-8BA0-438D-A1F7-FFF1849C3013}" name="pinoutSrc &lt;inv&gt;" dataDxfId="19"/>
-    <tableColumn id="23" xr3:uid="{AC87607F-8794-435F-BC6D-EDBFEA907F02}" name="cntGPIO" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{ECC27E07-5954-4DED-8238-0ED81C119069}" name="cntDigital" dataDxfId="17"/>
-    <tableColumn id="18" xr3:uid="{B8D9FA3A-1ED0-4F23-A9F0-AC177FD12812}" name="cntAnalog" dataDxfId="16"/>
-    <tableColumn id="39" xr3:uid="{5B23A253-6588-47DA-BC8E-D2C1D9B7D92B}" name="analogBit" dataDxfId="15"/>
-    <tableColumn id="17" xr3:uid="{CD2A34BE-45F2-4510-8EF9-83EDDFEE035A}" name="cntPWM" dataDxfId="14"/>
-    <tableColumn id="29" xr3:uid="{10C0EFDD-8FEE-41FA-A6DA-8FE3EA458520}" name="laneUART" dataDxfId="13"/>
-    <tableColumn id="37" xr3:uid="{8718023C-E89D-479D-8DDB-53B56190C652}" name="langeI2C" dataDxfId="12"/>
-    <tableColumn id="36" xr3:uid="{0A52E200-5A7E-4345-B763-2510161760F2}" name="laneSPI" dataDxfId="11"/>
-    <tableColumn id="25" xr3:uid="{1C1B65FF-0397-4A72-B697-BEE8A7130ACE}" name="WLAN &lt;protocol&gt;" dataDxfId="10"/>
-    <tableColumn id="26" xr3:uid="{CE794EDB-081C-414E-8975-5B0FBFC905EE}" name="BT &lt;protocol&gt;" dataDxfId="9"/>
-    <tableColumn id="14" xr3:uid="{D2D192E4-D4BC-456C-AFD4-2AC6C192B221}" name="HID &lt;protocol&gt;" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{7FA666B0-D25B-4777-954C-48E52AB85516}" name="imageSrc &lt;inv&gt;" dataDxfId="0" dataCellStyle="Link"/>
+    <tableColumn id="13" xr3:uid="{E026474B-EDC8-4862-82FC-4A495BD8B4BE}" name="link" dataDxfId="41" dataCellStyle="Link"/>
+    <tableColumn id="27" xr3:uid="{B4944D22-4754-4CF0-83EE-1AC37F1784DC}" name="price" dataDxfId="40" dataCellStyle="Währung"/>
+    <tableColumn id="19" xr3:uid="{64BA4BF5-1FDE-4732-B0F4-123756491263}" name="dimX" dataDxfId="39"/>
+    <tableColumn id="21" xr3:uid="{E38615C3-81C4-47AD-8AC2-915CF0103F19}" name="dimY" dataDxfId="38"/>
+    <tableColumn id="7" xr3:uid="{65EE9DA7-A351-431B-AAE5-4B1E8D342B2C}" name="connector" dataDxfId="11"/>
+    <tableColumn id="22" xr3:uid="{55C0C826-652F-4A6B-83E3-CCDB9601F342}" name="docs _x000a_&lt;value of id&gt;" dataDxfId="37"/>
+    <tableColumn id="28" xr3:uid="{CAF68D57-9DD5-418C-9725-8DDA560DAC4E}" name="docsSrc &lt;inv&gt;" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{587542E2-02C3-42C4-B632-57BFD8B68620}" name="chip" dataDxfId="36" dataCellStyle="Währung"/>
+    <tableColumn id="31" xr3:uid="{E487950B-DA55-4A5A-AA67-C3DE24DF1FC2}" name="cDocs _x000a_&lt;value of controller&gt;" dataDxfId="35"/>
+    <tableColumn id="33" xr3:uid="{0B976E26-FBA6-46F9-A18C-6EF982C84981}" name="cDocsSrc &lt;inv&gt;" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{63C6D974-BDD1-4CA5-BB22-CAB3EEB46821}" name="clock" dataDxfId="34"/>
+    <tableColumn id="30" xr3:uid="{36D840AA-FA68-4B34-86C5-8F75852AECBE}" name="coreCnt" dataDxfId="33"/>
+    <tableColumn id="34" xr3:uid="{63D7B924-8924-40BF-A9EB-4E62ADBF30B1}" name="coreBit" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{74F9564F-F54A-4208-BF89-F5B2185537B4}" name="voltOp" dataDxfId="31"/>
+    <tableColumn id="24" xr3:uid="{D241F3B3-FAE1-413D-881F-5705D2DF3FA7}" name="voltIn" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{8B0B2852-1E23-43D9-8CCF-612E7B5EAC8E}" name="sizeFlash" dataDxfId="30"/>
+    <tableColumn id="35" xr3:uid="{250AF3D6-1439-4360-AC53-5AFE236521E6}" name="sizeFlashFree" dataDxfId="29"/>
+    <tableColumn id="15" xr3:uid="{CE6EB7FE-073F-47E9-8438-3EA045DA63E9}" name="sizeRAM" dataDxfId="28"/>
+    <tableColumn id="16" xr3:uid="{71571936-9667-47A6-8DEC-607A17E73107}" name="sizeEPROM" dataDxfId="9"/>
+    <tableColumn id="20" xr3:uid="{7FB941BC-C54B-4F39-9306-34F9620C7AEC}" name="pinout &lt;value of id&gt;" dataDxfId="27"/>
+    <tableColumn id="38" xr3:uid="{18A4EFC4-8BA0-438D-A1F7-FFF1849C3013}" name="pinoutSrc &lt;inv&gt;" dataDxfId="26"/>
+    <tableColumn id="23" xr3:uid="{AC87607F-8794-435F-BC6D-EDBFEA907F02}" name="cntGPIO" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{ECC27E07-5954-4DED-8238-0ED81C119069}" name="cntDigital" dataDxfId="24"/>
+    <tableColumn id="18" xr3:uid="{B8D9FA3A-1ED0-4F23-A9F0-AC177FD12812}" name="cntAnalog" dataDxfId="23"/>
+    <tableColumn id="39" xr3:uid="{5B23A253-6588-47DA-BC8E-D2C1D9B7D92B}" name="analogBit" dataDxfId="22"/>
+    <tableColumn id="17" xr3:uid="{CD2A34BE-45F2-4510-8EF9-83EDDFEE035A}" name="cntPWM" dataDxfId="8"/>
+    <tableColumn id="29" xr3:uid="{10C0EFDD-8FEE-41FA-A6DA-8FE3EA458520}" name="laneUART" dataDxfId="21"/>
+    <tableColumn id="37" xr3:uid="{8718023C-E89D-479D-8DDB-53B56190C652}" name="langeI2C" dataDxfId="20"/>
+    <tableColumn id="36" xr3:uid="{0A52E200-5A7E-4345-B763-2510161760F2}" name="laneSPI" dataDxfId="19"/>
+    <tableColumn id="25" xr3:uid="{1C1B65FF-0397-4A72-B697-BEE8A7130ACE}" name="WLAN &lt;protocol&gt;" dataDxfId="18"/>
+    <tableColumn id="26" xr3:uid="{CE794EDB-081C-414E-8975-5B0FBFC905EE}" name="BT &lt;protocol&gt;" dataDxfId="17"/>
+    <tableColumn id="14" xr3:uid="{D2D192E4-D4BC-456C-AFD4-2AC6C192B221}" name="HID &lt;protocol&gt;" dataDxfId="16"/>
     <tableColumn id="32" xr3:uid="{2BDB4DB9-DFE3-4AAA-95E1-062F62CF4291}" name="castellatedEdge" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{9E7D0881-B1D1-43E9-B469-F3EA9BF57CBF}" name="platform" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{72928A24-D14D-468F-8CE2-67C7ED1B739C}" name="comment" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{9E7D0881-B1D1-43E9-B469-F3EA9BF57CBF}" name="platform" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{72928A24-D14D-468F-8CE2-67C7ED1B739C}" name="comment" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3275,1376 +3549,1424 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM16"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AK2" sqref="AK2"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.28515625" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5703125" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.28515625" customWidth="1"/>
-    <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.42578125" style="3" customWidth="1"/>
-    <col min="30" max="30" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.7109375" style="3" customWidth="1"/>
-    <col min="32" max="32" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="5.42578125" style="41" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" style="65" customWidth="1"/>
+    <col min="2" max="2" width="21" style="65" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" style="65" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="66" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" style="65" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.85546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12" style="65" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" style="65" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" style="65" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" style="65" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" style="65" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" style="48" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" style="65" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" style="65" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.28515625" style="65" customWidth="1"/>
+    <col min="22" max="22" width="11" style="65" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.85546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.5703125" style="48" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.42578125" style="48" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.85546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9" style="48" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.42578125" style="48" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.42578125" style="48" customWidth="1"/>
+    <col min="30" max="30" width="8.28515625" style="67" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.7109375" style="48" customWidth="1"/>
+    <col min="32" max="32" width="10.85546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.85546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.5703125" style="48" customWidth="1"/>
+    <col min="35" max="35" width="11.140625" style="48" customWidth="1"/>
+    <col min="36" max="36" width="11.5703125" style="67" customWidth="1"/>
+    <col min="37" max="37" width="17.28515625" style="67" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.28515625" style="65" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="30.7109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="9.140625" style="65"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="85" t="s">
+    <row r="1" spans="1:39" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="83" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="107" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="82" t="s">
+        <v>97</v>
+      </c>
+      <c r="N1" s="82"/>
+      <c r="Q1" s="84"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="82" t="s">
+        <v>99</v>
+      </c>
+      <c r="W1" s="85"/>
+      <c r="X1" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y1" s="84"/>
+      <c r="Z1" s="84"/>
+      <c r="AA1" s="84"/>
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="87"/>
+      <c r="AE1" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF1" s="84"/>
+      <c r="AG1" s="84"/>
+      <c r="AH1" s="84"/>
+      <c r="AI1" s="84"/>
+      <c r="AJ1" s="88"/>
+      <c r="AK1" s="87"/>
+      <c r="AL1" s="82" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" s="49" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="86" t="s">
+      <c r="E2" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="K2" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="L2" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="M2" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="N2" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="O2" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="P2" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q2" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="R2" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="S2" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="T2" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="U2" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="V2" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="W2" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="X2" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="85" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="61" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" s="86" t="s">
+      <c r="Y2" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z2" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA2" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB2" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC2" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD2" s="79" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE2" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF2" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG2" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH2" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI2" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ2" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK2" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="85" t="s">
-        <v>91</v>
-      </c>
-      <c r="K1" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="L1" s="86" t="s">
-        <v>92</v>
-      </c>
-      <c r="M1" s="85" t="s">
-        <v>93</v>
-      </c>
-      <c r="N1" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="O1" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="P1" s="61" t="s">
+      <c r="AL2" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM2" s="54" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" customFormat="1" ht="87.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37">
+        <v>1</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="12">
+        <v>4</v>
+      </c>
+      <c r="G3" s="10">
+        <v>12</v>
+      </c>
+      <c r="H3" s="17">
+        <v>7</v>
+      </c>
+      <c r="I3" s="99" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="100"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="42"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="58">
+        <v>16</v>
+      </c>
+      <c r="P3" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="Q1" s="63" t="s">
-        <v>60</v>
-      </c>
-      <c r="R1" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="S1" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1" s="62" t="s">
-        <v>62</v>
-      </c>
-      <c r="U1" s="61" t="s">
-        <v>83</v>
-      </c>
-      <c r="V1" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="W1" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="X1" s="87" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y1" s="85" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z1" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA1" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB1" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC1" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD1" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE1" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF1" s="63" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG1" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH1" s="84" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI1" s="84" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ1" s="84" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK1" s="65" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL1" s="66" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM1" s="64" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39" ht="87.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67">
-        <v>1</v>
-      </c>
-      <c r="B2" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="16">
-        <v>4</v>
-      </c>
-      <c r="G2" s="14">
-        <v>12</v>
-      </c>
-      <c r="H2" s="21">
-        <v>7</v>
-      </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="54">
-        <v>16</v>
-      </c>
-      <c r="O2" s="37" t="s">
+      <c r="Q3" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="P2" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q2" s="15">
+      <c r="R3" s="11">
         <v>5</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="S3" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="T2" s="27" t="s">
+      <c r="T3" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="U2" s="80"/>
-      <c r="V2" s="9" t="s">
+      <c r="U3" s="44"/>
+      <c r="V3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="24" t="s">
+      <c r="W3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="X2" s="56" t="e" vm="1">
+      <c r="X3" s="45" t="e" vm="1">
         <f>_xlfn.IMAGE("https://golem.hu/pic/pro_micro_pinout.jpg")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Y2" s="81"/>
-      <c r="Z2" s="12">
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="8">
         <v>18</v>
       </c>
-      <c r="AA2" s="12">
+      <c r="AA3" s="8">
         <v>12</v>
       </c>
-      <c r="AB2" s="12" t="s">
+      <c r="AB3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="25">
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="80">
         <v>5</v>
       </c>
-      <c r="AE2" s="43">
+      <c r="AE3" s="77">
         <v>1</v>
       </c>
-      <c r="AF2" s="47">
+      <c r="AF3" s="30">
         <v>1</v>
       </c>
-      <c r="AG2" s="45">
+      <c r="AG3" s="28">
         <v>1</v>
       </c>
-      <c r="AH2" s="13" t="s">
+      <c r="AH3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AI2" s="13" t="s">
+      <c r="AI3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AJ2" s="29" t="s">
+      <c r="AJ3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="AK2" s="39" t="s">
+      <c r="AK3" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="AL2" s="31" t="s">
+      <c r="AL3" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="AM2" s="10" t="s">
+      <c r="AM3" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:39" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="67">
+    <row r="4" spans="1:39" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="37">
         <v>2</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B4" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="F3" s="17">
+      <c r="D4" s="110"/>
+      <c r="F4" s="13">
         <v>6</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G4" s="16">
         <v>12</v>
       </c>
-      <c r="H3" s="32">
+      <c r="H4" s="24">
         <v>7</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="6" t="s">
+      <c r="I4" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="102"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="55">
+      <c r="M4" s="40"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="59">
         <v>16</v>
       </c>
-      <c r="O3" s="37" t="s">
+      <c r="P4" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="18">
+      <c r="Q4" s="25"/>
+      <c r="R4" s="14">
         <v>5</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S4" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="S3" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="T3" s="28" t="s">
+      <c r="T4" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="80"/>
-      <c r="V3" s="9" t="s">
+      <c r="U4" s="44"/>
+      <c r="V4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="W3" s="24" t="s">
+      <c r="W4" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="X3" s="56" t="e" vm="1">
+      <c r="X4" s="45" t="e" vm="1">
         <f>_xlfn.IMAGE("https://golem.hu/pic/pro_micro_pinout.jpg")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Y3" s="81"/>
-      <c r="Z3" s="7">
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="4">
         <v>18</v>
       </c>
-      <c r="AA3" s="7">
+      <c r="AA4" s="4">
         <v>12</v>
       </c>
-      <c r="AB3" s="12" t="s">
+      <c r="AB4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="AC3" s="25"/>
-      <c r="AD3" s="26">
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="81">
         <v>5</v>
       </c>
-      <c r="AE3" s="44">
+      <c r="AE4" s="78">
         <v>1</v>
       </c>
-      <c r="AF3" s="48">
+      <c r="AF4" s="31">
         <v>1</v>
       </c>
-      <c r="AG3" s="46">
+      <c r="AG4" s="29">
         <v>1</v>
       </c>
-      <c r="AH3" s="19" t="s">
+      <c r="AH4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AI3" s="19" t="s">
+      <c r="AI4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AJ3" s="30" t="s">
+      <c r="AJ4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="AK3" s="40" t="s">
+      <c r="AK4" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="AL3" s="31" t="s">
+      <c r="AL4" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="AM3" s="10" t="s">
+      <c r="AM4" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:39" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67">
+    <row r="5" spans="1:39" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="37">
         <v>3</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B5" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="74"/>
-      <c r="F4" s="17">
+      <c r="D5" s="110"/>
+      <c r="F5" s="13">
         <v>2</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G5" s="16">
         <v>8</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H5" s="24">
         <v>10</v>
       </c>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="6" t="s">
+      <c r="I5" s="101" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="102"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="55">
+      <c r="M5" s="95"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="59">
         <v>160</v>
       </c>
-      <c r="O4" s="38" t="s">
+      <c r="P5" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="18" t="s">
+      <c r="Q5" s="26"/>
+      <c r="R5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="S5" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="S4" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="T4" s="33" t="s">
+      <c r="T5" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="U4" s="72"/>
-      <c r="V4" s="4" t="s">
+      <c r="U5" s="41"/>
+      <c r="V5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="W4" s="36" t="s">
+      <c r="W5" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="X4" s="57" t="e" vm="2">
+      <c r="X5" s="46" t="e" vm="2">
         <f>_xlfn.IMAGE("https://m.media-amazon.com/images/S/aplus-media-library-service-media/717698ba-d013-49aa-9cef-37c054ebc751.__CR0,0,970,600_PT0_SX970_V1___.jpg")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Y4" s="82"/>
-      <c r="Z4" s="7">
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="4">
         <v>11</v>
       </c>
-      <c r="AA4" s="7">
+      <c r="AA5" s="4">
         <v>9</v>
       </c>
-      <c r="AB4" s="7" t="s">
+      <c r="AB5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="26">
+      <c r="AC5" s="21"/>
+      <c r="AD5" s="81">
         <v>9</v>
       </c>
-      <c r="AE4" s="44">
+      <c r="AE5" s="78">
         <v>1</v>
       </c>
-      <c r="AF4" s="48">
+      <c r="AF5" s="31">
         <v>1</v>
       </c>
-      <c r="AG4" s="46">
+      <c r="AG5" s="29">
         <v>1</v>
       </c>
-      <c r="AH4" s="19" t="s">
+      <c r="AH5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="AI4" s="19" t="s">
+      <c r="AI5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AJ4" s="30" t="s">
+      <c r="AJ5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="AK4" s="40" t="s">
+      <c r="AK5" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="AL4" s="31" t="s">
+      <c r="AL5" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="AM4" s="5"/>
+      <c r="AM5" s="3"/>
     </row>
-    <row r="5" spans="1:39" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67">
+    <row r="6" spans="1:39" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="37">
         <v>4</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B6" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="74"/>
-      <c r="F5" s="17">
+      <c r="C6" s="38"/>
+      <c r="D6" s="110"/>
+      <c r="F6" s="13">
         <v>5</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G6" s="16">
         <v>20</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H6" s="24">
         <v>8</v>
       </c>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="42" t="s">
+      <c r="I6" s="101" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="102"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="55">
+      <c r="M6" s="97"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="59">
         <v>133</v>
       </c>
-      <c r="O5" s="38" t="s">
+      <c r="P6" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="18" t="s">
+      <c r="Q6" s="26"/>
+      <c r="R6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="S6" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="S5" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="T5" s="33" t="s">
+      <c r="T6" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="U5" s="72"/>
-      <c r="V5" s="4" t="s">
+      <c r="U6" s="41"/>
+      <c r="V6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="W5" s="36" t="s">
+      <c r="W6" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="X5" s="57" t="e" vm="3">
+      <c r="X6" s="46" t="e" vm="3">
         <f>_xlfn.IMAGE("https://d28lcup14p4e72.cloudfront.net/203128/7592134/423FEC27-201C-4091-B185-F9E24A5EBFB9.png")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Y5" s="82"/>
-      <c r="Z5" s="7">
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="4">
         <v>26</v>
       </c>
-      <c r="AA5" s="7">
+      <c r="AA6" s="4">
         <v>26</v>
       </c>
-      <c r="AB5" s="7" t="s">
+      <c r="AB6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AC5" s="26"/>
-      <c r="AD5" s="26">
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="81">
         <v>16</v>
       </c>
-      <c r="AE5" s="44">
+      <c r="AE6" s="78">
         <v>2</v>
       </c>
-      <c r="AF5" s="48">
+      <c r="AF6" s="31">
         <v>2</v>
       </c>
-      <c r="AG5" s="46">
+      <c r="AG6" s="29">
         <v>2</v>
       </c>
-      <c r="AH5" s="19" t="s">
+      <c r="AH6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AI5" s="19" t="s">
+      <c r="AI6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AJ5" s="30" t="s">
+      <c r="AJ6" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="AK5" s="40" t="s">
+      <c r="AK6" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="AL5" s="31" t="s">
+      <c r="AL6" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="AM5" s="5"/>
+      <c r="AM6" s="3"/>
     </row>
-    <row r="6" spans="1:39" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="67">
+    <row r="7" spans="1:39" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="37">
         <v>5</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B7" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="74"/>
-      <c r="F6" s="17">
+      <c r="C7" s="38"/>
+      <c r="D7" s="110"/>
+      <c r="F7" s="13">
         <v>5</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G7" s="16">
         <v>20</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H7" s="24">
         <v>8</v>
       </c>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="42" t="s">
+      <c r="I7" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="104"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="55">
+      <c r="M7" s="97"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="59">
         <v>133</v>
       </c>
-      <c r="O6" s="38" t="s">
+      <c r="P7" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="18" t="s">
+      <c r="Q7" s="26"/>
+      <c r="R7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="S7" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="S6" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="T6" s="33" t="s">
+      <c r="T7" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="U6" s="72"/>
-      <c r="V6" s="4" t="s">
+      <c r="U7" s="41"/>
+      <c r="V7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="W6" s="36" t="s">
+      <c r="W7" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="X6" s="57" t="e" vm="4">
+      <c r="X7" s="46" t="e" vm="4">
         <f>_xlfn.IMAGE("https://ae01.alicdn.com/kf/Se12a486397794177a118e1ad3e610e678.jpg")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Y6" s="82"/>
-      <c r="Z6" s="7" t="s">
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AA6" s="7" t="s">
+      <c r="AA7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AB6" s="7" t="s">
+      <c r="AB7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AC6" s="26"/>
-      <c r="AD6" s="26">
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="81">
         <v>16</v>
       </c>
-      <c r="AE6" s="44">
+      <c r="AE7" s="78">
         <v>2</v>
       </c>
-      <c r="AF6" s="48">
+      <c r="AF7" s="31">
         <v>2</v>
       </c>
-      <c r="AG6" s="46">
+      <c r="AG7" s="29">
         <v>2</v>
       </c>
-      <c r="AH6" s="19" t="s">
+      <c r="AH7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AI6" s="19" t="s">
+      <c r="AI7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AJ6" s="30" t="s">
+      <c r="AJ7" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="AK6" s="40" t="s">
+      <c r="AK7" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="AL6" s="31" t="s">
+      <c r="AL7" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="AM6" s="5"/>
-    </row>
-    <row r="7" spans="1:39" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="67">
-        <v>6</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="74"/>
-      <c r="F7" s="17">
-        <v>5</v>
-      </c>
-      <c r="G7" s="20">
-        <v>13</v>
-      </c>
-      <c r="H7" s="32">
-        <v>7</v>
-      </c>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="79"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="55">
-        <v>133</v>
-      </c>
-      <c r="O7" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="53">
-        <v>3.3</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="S7" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="T7" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="U7" s="72"/>
-      <c r="V7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="W7" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="X7" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y7" s="82"/>
-      <c r="Z7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC7" s="26"/>
-      <c r="AD7" s="26">
-        <v>16</v>
-      </c>
-      <c r="AE7" s="44">
-        <v>2</v>
-      </c>
-      <c r="AF7" s="48">
-        <v>2</v>
-      </c>
-      <c r="AG7" s="46">
-        <v>2</v>
-      </c>
-      <c r="AH7" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI7" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ7" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK7" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL7" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM7" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="AM7" s="3"/>
     </row>
     <row r="8" spans="1:39" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="67">
+      <c r="A8" s="37">
+        <v>6</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="110"/>
+      <c r="F8" s="13">
+        <v>5</v>
+      </c>
+      <c r="G8" s="16">
+        <v>13</v>
+      </c>
+      <c r="H8" s="24">
         <v>7</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="I8" s="105" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="106"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="43"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="59">
+        <v>133</v>
+      </c>
+      <c r="P8" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="35">
+        <v>3.3</v>
+      </c>
+      <c r="S8" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="T8" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="41"/>
+      <c r="V8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="W8" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="X8" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y8" s="46"/>
+      <c r="Z8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="81">
+        <v>16</v>
+      </c>
+      <c r="AE8" s="78">
+        <v>2</v>
+      </c>
+      <c r="AF8" s="31">
+        <v>2</v>
+      </c>
+      <c r="AG8" s="29">
+        <v>2</v>
+      </c>
+      <c r="AH8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ8" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL8" s="89" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM8" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="37">
+        <v>7</v>
+      </c>
+      <c r="B9" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C8"/>
-      <c r="D8" s="73"/>
-      <c r="E8"/>
-      <c r="F8" s="17">
+      <c r="C9"/>
+      <c r="D9" s="111"/>
+      <c r="E9"/>
+      <c r="F9" s="13">
         <v>5</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G9" s="16">
         <v>14</v>
       </c>
-      <c r="H8" s="59">
+      <c r="H9" s="24">
         <v>7</v>
       </c>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="52" t="s">
+      <c r="I9" s="105" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="106"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="79"/>
-      <c r="M8" s="79"/>
-      <c r="N8" s="55">
+      <c r="M9" s="43"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="59">
         <v>133</v>
       </c>
-      <c r="O8" s="38" t="s">
+      <c r="P9" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="53">
+      <c r="Q9" s="26"/>
+      <c r="R9" s="35">
         <v>3.3</v>
       </c>
-      <c r="R8" s="4" t="s">
+      <c r="S9" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="S8" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="T8" s="33" t="s">
+      <c r="T9" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="U8" s="72"/>
-      <c r="V8" s="4" t="s">
+      <c r="U9" s="41"/>
+      <c r="V9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="W8" s="36" t="s">
+      <c r="W9" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="X8" s="57" t="e" vm="5">
+      <c r="X9" s="46" t="e" vm="5">
         <f>_xlfn.IMAGE("https://ae01.alicdn.com/kf/S727020357b8849c08a74ecc113f0aab9V.png")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Y8" s="82"/>
-      <c r="Z8" s="7">
+      <c r="Y9" s="46"/>
+      <c r="Z9" s="4">
         <v>29</v>
       </c>
-      <c r="AA8" s="7">
+      <c r="AA9" s="4">
         <v>29</v>
       </c>
-      <c r="AB8" s="7" t="s">
+      <c r="AB9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AC8" s="26"/>
-      <c r="AD8" s="26">
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="81">
         <v>16</v>
       </c>
-      <c r="AE8" s="58">
+      <c r="AE9" s="47">
         <v>2</v>
       </c>
-      <c r="AF8" s="48">
+      <c r="AF9" s="31">
         <v>2</v>
       </c>
-      <c r="AG8" s="46">
+      <c r="AG9" s="29">
         <v>2</v>
       </c>
-      <c r="AH8" s="19" t="s">
+      <c r="AH9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AI8" s="19" t="s">
+      <c r="AI9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AJ8" s="19" t="s">
+      <c r="AJ9" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="AK8" s="40" t="s">
+      <c r="AK9" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="AL8" s="31" t="s">
+      <c r="AL9" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="AM8" s="5"/>
+      <c r="AM9" s="3"/>
     </row>
-    <row r="9" spans="1:39" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="67">
+    <row r="10" spans="1:39" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="37">
         <v>8</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B10" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C9"/>
-      <c r="D9" s="73"/>
-      <c r="E9"/>
-      <c r="F9" s="17">
+      <c r="C10"/>
+      <c r="D10" s="111"/>
+      <c r="E10"/>
+      <c r="F10" s="13">
         <v>4</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G10" s="16">
         <v>9</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H10" s="24">
         <v>7</v>
       </c>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="52" t="s">
+      <c r="I10" s="105" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="106"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="55">
+      <c r="M10" s="43"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="59">
         <v>133</v>
       </c>
-      <c r="O9" s="38" t="s">
+      <c r="P10" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="53">
+      <c r="Q10" s="26"/>
+      <c r="R10" s="35">
         <v>3.3</v>
       </c>
-      <c r="R9" s="4" t="s">
+      <c r="S10" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="S9" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="T9" s="33" t="s">
+      <c r="T10" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="U9" s="72"/>
-      <c r="V9" s="4" t="s">
+      <c r="U10" s="41"/>
+      <c r="V10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="W9" s="36" t="s">
+      <c r="W10" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="X9" s="57" t="e" vm="6">
+      <c r="X10" s="46" t="e" vm="6">
         <f>_xlfn.IMAGE("https://ae01.alicdn.com/kf/S94e1d0dc296b43f1a55a1bc219a6e932h.png")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Y9" s="82"/>
-      <c r="Z9" s="7" t="s">
+      <c r="Y10" s="46"/>
+      <c r="Z10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AA9" s="7" t="s">
+      <c r="AA10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AB9" s="7" t="s">
+      <c r="AB10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AC9" s="26"/>
-      <c r="AD9" s="26">
+      <c r="AC10" s="21"/>
+      <c r="AD10" s="81">
         <v>16</v>
       </c>
-      <c r="AE9" s="44">
+      <c r="AE10" s="78">
         <v>2</v>
       </c>
-      <c r="AF9" s="48">
+      <c r="AF10" s="31">
         <v>2</v>
       </c>
-      <c r="AG9" s="46">
+      <c r="AG10" s="29">
         <v>2</v>
       </c>
-      <c r="AH9" s="19" t="s">
+      <c r="AH10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AI9" s="19" t="s">
+      <c r="AI10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AJ9" s="30" t="s">
+      <c r="AJ10" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="AK9" s="40" t="s">
+      <c r="AK10" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="AL9" s="31" t="s">
+      <c r="AL10" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="AM9" s="5"/>
+      <c r="AM10" s="3"/>
     </row>
-    <row r="10" spans="1:39" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="67">
+    <row r="11" spans="1:39" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="37">
         <v>9</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B11" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C10"/>
-      <c r="D10" s="73"/>
-      <c r="E10"/>
-      <c r="F10" s="17">
+      <c r="C11"/>
+      <c r="D11" s="111"/>
+      <c r="E11"/>
+      <c r="F11" s="13">
         <v>3</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G11" s="16">
         <v>9</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H11" s="24">
         <v>7</v>
       </c>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="52" t="s">
+      <c r="I11" s="105" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="106"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="79"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="55">
+      <c r="M11" s="43"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="59">
         <v>133</v>
       </c>
-      <c r="O10" s="38" t="s">
+      <c r="P11" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="53">
+      <c r="Q11" s="26"/>
+      <c r="R11" s="35">
         <v>3.3</v>
       </c>
-      <c r="R10" s="4" t="s">
+      <c r="S11" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="S10" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="T10" s="33" t="s">
+      <c r="T11" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="U10" s="72"/>
-      <c r="V10" s="4" t="s">
+      <c r="U11" s="41"/>
+      <c r="V11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="W10" s="36" t="s">
+      <c r="W11" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="X10" s="57" t="e" vm="7">
+      <c r="X11" s="46" t="e" vm="7">
         <f>_xlfn.IMAGE("https://ae01.alicdn.com/kf/Sbfea1c5534ef4ed2838f33ace9000c07L.jpg")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Y10" s="82"/>
-      <c r="Z10" s="7" t="s">
+      <c r="Y11" s="46"/>
+      <c r="Z11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AA10" s="7" t="s">
+      <c r="AA11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AB10" s="7" t="s">
+      <c r="AB11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AC10" s="26"/>
-      <c r="AD10" s="26">
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="81">
         <v>16</v>
       </c>
-      <c r="AE10" s="44">
+      <c r="AE11" s="78">
         <v>2</v>
       </c>
-      <c r="AF10" s="48">
+      <c r="AF11" s="31">
         <v>2</v>
       </c>
-      <c r="AG10" s="46">
+      <c r="AG11" s="29">
         <v>2</v>
       </c>
-      <c r="AH10" s="19" t="s">
+      <c r="AH11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AI10" s="19" t="s">
+      <c r="AI11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AJ10" s="30" t="s">
+      <c r="AJ11" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="AK10" s="40" t="s">
+      <c r="AK11" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="AL10" s="31" t="s">
+      <c r="AL11" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="AM10" s="5"/>
-    </row>
-    <row r="11" spans="1:39" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="67">
-        <v>10</v>
-      </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="71"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="72"/>
-      <c r="N11" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="72"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="58"/>
-      <c r="Y11" s="83"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="26"/>
-      <c r="AD11" s="26"/>
-      <c r="AE11" s="44"/>
-      <c r="AF11" s="48"/>
-      <c r="AG11" s="46"/>
-      <c r="AH11" s="19"/>
-      <c r="AI11" s="19"/>
-      <c r="AJ11" s="30"/>
-      <c r="AK11" s="40"/>
-      <c r="AL11" s="35"/>
-      <c r="AM11" s="5"/>
+      <c r="AM11" s="3"/>
     </row>
     <row r="12" spans="1:39" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="67">
-        <v>11</v>
-      </c>
-      <c r="B12" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="70" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="75"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="72"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="83"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="26"/>
-      <c r="AD12" s="26"/>
-      <c r="AE12" s="44"/>
-      <c r="AF12" s="48"/>
-      <c r="AG12" s="46"/>
-      <c r="AH12" s="19"/>
-      <c r="AI12" s="19"/>
-      <c r="AJ12" s="30"/>
-      <c r="AK12" s="40"/>
-      <c r="AL12" s="35"/>
-      <c r="AM12" s="5"/>
+      <c r="A12" s="37">
+        <v>10</v>
+      </c>
+      <c r="B12" s="34"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="40"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="76"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="41"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="76"/>
+      <c r="X12" s="47"/>
+      <c r="Y12" s="47"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="81"/>
+      <c r="AE12" s="78"/>
+      <c r="AF12" s="31"/>
+      <c r="AG12" s="29"/>
+      <c r="AH12" s="15"/>
+      <c r="AI12" s="15"/>
+      <c r="AJ12" s="23"/>
+      <c r="AK12" s="93"/>
+      <c r="AL12" s="90"/>
+      <c r="AM12" s="3"/>
     </row>
     <row r="13" spans="1:39" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="67">
-        <v>12</v>
-      </c>
-      <c r="B13" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="70" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="75"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="72"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="58"/>
-      <c r="Y13" s="83"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="26"/>
-      <c r="AD13" s="26"/>
-      <c r="AE13" s="44"/>
-      <c r="AF13" s="48"/>
-      <c r="AG13" s="46"/>
-      <c r="AH13" s="19"/>
-      <c r="AI13" s="19"/>
-      <c r="AJ13" s="30"/>
-      <c r="AK13" s="40"/>
-      <c r="AL13" s="35"/>
-      <c r="AM13" s="5"/>
+      <c r="A13" s="37">
+        <v>11</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="112"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="76"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="76"/>
+      <c r="X13" s="47"/>
+      <c r="Y13" s="47"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="81"/>
+      <c r="AE13" s="78"/>
+      <c r="AF13" s="31"/>
+      <c r="AG13" s="29"/>
+      <c r="AH13" s="15"/>
+      <c r="AI13" s="15"/>
+      <c r="AJ13" s="23"/>
+      <c r="AK13" s="93"/>
+      <c r="AL13" s="90"/>
+      <c r="AM13" s="3"/>
     </row>
     <row r="14" spans="1:39" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="67">
-        <v>13</v>
-      </c>
-      <c r="B14" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="75"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="72"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="58"/>
-      <c r="Y14" s="83"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="26"/>
-      <c r="AD14" s="26"/>
-      <c r="AE14" s="44"/>
-      <c r="AF14" s="48"/>
-      <c r="AG14" s="46"/>
-      <c r="AH14" s="19"/>
-      <c r="AI14" s="19"/>
-      <c r="AJ14" s="30"/>
-      <c r="AK14" s="40"/>
-      <c r="AL14" s="35"/>
-      <c r="AM14" s="5"/>
+      <c r="A14" s="37">
+        <v>12</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="112"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="76"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="76"/>
+      <c r="X14" s="47"/>
+      <c r="Y14" s="47"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="81"/>
+      <c r="AE14" s="78"/>
+      <c r="AF14" s="31"/>
+      <c r="AG14" s="29"/>
+      <c r="AH14" s="15"/>
+      <c r="AI14" s="15"/>
+      <c r="AJ14" s="23"/>
+      <c r="AK14" s="93"/>
+      <c r="AL14" s="90"/>
+      <c r="AM14" s="3"/>
     </row>
     <row r="15" spans="1:39" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="67">
-        <v>14</v>
-      </c>
-      <c r="B15" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="70" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="75"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="72"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="58"/>
-      <c r="Y15" s="83"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="26"/>
-      <c r="AD15" s="26"/>
-      <c r="AE15" s="44"/>
-      <c r="AF15" s="48"/>
-      <c r="AG15" s="46"/>
-      <c r="AH15" s="19"/>
-      <c r="AI15" s="19"/>
-      <c r="AJ15" s="30"/>
-      <c r="AK15" s="40"/>
-      <c r="AL15" s="35"/>
-      <c r="AM15" s="5"/>
+      <c r="A15" s="37">
+        <v>13</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="112"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="76"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="76"/>
+      <c r="X15" s="47"/>
+      <c r="Y15" s="47"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="21"/>
+      <c r="AD15" s="81"/>
+      <c r="AE15" s="78"/>
+      <c r="AF15" s="31"/>
+      <c r="AG15" s="29"/>
+      <c r="AH15" s="15"/>
+      <c r="AI15" s="15"/>
+      <c r="AJ15" s="23"/>
+      <c r="AK15" s="93"/>
+      <c r="AL15" s="90"/>
+      <c r="AM15" s="3"/>
     </row>
     <row r="16" spans="1:39" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="67">
+      <c r="A16" s="37">
+        <v>14</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="112"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="76"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="76"/>
+      <c r="X16" s="47"/>
+      <c r="Y16" s="47"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="81"/>
+      <c r="AE16" s="78"/>
+      <c r="AF16" s="31"/>
+      <c r="AG16" s="29"/>
+      <c r="AH16" s="15"/>
+      <c r="AI16" s="15"/>
+      <c r="AJ16" s="23"/>
+      <c r="AK16" s="93"/>
+      <c r="AL16" s="90"/>
+      <c r="AM16" s="3"/>
+    </row>
+    <row r="17" spans="1:39" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="37">
         <v>15</v>
       </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="33"/>
-      <c r="U16" s="72"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="58"/>
-      <c r="Y16" s="83"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="26"/>
-      <c r="AD16" s="26"/>
-      <c r="AE16" s="44"/>
-      <c r="AF16" s="48"/>
-      <c r="AG16" s="46"/>
-      <c r="AH16" s="19"/>
-      <c r="AI16" s="19"/>
-      <c r="AJ16" s="30"/>
-      <c r="AK16" s="40"/>
-      <c r="AL16" s="35"/>
-      <c r="AM16" s="5"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="76"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="76"/>
+      <c r="X17" s="47"/>
+      <c r="Y17" s="47"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="21"/>
+      <c r="AD17" s="81"/>
+      <c r="AE17" s="78"/>
+      <c r="AF17" s="31"/>
+      <c r="AG17" s="29"/>
+      <c r="AH17" s="15"/>
+      <c r="AI17" s="15"/>
+      <c r="AJ17" s="23"/>
+      <c r="AK17" s="93"/>
+      <c r="AL17" s="90"/>
+      <c r="AM17" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A2:B2 C2:E9 F2:AM16 B3:B10 A3:A16 C11:E16 B12:B16">
-    <cfRule type="endsWith" dxfId="4" priority="1" operator="endsWith" text="?">
-      <formula>RIGHT(A2,LEN("?"))="?"</formula>
+  <conditionalFormatting sqref="A3:B3 C3:E10 B4:B11 A4:A17 C12:E17 B13:B17 F3:AM17">
+    <cfRule type="endsWith" dxfId="5" priority="1" operator="endsWith" text="?">
+      <formula>RIGHT(A3,LEN("?"))="?"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE2:AG16">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+  <conditionalFormatting sqref="AE3:AG17">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE2:AK16">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",AE2)))</formula>
+  <conditionalFormatting sqref="AE3:AK17">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",AE3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="J">
-      <formula>NOT(ISERROR(SEARCH("J",AE2)))</formula>
+    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="J">
+      <formula>NOT(ISERROR(SEARCH("J",AE3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="N">
-      <formula>NOT(ISERROR(SEARCH("N",AE2)))</formula>
+    <cfRule type="containsText" dxfId="1" priority="8" operator="containsText" text="N">
+      <formula>NOT(ISERROR(SEARCH("N",AE3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH2:AK16" xr:uid="{71C80AAF-D900-484D-9411-9896D880E474}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AK17" xr:uid="{71C80AAF-D900-484D-9411-9896D880E474}">
       <formula1>"J,N"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2:AG16 AE17:AE1048576" xr:uid="{326930F3-3C77-4222-8E18-BDC5A15AE348}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE3:AG17" xr:uid="{326930F3-3C77-4222-8E18-BDC5A15AE348}">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="X2" r:id="rId1" display="https://golem.hu/pic/pro_micro_pinout.jpg" xr:uid="{F40B2BFB-690D-47A4-BCA3-04912A7BDCD3}"/>
-    <hyperlink ref="X3" r:id="rId2" display="https://golem.hu/pic/pro_micro_pinout.jpg" xr:uid="{E1ADFB23-99E1-435B-BB91-5928005E1B89}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{E4E7BF4F-FBB4-480E-BE36-3136F18CDBE4}"/>
-    <hyperlink ref="B3" r:id="rId4" display="Pro Micro 5V USB-C" xr:uid="{0691AABD-C38E-4C62-A426-FE238DA614FD}"/>
-    <hyperlink ref="B2" r:id="rId5" display="Pro Micro 5V" xr:uid="{1B48C31D-6990-4F5A-946B-DCCFC4DCC112}"/>
-    <hyperlink ref="X4" r:id="rId6" display="https://m.media-amazon.com/images/S/aplus-media-library-service-media/717698ba-d013-49aa-9cef-37c054ebc751.__CR0,0,970,600_PT0_SX970_V1___.jpg" xr:uid="{38E8DE60-58C2-446B-80B7-E7F42DF2960E}"/>
-    <hyperlink ref="B5" r:id="rId7" xr:uid="{96678FC3-06BA-4507-A86D-393AA013A24C}"/>
-    <hyperlink ref="X5" r:id="rId8" display="https://d28lcup14p4e72.cloudfront.net/203128/7592134/423FEC27-201C-4091-B185-F9E24A5EBFB9.png" xr:uid="{360D3A20-F627-4086-B2CC-3CDE18615C9C}"/>
-    <hyperlink ref="K2" r:id="rId9" xr:uid="{B023DFA2-A31C-41E7-A031-736EC4FF4997}"/>
-    <hyperlink ref="K3" r:id="rId10" xr:uid="{75E569E3-C2AE-467C-AF1F-A89BC3A489E3}"/>
-    <hyperlink ref="K4" r:id="rId11" xr:uid="{AC160EEF-988F-47BC-9CB2-BB97AABF8FEF}"/>
-    <hyperlink ref="K5" r:id="rId12" xr:uid="{EED5D12B-84C8-4F37-BB02-B8B2ADE5C154}"/>
-    <hyperlink ref="B6" r:id="rId13" display="RP2040 Pico USB-C" xr:uid="{9CC5CE34-8621-43F1-A4B1-E9942AF81236}"/>
-    <hyperlink ref="K6" r:id="rId14" xr:uid="{F97422A6-BD5D-4FAA-B988-3412689B0AD6}"/>
-    <hyperlink ref="X6" r:id="rId15" display="https://ae01.alicdn.com/kf/Se12a486397794177a118e1ad3e610e678.jpg" xr:uid="{74E8623F-A294-4601-BD6D-185B0308AA42}"/>
-    <hyperlink ref="B7" r:id="rId16" display="https://de.aliexpress.com/item/1005006130019224.html" xr:uid="{E6D6B293-7821-4164-B39C-2E6C11A9C0B3}"/>
-    <hyperlink ref="K7" r:id="rId17" xr:uid="{AFE0EF98-0F47-438D-81F4-8BE8CB369B1E}"/>
-    <hyperlink ref="C12" r:id="rId18" xr:uid="{83439284-8A4C-4AA5-B28C-263D9825C31D}"/>
-    <hyperlink ref="X7" r:id="rId19" display="https://ae01.alicdn.com/kf/S0fb5f9353ac14ab39286c5280e17fae4b.jpg" xr:uid="{C0300B4D-1507-4E17-B5D5-0CF493642E35}"/>
-    <hyperlink ref="B8" r:id="rId20" display="https://de.aliexpress.com/item/1005006097129434.html" xr:uid="{0834673F-CFD8-47EA-BFA7-7277C7FFAB77}"/>
-    <hyperlink ref="K8" r:id="rId21" xr:uid="{7A8BBDD5-F0D9-4707-A5AD-B665CE650F13}"/>
-    <hyperlink ref="X8" r:id="rId22" display="https://ae01.alicdn.com/kf/S727020357b8849c08a74ecc113f0aab9V.png" xr:uid="{DF54828D-21B3-4926-8D11-63B0C271422A}"/>
-    <hyperlink ref="B9" r:id="rId23" display="https://de.aliexpress.com/item/1005005834887898.html" xr:uid="{F14BAD25-324F-4705-B7D1-5B054E74C25F}"/>
-    <hyperlink ref="K9" r:id="rId24" xr:uid="{2FD3A942-939D-4306-BD5E-2480361CAD91}"/>
-    <hyperlink ref="X9" r:id="rId25" display="https://ae01.alicdn.com/kf/S94e1d0dc296b43f1a55a1bc219a6e932h.png" xr:uid="{ADFC7964-F144-4571-AFAA-AE45D9F63A7A}"/>
-    <hyperlink ref="B10" r:id="rId26" display="RP2040 Zero" xr:uid="{0C2F94BD-AFB0-4A90-A375-42B0A9C9A6D1}"/>
-    <hyperlink ref="K10" r:id="rId27" xr:uid="{C700AEA8-2FF4-4D14-9A96-8929DA30DD1B}"/>
-    <hyperlink ref="X10" r:id="rId28" display="https://ae01.alicdn.com/kf/Sbfea1c5534ef4ed2838f33ace9000c07L.jpg" xr:uid="{1D3AF803-ACD3-4BB5-9584-51CB4FF7FBEB}"/>
-    <hyperlink ref="C13" r:id="rId29" xr:uid="{D9345D44-2E37-4573-A18B-711CF6AA6807}"/>
-    <hyperlink ref="C14" r:id="rId30" xr:uid="{151567A2-5746-463A-9F85-E3B464F76ECC}"/>
-    <hyperlink ref="C15" r:id="rId31" xr:uid="{8BF53116-C1BD-44D1-A0CC-DBD9D88516E8}"/>
+    <hyperlink ref="X3" r:id="rId1" display="https://golem.hu/pic/pro_micro_pinout.jpg" xr:uid="{F40B2BFB-690D-47A4-BCA3-04912A7BDCD3}"/>
+    <hyperlink ref="X4" r:id="rId2" display="https://golem.hu/pic/pro_micro_pinout.jpg" xr:uid="{E1ADFB23-99E1-435B-BB91-5928005E1B89}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{E4E7BF4F-FBB4-480E-BE36-3136F18CDBE4}"/>
+    <hyperlink ref="B4" r:id="rId4" display="Pro Micro 5V USB-C" xr:uid="{0691AABD-C38E-4C62-A426-FE238DA614FD}"/>
+    <hyperlink ref="B3" r:id="rId5" display="Pro Micro 5V" xr:uid="{1B48C31D-6990-4F5A-946B-DCCFC4DCC112}"/>
+    <hyperlink ref="X5" r:id="rId6" display="https://m.media-amazon.com/images/S/aplus-media-library-service-media/717698ba-d013-49aa-9cef-37c054ebc751.__CR0,0,970,600_PT0_SX970_V1___.jpg" xr:uid="{38E8DE60-58C2-446B-80B7-E7F42DF2960E}"/>
+    <hyperlink ref="B6" r:id="rId7" xr:uid="{96678FC3-06BA-4507-A86D-393AA013A24C}"/>
+    <hyperlink ref="X6" r:id="rId8" display="https://d28lcup14p4e72.cloudfront.net/203128/7592134/423FEC27-201C-4091-B185-F9E24A5EBFB9.png" xr:uid="{360D3A20-F627-4086-B2CC-3CDE18615C9C}"/>
+    <hyperlink ref="L3" r:id="rId9" xr:uid="{B023DFA2-A31C-41E7-A031-736EC4FF4997}"/>
+    <hyperlink ref="L4" r:id="rId10" xr:uid="{75E569E3-C2AE-467C-AF1F-A89BC3A489E3}"/>
+    <hyperlink ref="L5" r:id="rId11" xr:uid="{AC160EEF-988F-47BC-9CB2-BB97AABF8FEF}"/>
+    <hyperlink ref="L6" r:id="rId12" xr:uid="{EED5D12B-84C8-4F37-BB02-B8B2ADE5C154}"/>
+    <hyperlink ref="B7" r:id="rId13" display="RP2040 Pico USB-C" xr:uid="{9CC5CE34-8621-43F1-A4B1-E9942AF81236}"/>
+    <hyperlink ref="L7" r:id="rId14" xr:uid="{F97422A6-BD5D-4FAA-B988-3412689B0AD6}"/>
+    <hyperlink ref="X7" r:id="rId15" display="https://ae01.alicdn.com/kf/Se12a486397794177a118e1ad3e610e678.jpg" xr:uid="{74E8623F-A294-4601-BD6D-185B0308AA42}"/>
+    <hyperlink ref="B8" r:id="rId16" display="https://de.aliexpress.com/item/1005006130019224.html" xr:uid="{E6D6B293-7821-4164-B39C-2E6C11A9C0B3}"/>
+    <hyperlink ref="L8" r:id="rId17" xr:uid="{AFE0EF98-0F47-438D-81F4-8BE8CB369B1E}"/>
+    <hyperlink ref="C13" r:id="rId18" xr:uid="{83439284-8A4C-4AA5-B28C-263D9825C31D}"/>
+    <hyperlink ref="X8" r:id="rId19" display="https://ae01.alicdn.com/kf/S0fb5f9353ac14ab39286c5280e17fae4b.jpg" xr:uid="{C0300B4D-1507-4E17-B5D5-0CF493642E35}"/>
+    <hyperlink ref="B9" r:id="rId20" display="https://de.aliexpress.com/item/1005006097129434.html" xr:uid="{0834673F-CFD8-47EA-BFA7-7277C7FFAB77}"/>
+    <hyperlink ref="L9" r:id="rId21" xr:uid="{7A8BBDD5-F0D9-4707-A5AD-B665CE650F13}"/>
+    <hyperlink ref="X9" r:id="rId22" display="https://ae01.alicdn.com/kf/S727020357b8849c08a74ecc113f0aab9V.png" xr:uid="{DF54828D-21B3-4926-8D11-63B0C271422A}"/>
+    <hyperlink ref="B10" r:id="rId23" display="https://de.aliexpress.com/item/1005005834887898.html" xr:uid="{F14BAD25-324F-4705-B7D1-5B054E74C25F}"/>
+    <hyperlink ref="L10" r:id="rId24" xr:uid="{2FD3A942-939D-4306-BD5E-2480361CAD91}"/>
+    <hyperlink ref="X10" r:id="rId25" display="https://ae01.alicdn.com/kf/S94e1d0dc296b43f1a55a1bc219a6e932h.png" xr:uid="{ADFC7964-F144-4571-AFAA-AE45D9F63A7A}"/>
+    <hyperlink ref="B11" r:id="rId26" display="RP2040 Zero" xr:uid="{0C2F94BD-AFB0-4A90-A375-42B0A9C9A6D1}"/>
+    <hyperlink ref="L11" r:id="rId27" xr:uid="{C700AEA8-2FF4-4D14-9A96-8929DA30DD1B}"/>
+    <hyperlink ref="X11" r:id="rId28" display="https://ae01.alicdn.com/kf/Sbfea1c5534ef4ed2838f33ace9000c07L.jpg" xr:uid="{1D3AF803-ACD3-4BB5-9584-51CB4FF7FBEB}"/>
+    <hyperlink ref="C14" r:id="rId29" xr:uid="{D9345D44-2E37-4573-A18B-711CF6AA6807}"/>
+    <hyperlink ref="C15" r:id="rId30" xr:uid="{151567A2-5746-463A-9F85-E3B464F76ECC}"/>
+    <hyperlink ref="C16" r:id="rId31" xr:uid="{8BF53116-C1BD-44D1-A0CC-DBD9D88516E8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId32"/>

--- a/DevBoardList.xlsx
+++ b/DevBoardList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dokumente_HDD\## TO SORT\Basteln\Projekte\DevBoardList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C86462-B0F0-498B-B809-E2EC22C20663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DD303D-1A92-4DDD-84E0-E2C5A65C3C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="162" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="162" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="107">
   <si>
     <t>ATmega32U4</t>
   </si>
@@ -459,6 +459,18 @@
   </si>
   <si>
     <t>BOARD</t>
+  </si>
+  <si>
+    <t>https://www.seeedstudio.com/XIAO-RP2040-v1-0-p-5026.html</t>
+  </si>
+  <si>
+    <t>https://de.aliexpress.com/item/1005003928558306.html</t>
+  </si>
+  <si>
+    <t>https://www.tomshardware.com/best-picks/best-rp2040-boards</t>
+  </si>
+  <si>
+    <t>https://golem.hu/guide/controllers/</t>
   </si>
 </sst>
 </file>
@@ -566,7 +578,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -1094,13 +1106,124 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </left>
+      <right style="medium">
+        <color theme="1" tint="0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1" tint="0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.14993743705557422"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.14993743705557422"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.14993743705557422"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1241,7 +1364,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1265,8 +1388,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1288,12 +1411,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1334,11 +1453,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1398,7 +1515,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1410,6 +1526,111 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1419,24 +1640,6 @@
     <cellStyle name="Währung" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="46">
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </left>
-        <right style="thick">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </bottom>
-        <vertical/>
-      </border>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1471,13 +1674,14 @@
       </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="20" formatCode="dd/\ mmm\ yy"/>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="1" tint="0.14999847407452621"/>
         </left>
-        <right style="thick">
-          <color indexed="64"/>
+        <right style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
         </right>
         <top style="thin">
           <color theme="1" tint="0.14999847407452621"/>
@@ -1485,8 +1689,31 @@
         <bottom style="thin">
           <color theme="1" tint="0.14999847407452621"/>
         </bottom>
+        <vertical style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="20" formatCode="dd/\ mmm\ yy"/>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color theme="1" tint="0.14996795556505021"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
         <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1506,148 +1733,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </left>
-        <right style="thick">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </bottom>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </left>
-        <right style="thick">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </bottom>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0&quot; Pin&quot;"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </left>
-        <right style="thick">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="20" formatCode="dd/\ mmm\ yy"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="20" formatCode="dd/\ mmm\ yy"/>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="20" formatCode="dd/\ mmm\ yy"/>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color theme="1" tint="0.14996795556505021"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </bottom>
-        <vertical/>
       </border>
     </dxf>
     <dxf>
@@ -1771,6 +1856,24 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1886,6 +1989,24 @@
         <left style="thin">
           <color theme="1" tint="0.14999847407452621"/>
         </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </left>
         <right style="thin">
           <color theme="1" tint="0.14999847407452621"/>
         </right>
@@ -1942,6 +2063,25 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="166" formatCode="0&quot;V&quot;"/>
       <alignment horizontal="left" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -2013,6 +2153,23 @@
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
           <color theme="1" tint="0.14999847407452621"/>
         </right>
         <top style="thin">
@@ -2052,6 +2209,44 @@
         <left style="thin">
           <color theme="1" tint="0.14999847407452621"/>
         </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0&quot; Pin&quot;"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="20" formatCode="dd/\ mmm\ yy"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </left>
         <right/>
         <top style="thin">
           <color theme="1" tint="0.14999847407452621"/>
@@ -2134,6 +2329,24 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+        <vertical/>
       </border>
     </dxf>
     <dxf>
@@ -2213,6 +2426,14 @@
         <bottom style="thick">
           <color theme="1" tint="0.14996795556505021"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -3237,50 +3458,50 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E0176607-7D05-4F53-9667-39A4A03C5F12}" name="Tabelle1" displayName="Tabelle1" ref="A2:AM17" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="45">
-  <autoFilter ref="A2:AM17" xr:uid="{E0176607-7D05-4F53-9667-39A4A03C5F12}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E0176607-7D05-4F53-9667-39A4A03C5F12}" name="Tabelle1" displayName="Tabelle1" ref="A2:AM19" totalsRowShown="0" headerRowDxfId="45" headerRowBorderDxfId="44">
+  <autoFilter ref="A2:AM19" xr:uid="{E0176607-7D05-4F53-9667-39A4A03C5F12}"/>
   <tableColumns count="39">
-    <tableColumn id="10" xr3:uid="{06F3FDFB-D908-4506-9F73-B1950B5432B2}" name="id &lt;inv&gt;" dataDxfId="44"/>
-    <tableColumn id="1" xr3:uid="{50E4B843-3F3C-48AB-9A11-A8AEAE98C688}" name="name" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{BDC1F6FD-F5BE-4BDC-A530-120CF1EDB073}" name="image &lt;value of id&gt;" dataDxfId="42">
+    <tableColumn id="10" xr3:uid="{06F3FDFB-D908-4506-9F73-B1950B5432B2}" name="id &lt;inv&gt;" dataDxfId="43"/>
+    <tableColumn id="1" xr3:uid="{50E4B843-3F3C-48AB-9A11-A8AEAE98C688}" name="name" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{BDC1F6FD-F5BE-4BDC-A530-120CF1EDB073}" name="image &lt;value of id&gt;" dataDxfId="41">
       <calculatedColumnFormula>_xlfn.IMAGE("https://m.media-amazon.com/images/I/71A63A5j3bL._AC_UF894,1000_QL80_.jpg")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{7FA666B0-D25B-4777-954C-48E52AB85516}" name="imageSrc &lt;inv&gt;" dataDxfId="0" dataCellStyle="Link"/>
-    <tableColumn id="13" xr3:uid="{E026474B-EDC8-4862-82FC-4A495BD8B4BE}" name="link" dataDxfId="41" dataCellStyle="Link"/>
-    <tableColumn id="27" xr3:uid="{B4944D22-4754-4CF0-83EE-1AC37F1784DC}" name="price" dataDxfId="40" dataCellStyle="Währung"/>
-    <tableColumn id="19" xr3:uid="{64BA4BF5-1FDE-4732-B0F4-123756491263}" name="dimX" dataDxfId="39"/>
-    <tableColumn id="21" xr3:uid="{E38615C3-81C4-47AD-8AC2-915CF0103F19}" name="dimY" dataDxfId="38"/>
-    <tableColumn id="7" xr3:uid="{65EE9DA7-A351-431B-AAE5-4B1E8D342B2C}" name="connector" dataDxfId="11"/>
-    <tableColumn id="22" xr3:uid="{55C0C826-652F-4A6B-83E3-CCDB9601F342}" name="docs _x000a_&lt;value of id&gt;" dataDxfId="37"/>
-    <tableColumn id="28" xr3:uid="{CAF68D57-9DD5-418C-9725-8DDA560DAC4E}" name="docsSrc &lt;inv&gt;" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{587542E2-02C3-42C4-B632-57BFD8B68620}" name="chip" dataDxfId="36" dataCellStyle="Währung"/>
-    <tableColumn id="31" xr3:uid="{E487950B-DA55-4A5A-AA67-C3DE24DF1FC2}" name="cDocs _x000a_&lt;value of controller&gt;" dataDxfId="35"/>
-    <tableColumn id="33" xr3:uid="{0B976E26-FBA6-46F9-A18C-6EF982C84981}" name="cDocsSrc &lt;inv&gt;" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{63C6D974-BDD1-4CA5-BB22-CAB3EEB46821}" name="clock" dataDxfId="34"/>
-    <tableColumn id="30" xr3:uid="{36D840AA-FA68-4B34-86C5-8F75852AECBE}" name="coreCnt" dataDxfId="33"/>
-    <tableColumn id="34" xr3:uid="{63D7B924-8924-40BF-A9EB-4E62ADBF30B1}" name="coreBit" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{74F9564F-F54A-4208-BF89-F5B2185537B4}" name="voltOp" dataDxfId="31"/>
-    <tableColumn id="24" xr3:uid="{D241F3B3-FAE1-413D-881F-5705D2DF3FA7}" name="voltIn" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{8B0B2852-1E23-43D9-8CCF-612E7B5EAC8E}" name="sizeFlash" dataDxfId="30"/>
-    <tableColumn id="35" xr3:uid="{250AF3D6-1439-4360-AC53-5AFE236521E6}" name="sizeFlashFree" dataDxfId="29"/>
-    <tableColumn id="15" xr3:uid="{CE6EB7FE-073F-47E9-8438-3EA045DA63E9}" name="sizeRAM" dataDxfId="28"/>
-    <tableColumn id="16" xr3:uid="{71571936-9667-47A6-8DEC-607A17E73107}" name="sizeEPROM" dataDxfId="9"/>
-    <tableColumn id="20" xr3:uid="{7FB941BC-C54B-4F39-9306-34F9620C7AEC}" name="pinout &lt;value of id&gt;" dataDxfId="27"/>
-    <tableColumn id="38" xr3:uid="{18A4EFC4-8BA0-438D-A1F7-FFF1849C3013}" name="pinoutSrc &lt;inv&gt;" dataDxfId="26"/>
-    <tableColumn id="23" xr3:uid="{AC87607F-8794-435F-BC6D-EDBFEA907F02}" name="cntGPIO" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{ECC27E07-5954-4DED-8238-0ED81C119069}" name="cntDigital" dataDxfId="24"/>
-    <tableColumn id="18" xr3:uid="{B8D9FA3A-1ED0-4F23-A9F0-AC177FD12812}" name="cntAnalog" dataDxfId="23"/>
-    <tableColumn id="39" xr3:uid="{5B23A253-6588-47DA-BC8E-D2C1D9B7D92B}" name="analogBit" dataDxfId="22"/>
-    <tableColumn id="17" xr3:uid="{CD2A34BE-45F2-4510-8EF9-83EDDFEE035A}" name="cntPWM" dataDxfId="8"/>
-    <tableColumn id="29" xr3:uid="{10C0EFDD-8FEE-41FA-A6DA-8FE3EA458520}" name="laneUART" dataDxfId="21"/>
-    <tableColumn id="37" xr3:uid="{8718023C-E89D-479D-8DDB-53B56190C652}" name="langeI2C" dataDxfId="20"/>
-    <tableColumn id="36" xr3:uid="{0A52E200-5A7E-4345-B763-2510161760F2}" name="laneSPI" dataDxfId="19"/>
-    <tableColumn id="25" xr3:uid="{1C1B65FF-0397-4A72-B697-BEE8A7130ACE}" name="WLAN &lt;protocol&gt;" dataDxfId="18"/>
-    <tableColumn id="26" xr3:uid="{CE794EDB-081C-414E-8975-5B0FBFC905EE}" name="BT &lt;protocol&gt;" dataDxfId="17"/>
-    <tableColumn id="14" xr3:uid="{D2D192E4-D4BC-456C-AFD4-2AC6C192B221}" name="HID &lt;protocol&gt;" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{7FA666B0-D25B-4777-954C-48E52AB85516}" name="imageSrc &lt;inv&gt;" dataDxfId="40" dataCellStyle="Link"/>
+    <tableColumn id="13" xr3:uid="{E026474B-EDC8-4862-82FC-4A495BD8B4BE}" name="link" dataDxfId="39" dataCellStyle="Link"/>
+    <tableColumn id="27" xr3:uid="{B4944D22-4754-4CF0-83EE-1AC37F1784DC}" name="price" dataDxfId="38" dataCellStyle="Währung"/>
+    <tableColumn id="19" xr3:uid="{64BA4BF5-1FDE-4732-B0F4-123756491263}" name="dimX" dataDxfId="37"/>
+    <tableColumn id="21" xr3:uid="{E38615C3-81C4-47AD-8AC2-915CF0103F19}" name="dimY" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{65EE9DA7-A351-431B-AAE5-4B1E8D342B2C}" name="connector" dataDxfId="35"/>
+    <tableColumn id="22" xr3:uid="{55C0C826-652F-4A6B-83E3-CCDB9601F342}" name="docs _x000a_&lt;value of id&gt;" dataDxfId="34"/>
+    <tableColumn id="28" xr3:uid="{CAF68D57-9DD5-418C-9725-8DDA560DAC4E}" name="docsSrc &lt;inv&gt;" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{587542E2-02C3-42C4-B632-57BFD8B68620}" name="chip" dataDxfId="32" dataCellStyle="Währung"/>
+    <tableColumn id="31" xr3:uid="{E487950B-DA55-4A5A-AA67-C3DE24DF1FC2}" name="cDocs _x000a_&lt;value of controller&gt;" dataDxfId="31"/>
+    <tableColumn id="33" xr3:uid="{0B976E26-FBA6-46F9-A18C-6EF982C84981}" name="cDocsSrc &lt;inv&gt;" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{63C6D974-BDD1-4CA5-BB22-CAB3EEB46821}" name="clock" dataDxfId="29"/>
+    <tableColumn id="30" xr3:uid="{36D840AA-FA68-4B34-86C5-8F75852AECBE}" name="coreCnt" dataDxfId="28"/>
+    <tableColumn id="34" xr3:uid="{63D7B924-8924-40BF-A9EB-4E62ADBF30B1}" name="coreBit" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{74F9564F-F54A-4208-BF89-F5B2185537B4}" name="voltOp" dataDxfId="26"/>
+    <tableColumn id="24" xr3:uid="{D241F3B3-FAE1-413D-881F-5705D2DF3FA7}" name="voltIn" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{8B0B2852-1E23-43D9-8CCF-612E7B5EAC8E}" name="sizeFlash" dataDxfId="24"/>
+    <tableColumn id="35" xr3:uid="{250AF3D6-1439-4360-AC53-5AFE236521E6}" name="sizeFlashFree" dataDxfId="23"/>
+    <tableColumn id="15" xr3:uid="{CE6EB7FE-073F-47E9-8438-3EA045DA63E9}" name="sizeRAM" dataDxfId="22"/>
+    <tableColumn id="16" xr3:uid="{71571936-9667-47A6-8DEC-607A17E73107}" name="sizeEPROM" dataDxfId="21"/>
+    <tableColumn id="20" xr3:uid="{7FB941BC-C54B-4F39-9306-34F9620C7AEC}" name="pinout &lt;value of id&gt;" dataDxfId="20"/>
+    <tableColumn id="38" xr3:uid="{18A4EFC4-8BA0-438D-A1F7-FFF1849C3013}" name="pinoutSrc &lt;inv&gt;" dataDxfId="19"/>
+    <tableColumn id="23" xr3:uid="{AC87607F-8794-435F-BC6D-EDBFEA907F02}" name="cntGPIO" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{ECC27E07-5954-4DED-8238-0ED81C119069}" name="cntDigital" dataDxfId="17"/>
+    <tableColumn id="18" xr3:uid="{B8D9FA3A-1ED0-4F23-A9F0-AC177FD12812}" name="cntAnalog" dataDxfId="16"/>
+    <tableColumn id="39" xr3:uid="{5B23A253-6588-47DA-BC8E-D2C1D9B7D92B}" name="analogBit" dataDxfId="15"/>
+    <tableColumn id="17" xr3:uid="{CD2A34BE-45F2-4510-8EF9-83EDDFEE035A}" name="cntPWM" dataDxfId="14"/>
+    <tableColumn id="29" xr3:uid="{10C0EFDD-8FEE-41FA-A6DA-8FE3EA458520}" name="laneUART" dataDxfId="13"/>
+    <tableColumn id="37" xr3:uid="{8718023C-E89D-479D-8DDB-53B56190C652}" name="langeI2C" dataDxfId="12"/>
+    <tableColumn id="36" xr3:uid="{0A52E200-5A7E-4345-B763-2510161760F2}" name="laneSPI" dataDxfId="11"/>
+    <tableColumn id="25" xr3:uid="{1C1B65FF-0397-4A72-B697-BEE8A7130ACE}" name="WLAN &lt;protocol&gt;" dataDxfId="10"/>
+    <tableColumn id="26" xr3:uid="{CE794EDB-081C-414E-8975-5B0FBFC905EE}" name="BT &lt;protocol&gt;" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{D2D192E4-D4BC-456C-AFD4-2AC6C192B221}" name="HID &lt;protocol&gt;" dataDxfId="8"/>
     <tableColumn id="32" xr3:uid="{2BDB4DB9-DFE3-4AAA-95E1-062F62CF4291}" name="castellatedEdge" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{9E7D0881-B1D1-43E9-B469-F3EA9BF57CBF}" name="platform" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{72928A24-D14D-468F-8CE2-67C7ED1B739C}" name="comment" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{9E7D0881-B1D1-43E9-B469-F3EA9BF57CBF}" name="platform" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{72928A24-D14D-468F-8CE2-67C7ED1B739C}" name="comment" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3549,100 +3770,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD4" sqref="AD4"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="65" customWidth="1"/>
-    <col min="2" max="2" width="21" style="65" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27" style="65" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="66" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="65" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7.85546875" style="65" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" style="65" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12" style="65" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.85546875" style="65" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" style="65" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" style="65" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" style="65" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.28515625" style="65" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="49" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" customWidth="1"/>
     <col min="17" max="17" width="11.28515625" style="48" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5703125" style="65" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="65" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" style="65" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.28515625" style="65" customWidth="1"/>
-    <col min="22" max="22" width="11" style="65" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.85546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.28515625" customWidth="1"/>
+    <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="21.5703125" style="48" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="17.42578125" style="48" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="7.85546875" style="48" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="9" style="48" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="9.42578125" style="48" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="9.42578125" style="48" customWidth="1"/>
-    <col min="30" max="30" width="8.28515625" style="67" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.28515625" style="65" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="7.7109375" style="48" customWidth="1"/>
     <col min="32" max="32" width="10.85546875" style="48" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="9.85546875" style="48" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="11.5703125" style="48" customWidth="1"/>
     <col min="35" max="35" width="11.140625" style="48" customWidth="1"/>
-    <col min="36" max="36" width="11.5703125" style="67" customWidth="1"/>
-    <col min="37" max="37" width="17.28515625" style="67" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.28515625" style="65" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="30.7109375" style="65" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="9.140625" style="65"/>
+    <col min="36" max="36" width="11.5703125" style="65" customWidth="1"/>
+    <col min="37" max="37" width="17.28515625" style="65" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+    <row r="1" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="107" t="s">
+      <c r="D1" s="66"/>
+      <c r="E1" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
       <c r="J1" s="57"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="82" t="s">
+      <c r="K1" s="66"/>
+      <c r="L1" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="N1" s="82"/>
-      <c r="Q1" s="84"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="82" t="s">
+      <c r="N1" s="80"/>
+      <c r="Q1" s="81"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="W1" s="85"/>
-      <c r="X1" s="86" t="s">
+      <c r="W1" s="66"/>
+      <c r="X1" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="Y1" s="84"/>
-      <c r="Z1" s="84"/>
-      <c r="AA1" s="84"/>
-      <c r="AB1" s="84"/>
-      <c r="AC1" s="84"/>
-      <c r="AD1" s="87"/>
-      <c r="AE1" s="86" t="s">
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="81"/>
+      <c r="AD1" s="83"/>
+      <c r="AE1" s="82" t="s">
         <v>100</v>
       </c>
-      <c r="AF1" s="84"/>
-      <c r="AG1" s="84"/>
-      <c r="AH1" s="84"/>
-      <c r="AI1" s="84"/>
-      <c r="AJ1" s="88"/>
-      <c r="AK1" s="87"/>
-      <c r="AL1" s="82" t="s">
+      <c r="AF1" s="81"/>
+      <c r="AG1" s="81"/>
+      <c r="AH1" s="81"/>
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="84"/>
+      <c r="AK1" s="83"/>
+      <c r="AL1" s="80" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3656,7 +3870,7 @@
       <c r="C2" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="67" t="s">
         <v>77</v>
       </c>
       <c r="E2" s="51" t="s">
@@ -3677,7 +3891,7 @@
       <c r="J2" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="K2" s="69" t="s">
+      <c r="K2" s="67" t="s">
         <v>95</v>
       </c>
       <c r="L2" s="51" t="s">
@@ -3701,7 +3915,7 @@
       <c r="R2" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="S2" s="73" t="s">
+      <c r="S2" s="71" t="s">
         <v>74</v>
       </c>
       <c r="T2" s="51" t="s">
@@ -3713,7 +3927,7 @@
       <c r="V2" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="W2" s="73" t="s">
+      <c r="W2" s="71" t="s">
         <v>63</v>
       </c>
       <c r="X2" s="52" t="s">
@@ -3734,7 +3948,7 @@
       <c r="AC2" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="AD2" s="79" t="s">
+      <c r="AD2" s="77" t="s">
         <v>67</v>
       </c>
       <c r="AE2" s="53" t="s">
@@ -3755,7 +3969,7 @@
       <c r="AJ2" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="AK2" s="91" t="s">
+      <c r="AK2" s="87" t="s">
         <v>90</v>
       </c>
       <c r="AL2" s="54" t="s">
@@ -3765,7 +3979,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:39" customFormat="1" ht="87.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" ht="87.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37">
         <v>1</v>
       </c>
@@ -3773,8 +3987,8 @@
         <v>28</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="108"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="103"/>
       <c r="F3" s="12">
         <v>4</v>
       </c>
@@ -3784,11 +3998,11 @@
       <c r="H3" s="17">
         <v>7</v>
       </c>
-      <c r="I3" s="99" t="s">
+      <c r="I3" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="100"/>
-      <c r="K3" s="72"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="70"/>
       <c r="L3" s="42" t="s">
         <v>0</v>
       </c>
@@ -3806,17 +4020,17 @@
       <c r="R3" s="11">
         <v>5</v>
       </c>
-      <c r="S3" s="74" t="s">
+      <c r="S3" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="94" t="s">
+      <c r="T3" s="90" t="s">
         <v>8</v>
       </c>
       <c r="U3" s="44"/>
       <c r="V3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="W3" s="74" t="s">
+      <c r="W3" s="72" t="s">
         <v>3</v>
       </c>
       <c r="X3" s="45" t="e" vm="1">
@@ -3834,10 +4048,10 @@
         <v>9</v>
       </c>
       <c r="AC3" s="20"/>
-      <c r="AD3" s="80">
+      <c r="AD3" s="78">
         <v>5</v>
       </c>
-      <c r="AE3" s="77">
+      <c r="AE3" s="75">
         <v>1</v>
       </c>
       <c r="AF3" s="30">
@@ -3855,10 +4069,10 @@
       <c r="AJ3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="AK3" s="92" t="s">
+      <c r="AK3" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="AL3" s="89" t="s">
+      <c r="AL3" s="85" t="s">
         <v>4</v>
       </c>
       <c r="AM3" s="7" t="s">
@@ -3872,7 +4086,7 @@
       <c r="B4" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="110"/>
+      <c r="D4" s="105"/>
       <c r="F4" s="13">
         <v>6</v>
       </c>
@@ -3882,11 +4096,11 @@
       <c r="H4" s="24">
         <v>7</v>
       </c>
-      <c r="I4" s="101" t="s">
+      <c r="I4" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="102"/>
-      <c r="K4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="94"/>
       <c r="L4" s="40" t="s">
         <v>0</v>
       </c>
@@ -3902,7 +4116,7 @@
       <c r="R4" s="14">
         <v>5</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="74" t="s">
         <v>24</v>
       </c>
       <c r="T4" s="44" t="s">
@@ -3912,7 +4126,7 @@
       <c r="V4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="W4" s="74" t="s">
+      <c r="W4" s="72" t="s">
         <v>3</v>
       </c>
       <c r="X4" s="45" t="e" vm="1">
@@ -3930,10 +4144,10 @@
         <v>9</v>
       </c>
       <c r="AC4" s="20"/>
-      <c r="AD4" s="81">
+      <c r="AD4" s="79">
         <v>5</v>
       </c>
-      <c r="AE4" s="78">
+      <c r="AE4" s="76">
         <v>1</v>
       </c>
       <c r="AF4" s="31">
@@ -3951,10 +4165,10 @@
       <c r="AJ4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="AK4" s="93" t="s">
+      <c r="AK4" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="AL4" s="89" t="s">
+      <c r="AL4" s="85" t="s">
         <v>4</v>
       </c>
       <c r="AM4" s="7" t="s">
@@ -3968,7 +4182,7 @@
       <c r="B5" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="110"/>
+      <c r="D5" s="105"/>
       <c r="F5" s="13">
         <v>2</v>
       </c>
@@ -3978,16 +4192,16 @@
       <c r="H5" s="24">
         <v>10</v>
       </c>
-      <c r="I5" s="101" t="s">
+      <c r="I5" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="102"/>
-      <c r="K5" s="98"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="94"/>
       <c r="L5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="95"/>
-      <c r="N5" s="96"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="92"/>
       <c r="O5" s="59">
         <v>160</v>
       </c>
@@ -3998,7 +4212,7 @@
       <c r="R5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="S5" s="76" t="s">
+      <c r="S5" s="74" t="s">
         <v>25</v>
       </c>
       <c r="T5" s="41" t="s">
@@ -4008,7 +4222,7 @@
       <c r="V5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="W5" s="75" t="s">
+      <c r="W5" s="73" t="s">
         <v>26</v>
       </c>
       <c r="X5" s="46" t="e" vm="2">
@@ -4026,10 +4240,10 @@
         <v>18</v>
       </c>
       <c r="AC5" s="21"/>
-      <c r="AD5" s="81">
+      <c r="AD5" s="79">
         <v>9</v>
       </c>
-      <c r="AE5" s="78">
+      <c r="AE5" s="76">
         <v>1</v>
       </c>
       <c r="AF5" s="31">
@@ -4047,10 +4261,10 @@
       <c r="AJ5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="AK5" s="93" t="s">
+      <c r="AK5" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="AL5" s="89" t="s">
+      <c r="AL5" s="85" t="s">
         <v>4</v>
       </c>
       <c r="AM5" s="3"/>
@@ -4063,7 +4277,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="38"/>
-      <c r="D6" s="110"/>
+      <c r="D6" s="105"/>
       <c r="F6" s="13">
         <v>5</v>
       </c>
@@ -4073,16 +4287,16 @@
       <c r="H6" s="24">
         <v>8</v>
       </c>
-      <c r="I6" s="101" t="s">
+      <c r="I6" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="102"/>
-      <c r="K6" s="71"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="69"/>
       <c r="L6" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="97"/>
-      <c r="N6" s="97"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="93"/>
       <c r="O6" s="59">
         <v>133</v>
       </c>
@@ -4093,7 +4307,7 @@
       <c r="R6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="S6" s="76" t="s">
+      <c r="S6" s="74" t="s">
         <v>19</v>
       </c>
       <c r="T6" s="41" t="s">
@@ -4103,7 +4317,7 @@
       <c r="V6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="W6" s="75" t="s">
+      <c r="W6" s="73" t="s">
         <v>26</v>
       </c>
       <c r="X6" s="46" t="e" vm="3">
@@ -4121,10 +4335,10 @@
         <v>40</v>
       </c>
       <c r="AC6" s="21"/>
-      <c r="AD6" s="81">
+      <c r="AD6" s="79">
         <v>16</v>
       </c>
-      <c r="AE6" s="78">
+      <c r="AE6" s="76">
         <v>2</v>
       </c>
       <c r="AF6" s="31">
@@ -4142,10 +4356,10 @@
       <c r="AJ6" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="AK6" s="93" t="s">
+      <c r="AK6" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="AL6" s="89" t="s">
+      <c r="AL6" s="85" t="s">
         <v>27</v>
       </c>
       <c r="AM6" s="3"/>
@@ -4158,7 +4372,7 @@
         <v>34</v>
       </c>
       <c r="C7" s="38"/>
-      <c r="D7" s="110"/>
+      <c r="D7" s="105"/>
       <c r="F7" s="13">
         <v>5</v>
       </c>
@@ -4168,16 +4382,16 @@
       <c r="H7" s="24">
         <v>8</v>
       </c>
-      <c r="I7" s="103" t="s">
+      <c r="I7" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="104"/>
-      <c r="K7" s="71"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="69"/>
       <c r="L7" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="M7" s="97"/>
-      <c r="N7" s="97"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="93"/>
       <c r="O7" s="59">
         <v>133</v>
       </c>
@@ -4188,7 +4402,7 @@
       <c r="R7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="76" t="s">
+      <c r="S7" s="74" t="s">
         <v>19</v>
       </c>
       <c r="T7" s="41" t="s">
@@ -4198,7 +4412,7 @@
       <c r="V7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="W7" s="75" t="s">
+      <c r="W7" s="73" t="s">
         <v>26</v>
       </c>
       <c r="X7" s="46" t="e" vm="4">
@@ -4216,10 +4430,10 @@
         <v>40</v>
       </c>
       <c r="AC7" s="21"/>
-      <c r="AD7" s="81">
+      <c r="AD7" s="79">
         <v>16</v>
       </c>
-      <c r="AE7" s="78">
+      <c r="AE7" s="76">
         <v>2</v>
       </c>
       <c r="AF7" s="31">
@@ -4237,10 +4451,10 @@
       <c r="AJ7" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="AK7" s="93" t="s">
+      <c r="AK7" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="AL7" s="89" t="s">
+      <c r="AL7" s="85" t="s">
         <v>27</v>
       </c>
       <c r="AM7" s="3"/>
@@ -4252,7 +4466,7 @@
       <c r="B8" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="110"/>
+      <c r="D8" s="105"/>
       <c r="F8" s="13">
         <v>5</v>
       </c>
@@ -4262,11 +4476,11 @@
       <c r="H8" s="24">
         <v>7</v>
       </c>
-      <c r="I8" s="105" t="s">
+      <c r="I8" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="106"/>
-      <c r="K8" s="72"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="70"/>
       <c r="L8" s="43" t="s">
         <v>15</v>
       </c>
@@ -4282,7 +4496,7 @@
       <c r="R8" s="35">
         <v>3.3</v>
       </c>
-      <c r="S8" s="76" t="s">
+      <c r="S8" s="74" t="s">
         <v>19</v>
       </c>
       <c r="T8" s="41" t="s">
@@ -4292,7 +4506,7 @@
       <c r="V8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="W8" s="75" t="s">
+      <c r="W8" s="73" t="s">
         <v>26</v>
       </c>
       <c r="X8" s="46" t="s">
@@ -4309,10 +4523,10 @@
         <v>41</v>
       </c>
       <c r="AC8" s="21"/>
-      <c r="AD8" s="81">
+      <c r="AD8" s="79">
         <v>16</v>
       </c>
-      <c r="AE8" s="78">
+      <c r="AE8" s="76">
         <v>2</v>
       </c>
       <c r="AF8" s="31">
@@ -4330,10 +4544,10 @@
       <c r="AJ8" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="AK8" s="93" t="s">
+      <c r="AK8" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="AL8" s="89" t="s">
+      <c r="AL8" s="85" t="s">
         <v>27</v>
       </c>
       <c r="AM8" s="3" t="s">
@@ -4348,7 +4562,7 @@
         <v>36</v>
       </c>
       <c r="C9"/>
-      <c r="D9" s="111"/>
+      <c r="D9" s="106"/>
       <c r="E9"/>
       <c r="F9" s="13">
         <v>5</v>
@@ -4359,11 +4573,11 @@
       <c r="H9" s="24">
         <v>7</v>
       </c>
-      <c r="I9" s="105" t="s">
+      <c r="I9" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="106"/>
-      <c r="K9" s="72"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="70"/>
       <c r="L9" s="43" t="s">
         <v>15</v>
       </c>
@@ -4379,7 +4593,7 @@
       <c r="R9" s="35">
         <v>3.3</v>
       </c>
-      <c r="S9" s="76" t="s">
+      <c r="S9" s="74" t="s">
         <v>19</v>
       </c>
       <c r="T9" s="41" t="s">
@@ -4389,7 +4603,7 @@
       <c r="V9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="W9" s="75" t="s">
+      <c r="W9" s="73" t="s">
         <v>26</v>
       </c>
       <c r="X9" s="46" t="e" vm="5">
@@ -4407,7 +4621,7 @@
         <v>41</v>
       </c>
       <c r="AC9" s="21"/>
-      <c r="AD9" s="81">
+      <c r="AD9" s="79">
         <v>16</v>
       </c>
       <c r="AE9" s="47">
@@ -4428,10 +4642,10 @@
       <c r="AJ9" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="AK9" s="93" t="s">
+      <c r="AK9" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="AL9" s="89" t="s">
+      <c r="AL9" s="85" t="s">
         <v>27</v>
       </c>
       <c r="AM9" s="3"/>
@@ -4444,7 +4658,7 @@
         <v>38</v>
       </c>
       <c r="C10"/>
-      <c r="D10" s="111"/>
+      <c r="D10" s="106"/>
       <c r="E10"/>
       <c r="F10" s="13">
         <v>4</v>
@@ -4455,11 +4669,11 @@
       <c r="H10" s="24">
         <v>7</v>
       </c>
-      <c r="I10" s="105" t="s">
+      <c r="I10" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="106"/>
-      <c r="K10" s="72"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="70"/>
       <c r="L10" s="43" t="s">
         <v>15</v>
       </c>
@@ -4475,7 +4689,7 @@
       <c r="R10" s="35">
         <v>3.3</v>
       </c>
-      <c r="S10" s="76" t="s">
+      <c r="S10" s="74" t="s">
         <v>19</v>
       </c>
       <c r="T10" s="41" t="s">
@@ -4485,7 +4699,7 @@
       <c r="V10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="W10" s="75" t="s">
+      <c r="W10" s="73" t="s">
         <v>26</v>
       </c>
       <c r="X10" s="46" t="e" vm="6">
@@ -4503,10 +4717,10 @@
         <v>41</v>
       </c>
       <c r="AC10" s="21"/>
-      <c r="AD10" s="81">
+      <c r="AD10" s="79">
         <v>16</v>
       </c>
-      <c r="AE10" s="78">
+      <c r="AE10" s="76">
         <v>2</v>
       </c>
       <c r="AF10" s="31">
@@ -4524,10 +4738,10 @@
       <c r="AJ10" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="AK10" s="93" t="s">
+      <c r="AK10" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="AL10" s="89" t="s">
+      <c r="AL10" s="85" t="s">
         <v>27</v>
       </c>
       <c r="AM10" s="3"/>
@@ -4540,7 +4754,7 @@
         <v>46</v>
       </c>
       <c r="C11"/>
-      <c r="D11" s="111"/>
+      <c r="D11" s="106"/>
       <c r="E11"/>
       <c r="F11" s="13">
         <v>3</v>
@@ -4551,11 +4765,11 @@
       <c r="H11" s="24">
         <v>7</v>
       </c>
-      <c r="I11" s="105" t="s">
+      <c r="I11" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="106"/>
-      <c r="K11" s="72"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="70"/>
       <c r="L11" s="43" t="s">
         <v>15</v>
       </c>
@@ -4571,7 +4785,7 @@
       <c r="R11" s="35">
         <v>3.3</v>
       </c>
-      <c r="S11" s="76" t="s">
+      <c r="S11" s="74" t="s">
         <v>19</v>
       </c>
       <c r="T11" s="41" t="s">
@@ -4581,7 +4795,7 @@
       <c r="V11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="W11" s="75" t="s">
+      <c r="W11" s="73" t="s">
         <v>26</v>
       </c>
       <c r="X11" s="46" t="e" vm="7">
@@ -4599,10 +4813,10 @@
         <v>41</v>
       </c>
       <c r="AC11" s="21"/>
-      <c r="AD11" s="81">
+      <c r="AD11" s="79">
         <v>16</v>
       </c>
-      <c r="AE11" s="78">
+      <c r="AE11" s="76">
         <v>2</v>
       </c>
       <c r="AF11" s="31">
@@ -4620,10 +4834,10 @@
       <c r="AJ11" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="AK11" s="93" t="s">
+      <c r="AK11" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="AL11" s="89" t="s">
+      <c r="AL11" s="85" t="s">
         <v>27</v>
       </c>
       <c r="AM11" s="3"/>
@@ -4634,13 +4848,13 @@
       </c>
       <c r="B12" s="34"/>
       <c r="C12" s="39"/>
-      <c r="D12" s="112"/>
+      <c r="D12" s="107"/>
       <c r="E12" s="40"/>
       <c r="G12" s="16"/>
       <c r="H12" s="24"/>
       <c r="I12" s="18"/>
       <c r="J12" s="17"/>
-      <c r="K12" s="70"/>
+      <c r="K12" s="68"/>
       <c r="L12" s="41"/>
       <c r="M12" s="41"/>
       <c r="N12" s="64"/>
@@ -4650,26 +4864,26 @@
       <c r="P12" s="26"/>
       <c r="Q12" s="26"/>
       <c r="R12" s="14"/>
-      <c r="S12" s="76"/>
+      <c r="S12" s="74"/>
       <c r="T12" s="41"/>
       <c r="U12" s="41"/>
       <c r="V12" s="2"/>
-      <c r="W12" s="76"/>
+      <c r="W12" s="74"/>
       <c r="X12" s="47"/>
       <c r="Y12" s="47"/>
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="21"/>
-      <c r="AD12" s="81"/>
-      <c r="AE12" s="78"/>
+      <c r="AD12" s="79"/>
+      <c r="AE12" s="76"/>
       <c r="AF12" s="31"/>
       <c r="AG12" s="29"/>
       <c r="AH12" s="15"/>
       <c r="AI12" s="15"/>
       <c r="AJ12" s="23"/>
-      <c r="AK12" s="93"/>
-      <c r="AL12" s="90"/>
+      <c r="AK12" s="89"/>
+      <c r="AL12" s="86"/>
       <c r="AM12" s="3"/>
     </row>
     <row r="13" spans="1:39" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4682,14 +4896,16 @@
       <c r="C13" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="112"/>
-      <c r="E13" s="40"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="40" t="s">
+        <v>103</v>
+      </c>
       <c r="F13" s="13"/>
       <c r="G13" s="16"/>
       <c r="H13" s="24"/>
       <c r="I13" s="19"/>
       <c r="J13" s="24"/>
-      <c r="K13" s="70"/>
+      <c r="K13" s="68"/>
       <c r="L13" s="41"/>
       <c r="M13" s="41"/>
       <c r="N13" s="64"/>
@@ -4697,26 +4913,26 @@
       <c r="P13" s="26"/>
       <c r="Q13" s="26"/>
       <c r="R13" s="14"/>
-      <c r="S13" s="76"/>
+      <c r="S13" s="74"/>
       <c r="T13" s="41"/>
       <c r="U13" s="41"/>
       <c r="V13" s="2"/>
-      <c r="W13" s="76"/>
+      <c r="W13" s="74"/>
       <c r="X13" s="47"/>
       <c r="Y13" s="47"/>
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="21"/>
-      <c r="AD13" s="81"/>
-      <c r="AE13" s="78"/>
+      <c r="AD13" s="79"/>
+      <c r="AE13" s="76"/>
       <c r="AF13" s="31"/>
       <c r="AG13" s="29"/>
       <c r="AH13" s="15"/>
       <c r="AI13" s="15"/>
       <c r="AJ13" s="23"/>
-      <c r="AK13" s="93"/>
-      <c r="AL13" s="90"/>
+      <c r="AK13" s="89"/>
+      <c r="AL13" s="86"/>
       <c r="AM13" s="3"/>
     </row>
     <row r="14" spans="1:39" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4729,14 +4945,14 @@
       <c r="C14" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="112"/>
+      <c r="D14" s="107"/>
       <c r="E14" s="40"/>
       <c r="F14" s="13"/>
       <c r="G14" s="16"/>
       <c r="H14" s="24"/>
       <c r="I14" s="19"/>
       <c r="J14" s="24"/>
-      <c r="K14" s="70"/>
+      <c r="K14" s="68"/>
       <c r="L14" s="41"/>
       <c r="M14" s="41"/>
       <c r="N14" s="64"/>
@@ -4744,26 +4960,26 @@
       <c r="P14" s="26"/>
       <c r="Q14" s="26"/>
       <c r="R14" s="14"/>
-      <c r="S14" s="76"/>
+      <c r="S14" s="74"/>
       <c r="T14" s="41"/>
       <c r="U14" s="41"/>
       <c r="V14" s="2"/>
-      <c r="W14" s="76"/>
+      <c r="W14" s="74"/>
       <c r="X14" s="47"/>
       <c r="Y14" s="47"/>
       <c r="Z14" s="4"/>
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="21"/>
-      <c r="AD14" s="81"/>
-      <c r="AE14" s="78"/>
+      <c r="AD14" s="79"/>
+      <c r="AE14" s="76"/>
       <c r="AF14" s="31"/>
       <c r="AG14" s="29"/>
       <c r="AH14" s="15"/>
       <c r="AI14" s="15"/>
       <c r="AJ14" s="23"/>
-      <c r="AK14" s="93"/>
-      <c r="AL14" s="90"/>
+      <c r="AK14" s="89"/>
+      <c r="AL14" s="86"/>
       <c r="AM14" s="3"/>
     </row>
     <row r="15" spans="1:39" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4776,14 +4992,14 @@
       <c r="C15" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="112"/>
+      <c r="D15" s="107"/>
       <c r="E15" s="40"/>
       <c r="F15" s="13"/>
       <c r="G15" s="16"/>
       <c r="H15" s="24"/>
       <c r="I15" s="19"/>
       <c r="J15" s="24"/>
-      <c r="K15" s="70"/>
+      <c r="K15" s="68"/>
       <c r="L15" s="41"/>
       <c r="M15" s="41"/>
       <c r="N15" s="64"/>
@@ -4791,26 +5007,26 @@
       <c r="P15" s="26"/>
       <c r="Q15" s="26"/>
       <c r="R15" s="14"/>
-      <c r="S15" s="76"/>
+      <c r="S15" s="74"/>
       <c r="T15" s="41"/>
       <c r="U15" s="41"/>
       <c r="V15" s="2"/>
-      <c r="W15" s="76"/>
+      <c r="W15" s="74"/>
       <c r="X15" s="47"/>
       <c r="Y15" s="47"/>
       <c r="Z15" s="4"/>
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="21"/>
-      <c r="AD15" s="81"/>
-      <c r="AE15" s="78"/>
+      <c r="AD15" s="79"/>
+      <c r="AE15" s="76"/>
       <c r="AF15" s="31"/>
       <c r="AG15" s="29"/>
       <c r="AH15" s="15"/>
       <c r="AI15" s="15"/>
       <c r="AJ15" s="23"/>
-      <c r="AK15" s="93"/>
-      <c r="AL15" s="90"/>
+      <c r="AK15" s="89"/>
+      <c r="AL15" s="86"/>
       <c r="AM15" s="3"/>
     </row>
     <row r="16" spans="1:39" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4823,14 +5039,14 @@
       <c r="C16" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="112"/>
+      <c r="D16" s="107"/>
       <c r="E16" s="40"/>
       <c r="F16" s="13"/>
       <c r="G16" s="16"/>
       <c r="H16" s="24"/>
       <c r="I16" s="19"/>
       <c r="J16" s="24"/>
-      <c r="K16" s="70"/>
+      <c r="K16" s="68"/>
       <c r="L16" s="41"/>
       <c r="M16" s="41"/>
       <c r="N16" s="64"/>
@@ -4838,26 +5054,26 @@
       <c r="P16" s="26"/>
       <c r="Q16" s="26"/>
       <c r="R16" s="14"/>
-      <c r="S16" s="76"/>
+      <c r="S16" s="74"/>
       <c r="T16" s="41"/>
       <c r="U16" s="41"/>
       <c r="V16" s="2"/>
-      <c r="W16" s="76"/>
+      <c r="W16" s="74"/>
       <c r="X16" s="47"/>
       <c r="Y16" s="47"/>
       <c r="Z16" s="4"/>
       <c r="AA16" s="4"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="21"/>
-      <c r="AD16" s="81"/>
-      <c r="AE16" s="78"/>
+      <c r="AD16" s="79"/>
+      <c r="AE16" s="76"/>
       <c r="AF16" s="31"/>
       <c r="AG16" s="29"/>
       <c r="AH16" s="15"/>
       <c r="AI16" s="15"/>
       <c r="AJ16" s="23"/>
-      <c r="AK16" s="93"/>
-      <c r="AL16" s="90"/>
+      <c r="AK16" s="89"/>
+      <c r="AL16" s="86"/>
       <c r="AM16" s="3"/>
     </row>
     <row r="17" spans="1:39" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4865,15 +5081,17 @@
         <v>15</v>
       </c>
       <c r="B17" s="34"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="74"/>
+      <c r="C17" s="108" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="72"/>
       <c r="E17" s="41"/>
       <c r="F17" s="13"/>
       <c r="G17" s="16"/>
       <c r="H17" s="24"/>
       <c r="I17" s="19"/>
       <c r="J17" s="24"/>
-      <c r="K17" s="70"/>
+      <c r="K17" s="68"/>
       <c r="L17" s="41"/>
       <c r="M17" s="41"/>
       <c r="N17" s="64"/>
@@ -4881,56 +5099,142 @@
       <c r="P17" s="26"/>
       <c r="Q17" s="26"/>
       <c r="R17" s="14"/>
-      <c r="S17" s="76"/>
+      <c r="S17" s="74"/>
       <c r="T17" s="41"/>
       <c r="U17" s="41"/>
       <c r="V17" s="2"/>
-      <c r="W17" s="76"/>
+      <c r="W17" s="74"/>
       <c r="X17" s="47"/>
       <c r="Y17" s="47"/>
       <c r="Z17" s="4"/>
       <c r="AA17" s="4"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="21"/>
-      <c r="AD17" s="81"/>
-      <c r="AE17" s="78"/>
+      <c r="AD17" s="79"/>
+      <c r="AE17" s="76"/>
       <c r="AF17" s="31"/>
       <c r="AG17" s="29"/>
       <c r="AH17" s="15"/>
       <c r="AI17" s="15"/>
       <c r="AJ17" s="23"/>
-      <c r="AK17" s="93"/>
-      <c r="AL17" s="90"/>
+      <c r="AK17" s="89"/>
+      <c r="AL17" s="86"/>
       <c r="AM17" s="3"/>
+    </row>
+    <row r="18" spans="1:39" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="109"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="111" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="112"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="116"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="119"/>
+      <c r="L18" s="120"/>
+      <c r="M18" s="121"/>
+      <c r="N18" s="122"/>
+      <c r="O18" s="123"/>
+      <c r="P18" s="124"/>
+      <c r="Q18" s="125"/>
+      <c r="R18" s="126"/>
+      <c r="S18" s="127"/>
+      <c r="T18" s="128"/>
+      <c r="U18" s="121"/>
+      <c r="V18" s="129"/>
+      <c r="W18" s="127"/>
+      <c r="X18" s="130"/>
+      <c r="Y18" s="131"/>
+      <c r="Z18" s="132"/>
+      <c r="AA18" s="133"/>
+      <c r="AB18" s="132"/>
+      <c r="AC18" s="134"/>
+      <c r="AD18" s="135"/>
+      <c r="AE18" s="136"/>
+      <c r="AF18" s="137"/>
+      <c r="AG18" s="138"/>
+      <c r="AH18" s="139"/>
+      <c r="AI18" s="139"/>
+      <c r="AJ18" s="139"/>
+      <c r="AK18" s="140"/>
+      <c r="AL18" s="141"/>
+      <c r="AM18" s="142"/>
+    </row>
+    <row r="19" spans="1:39" s="1" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="109"/>
+      <c r="B19" s="110"/>
+      <c r="C19" s="111" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="112"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="118"/>
+      <c r="K19" s="119"/>
+      <c r="L19" s="120"/>
+      <c r="M19" s="121"/>
+      <c r="N19" s="122"/>
+      <c r="O19" s="123"/>
+      <c r="P19" s="124"/>
+      <c r="Q19" s="125"/>
+      <c r="R19" s="126"/>
+      <c r="S19" s="127"/>
+      <c r="T19" s="128"/>
+      <c r="U19" s="121"/>
+      <c r="V19" s="129"/>
+      <c r="W19" s="127"/>
+      <c r="X19" s="130"/>
+      <c r="Y19" s="131"/>
+      <c r="Z19" s="132"/>
+      <c r="AA19" s="133"/>
+      <c r="AB19" s="132"/>
+      <c r="AC19" s="134"/>
+      <c r="AD19" s="135"/>
+      <c r="AE19" s="136"/>
+      <c r="AF19" s="137"/>
+      <c r="AG19" s="138"/>
+      <c r="AH19" s="139"/>
+      <c r="AI19" s="139"/>
+      <c r="AJ19" s="139"/>
+      <c r="AK19" s="140"/>
+      <c r="AL19" s="141"/>
+      <c r="AM19" s="142"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A3:B3 C3:E10 B4:B11 A4:A17 C12:E17 B13:B17 F3:AM17">
-    <cfRule type="endsWith" dxfId="5" priority="1" operator="endsWith" text="?">
+  <conditionalFormatting sqref="A3:B3 C3:E10 F3:AM19 B4:B11 A4:A19 C12:E19 B13:B19">
+    <cfRule type="endsWith" dxfId="4" priority="1" operator="endsWith" text="?">
       <formula>RIGHT(A3,LEN("?"))="?"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE3:AG17">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
+  <conditionalFormatting sqref="AE3:AG19">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE3:AK17">
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="0">
+  <conditionalFormatting sqref="AE3:AK19">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",AE3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="J">
+    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="J">
       <formula>NOT(ISERROR(SEARCH("J",AE3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="8" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",AE3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AK17" xr:uid="{71C80AAF-D900-484D-9411-9896D880E474}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AK19" xr:uid="{71C80AAF-D900-484D-9411-9896D880E474}">
       <formula1>"J,N"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE3:AG17" xr:uid="{326930F3-3C77-4222-8E18-BDC5A15AE348}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE3:AG19" xr:uid="{326930F3-3C77-4222-8E18-BDC5A15AE348}">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
@@ -4967,11 +5271,15 @@
     <hyperlink ref="C14" r:id="rId29" xr:uid="{D9345D44-2E37-4573-A18B-711CF6AA6807}"/>
     <hyperlink ref="C15" r:id="rId30" xr:uid="{151567A2-5746-463A-9F85-E3B464F76ECC}"/>
     <hyperlink ref="C16" r:id="rId31" xr:uid="{8BF53116-C1BD-44D1-A0CC-DBD9D88516E8}"/>
+    <hyperlink ref="E13" r:id="rId32" xr:uid="{EC15212B-434A-4AAD-ACE4-8055F13077B6}"/>
+    <hyperlink ref="C17" r:id="rId33" xr:uid="{CA541FF7-82B4-49E0-9174-C33E244B5D2B}"/>
+    <hyperlink ref="C18" r:id="rId34" xr:uid="{969DC642-C415-40F5-B0C7-180520D693CC}"/>
+    <hyperlink ref="C19" r:id="rId35" xr:uid="{7C2DC03F-1126-4734-A82B-88EF6376082E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId32"/>
+  <drawing r:id="rId36"/>
   <tableParts count="1">
-    <tablePart r:id="rId33"/>
+    <tablePart r:id="rId37"/>
   </tableParts>
 </worksheet>
 </file>